--- a/PestdataSet.xlsx
+++ b/PestdataSet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="362">
   <si>
     <t>PestName</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Weight(KG)</t>
   </si>
   <si>
-    <t>Hieght/Length(CM)</t>
+    <t>Height/Length(CM)</t>
   </si>
   <si>
     <t>Threats</t>
@@ -52,6 +52,9 @@
     <t>1.2-2.0</t>
   </si>
   <si>
+    <t>They directly compete with livestock for pasture and which can seriously affect farming enterprises and can cause irreversible land degradation</t>
+  </si>
+  <si>
     <t>Great Britain/Ireland/Australia/Chile</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>35-50</t>
   </si>
   <si>
+    <t>They prey on native wildlifes and are implicated with the decline and extinction of many small to medium-sized mamals</t>
+  </si>
+  <si>
     <t>Australia/Sardinia/Italy</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>56-59</t>
   </si>
   <si>
+    <t>They cause significant damage to farming enterprises, and have been implicated in the decline of several native species</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australia </t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>15-24</t>
   </si>
   <si>
+    <t>They pose a health risk to humans, livestock and native animals as carriers of diseases such as toxoplasmosis and sarcosporidiosis</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom/Australia/Italy/United States </t>
   </si>
   <si>
@@ -160,7 +172,7 @@
     <t>Negative impacts on freshwater ecosystem: increase turbidty/bank slumping/nutrients/algae blooms and decrease aquatic plants/native fish/water quality</t>
   </si>
   <si>
-    <t>eastern Asia/ eastern Europe/Australia(VIC/NSW/ACT/QLD/WA/SA/TAS)</t>
+    <t>Eastern Asia/ Eastern Europe/Australia(VIC/NSW/ACT/QLD/WA/SA/TAS)</t>
   </si>
   <si>
     <t>eat a herbivorous diet of aquatic plants, insects, crustaceans, crawfish and benthic worms</t>
@@ -497,6 +509,51 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Red_deer#/media/File:Cervus_elaphus_Luc_Viatour_6.jpg</t>
+  </si>
+  <si>
+    <t>Red Imported Fire Ant</t>
+  </si>
+  <si>
+    <t>0.065-6.0</t>
+  </si>
+  <si>
+    <t>They will attacking grasshoppers, and these ants inflict a painful sting and they are very likely to damage the local environment and threatning ecosystem</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>consists of dead mammals, arthropods, insects, earthworms, vertebrates and solid food matter</t>
+  </si>
+  <si>
+    <t>use peppermint essential oil/cayenne pepper/body powder to kill fire ants</t>
+  </si>
+  <si>
+    <t>Fire ants bite to get a grip and sting by injecting a toxic alkaloid venom named solenopsin. This could be very painful for most of people and might cause severe swelling, chest pain, or shortness of breath. If you experience some of these symptoms, you should immediately call emergency medical attention</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Red_imported_fire_ant#/media/File:Fire_ants_01.jpg</t>
+  </si>
+  <si>
+    <t>Chital Deer</t>
+  </si>
+  <si>
+    <t>25-110</t>
+  </si>
+  <si>
+    <t>70-86</t>
+  </si>
+  <si>
+    <t>Queensland/New South Wales/South Australia</t>
+  </si>
+  <si>
+    <t>browse on a variety of grasses, fruit and leaves</t>
+  </si>
+  <si>
+    <t>Chital deer is initially introduced to Australia in 1802, but did not survive. They are gregarious and can be seen in groups of more than 100 individuals</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chital#/media/File:A_chital_stag_1.JPG</t>
   </si>
   <si>
     <t>Lycium ferocissimum Miers</t>
@@ -643,6 +700,100 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Teline_linifolia_2.JPG/1200px-Teline_linifolia_2.JPG</t>
   </si>
   <si>
+    <t>Pereskia aculeata</t>
+  </si>
+  <si>
+    <t>Pereskia aculeata can have a major impact on native trees due to overgrowth and suffocation. It may climb up vegetation and destroy biomass, thereby affecting biomass. It forms large bushes that are difficult to penetrate, and the large thorny stems and branches make it very difficult to control large numbers of infestations. Juicy fruits are attractive to birds as a food source for birds, and they are easily dispersed, allowing new populations to be established. If not restricted, they may cause rapid spread. It can severely harm people and restrict people's access to river banks, and have a major impact on entertainment and tourism.</t>
+  </si>
+  <si>
+    <t>Millaa Millaa/Brisbane/Coolangatta/Cairns</t>
+  </si>
+  <si>
+    <t>It thrives in tropical and subtropical environments and is drought-tolerant. It can tolerate many soil types and tends to drain well and nutrient-rich soils.</t>
+  </si>
+  <si>
+    <t>It can be controlled by Triclopyr or biological control with the leaf-feeding flea-beetle, Phenrica guérini, which has caused significant damage to Pereskia plants at Port Alfred, Eastern Cape, South Africa。</t>
+  </si>
+  <si>
+    <t>Dumping plants in roadside vegetation is another possible cause of spread. Where the leaf cactus is close to small rivers and other water bodies, plant debris can be washed a certain distance downstream to establish new populations</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ed/Pereskia_aculeata_%287204602300%29.jpg/1200px-Pereskia_aculeata_%287204602300%29.jpg</t>
+  </si>
+  <si>
+    <t>Mimosa pigra</t>
+  </si>
+  <si>
+    <t>500-600</t>
+  </si>
+  <si>
+    <t>The invasion of mimosa threatens the production, culture and conservation value of wetlands, and reduces the scope of land users to develop resources. The herders are affected because the inedible and tricky mimosa suffocates and replaces the grasslands, preventing people from entering livestock drinking points. Mimosa threatens important wetlands nationally and internationally, and this reduces the risk by competing with natural plants. The available habitat for native animals reduces the biodiversity of the flora and fauna in the floodplain.</t>
+  </si>
+  <si>
+    <t>Darwin/Bulgul/Humpty Doo/Kununurra/Hotham/Kakadu/West Arnhern</t>
+  </si>
+  <si>
+    <t>If the soil is moist but not submerged, the mimosa will sprout throughout the year. Mimosa grows very fast. Under ideal conditions, the infestation will double every 18 months.</t>
+  </si>
+  <si>
+    <t>Larger areas can be sprayed with herbicides, and strategic use of fire may also be effective. However, long-term biological control is the only cost-effective large-scale infection control. Since 1983, at least 12 species of insects and 2 species of fungi have been released on Australian mimosa, such as Nesaecrepida infuscata, which attack the roots and leaves of plants.</t>
+  </si>
+  <si>
+    <t>Mimosa produces a lot of seeds. If eaten by animals, the seeds will pass through the digestive tract unharmed. Seeds in the soil can also be spread through media. However, in floodplains, the most important method of diffusion is simply to use water, which brings the downstream part into the water.</t>
+  </si>
+  <si>
+    <t>http://www.westafricanplants.senckenberg.de/images/pictures/Mimosa_pigra_KHH_4834_1096_a1fb7d.JPG</t>
+  </si>
+  <si>
+    <t>Prickly Pears</t>
+  </si>
+  <si>
+    <t>500-700</t>
+  </si>
+  <si>
+    <t>Prickly pear may form dense patches that can barely penetrate livestock and other animals, and may harbor harmful insect species, such as rabbits. These species are difficult to graze due to their stout spines, and because they easily pierce the skin, cause irritation and may be difficult to remove, they can cause harm to animals and humans. If they are densely distributed on cultivated land, it will reduce land productivity.</t>
+  </si>
+  <si>
+    <t>Toowoomba/Brisbane/Melbourne/Canberra/Adelaide/Port Augusta/Broken Hill/Dubbo/Tamworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prickly Pears reproduce from broken-off stem segments which develop roots from lower areoles (spots on the stem segments) that are in contact with the soil surface. Detached plant parts from some species have been known to last up to 3 years indoors. </t>
+  </si>
+  <si>
+    <t>Physical removal seems to be one of the most effective control methods for Zanthoxylum bungeanum. Care must also be taken to remove and properly dispose (usually by burning) all plant and fruit materials. The root system must also be dug out to prevent regeneration.</t>
+  </si>
+  <si>
+    <t>Many prickly pears reproduce asexually from stem fragments, flowers or immature fruits. They produce roots when they come into contact with the soil. Local dispersal may occur through stem fragments and fruits falling to the ground and producing new plants.</t>
+  </si>
+  <si>
+    <t>http://bongodogblog.files.wordpress.com/2012/09/prickly-pear-fruit.jpg</t>
+  </si>
+  <si>
+    <t>Salvinia molesta</t>
+  </si>
+  <si>
+    <t>0.5-4</t>
+  </si>
+  <si>
+    <t>It forms a dense cushion on the water surface, severely changing the aquatic habitats of animals including birds, fish and invertebrates. Eliminates light, reduces oxygen content, and causes water stagnation and pollution. The dense cushions hinder the flow of water, restrict the contact of livestock, and provide favorable conditions for the reproduction of disease-carrying mosquitoes.</t>
+  </si>
+  <si>
+    <t>Perth/Darwin/Endyalgout Island/Carins/Townsville/Sydney/Briabane/Melbourne/Newcastle</t>
+  </si>
+  <si>
+    <t>Salvinia grows best when the water temperature is between 20 and 30°C. Growth is restricted or no growth at 10°C. When it is rich in nutrients, it grows faster.</t>
+  </si>
+  <si>
+    <t>Biological control: A tiny weevil, Cyrtobagous salviniae, was found in the native place of S. heartworm and is currently being studied as a biological control.
+Mechanical control: Use a machine or harvesting equipment to remove the plants by hand. This is only suitable for small infestations.</t>
+  </si>
+  <si>
+    <t>Salvinia molesta is probably of hybrid origin and is usually sterile. The dumping of the unwanted contents of ponds and aquaria is a major reason for the spread of Salvinia.</t>
+  </si>
+  <si>
+    <t>http://www.victoria-adventure.org/aquatic_plants/larry/salvinia_molesta_closeup.jpg</t>
+  </si>
+  <si>
     <t>location name</t>
   </si>
   <si>
@@ -725,6 +876,234 @@
   </si>
   <si>
     <t>Wallangarra</t>
+  </si>
+  <si>
+    <t>Millaa Millaa</t>
+  </si>
+  <si>
+    <t>Coolangatta</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>European Rabbits</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>WildDog</t>
+  </si>
+  <si>
+    <t>Bandigo</t>
+  </si>
+  <si>
+    <t>Blue Mountains</t>
+  </si>
+  <si>
+    <t>Rockingham</t>
+  </si>
+  <si>
+    <t>Gawler</t>
+  </si>
+  <si>
+    <t>Horbart</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Geelong</t>
+  </si>
+  <si>
+    <t>Wollongong</t>
+  </si>
+  <si>
+    <t>Bare Island</t>
+  </si>
+  <si>
+    <t>Lion Island</t>
+  </si>
+  <si>
+    <t>Acheron Island</t>
+  </si>
+  <si>
+    <t>Croker Island</t>
+  </si>
+  <si>
+    <t>Beatrice Islets</t>
+  </si>
+  <si>
+    <t>Common Carp</t>
+  </si>
+  <si>
+    <t>Murray Darling Basin</t>
+  </si>
+  <si>
+    <t>Gulf of St Vincent</t>
+  </si>
+  <si>
+    <t>Darwin Australia</t>
+  </si>
+  <si>
+    <t>Bulgul Australia</t>
+  </si>
+  <si>
+    <t>Humpty Doo Australia</t>
+  </si>
+  <si>
+    <t>Kununurra Australia</t>
+  </si>
+  <si>
+    <t>Hotham Australia</t>
+  </si>
+  <si>
+    <t>Kakadu Australia</t>
+  </si>
+  <si>
+    <t>West Arnhern Australia</t>
+  </si>
+  <si>
+    <t>Gold Fish</t>
+  </si>
+  <si>
+    <t>Richmond River</t>
+  </si>
+  <si>
+    <t>Bellinger River</t>
+  </si>
+  <si>
+    <t>Hawkesbury River/Broken Bay</t>
+  </si>
+  <si>
+    <t>Jervis Bay</t>
+  </si>
+  <si>
+    <t>Gippsland Lakes</t>
+  </si>
+  <si>
+    <t>Toowoomba Australia</t>
+  </si>
+  <si>
+    <t>Brisbane Australia</t>
+  </si>
+  <si>
+    <t>Melbourne Australia</t>
+  </si>
+  <si>
+    <t>Canberra Australia</t>
+  </si>
+  <si>
+    <t>Adelaide Australia</t>
+  </si>
+  <si>
+    <t>Port Augusta Australia</t>
+  </si>
+  <si>
+    <t>Broken Hill Australia</t>
+  </si>
+  <si>
+    <t>Dubbo Australia</t>
+  </si>
+  <si>
+    <t>Tamworth Australia</t>
+  </si>
+  <si>
+    <t>Bairnsdale and Paynesville</t>
+  </si>
+  <si>
+    <t>Murray River</t>
+  </si>
+  <si>
+    <t>Macleay River</t>
+  </si>
+  <si>
+    <t>Shoalhaven River</t>
+  </si>
+  <si>
+    <t>Renmark</t>
+  </si>
+  <si>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Clarence River</t>
+  </si>
+  <si>
+    <t>Hastings River</t>
+  </si>
+  <si>
+    <t>Leschenault Inlet &amp; Collie River</t>
+  </si>
+  <si>
+    <t>Macquarie Harbour and the Gordon River</t>
+  </si>
+  <si>
+    <t>Harvey Estuary &amp; Peel Inlet</t>
+  </si>
+  <si>
+    <t>Perth Australia</t>
+  </si>
+  <si>
+    <t>Endyalgout Island Australia</t>
+  </si>
+  <si>
+    <t>Carins Australia</t>
+  </si>
+  <si>
+    <t>Townsville Australia</t>
+  </si>
+  <si>
+    <t>Sydney Australia</t>
+  </si>
+  <si>
+    <t>Newcastle Australia</t>
+  </si>
+  <si>
+    <t>Fatima Island</t>
+  </si>
+  <si>
+    <t>Fort Denison</t>
+  </si>
+  <si>
+    <t>Green Island</t>
+  </si>
+  <si>
+    <t>Kimberley country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney </t>
+  </si>
+  <si>
+    <t>Torres strait</t>
+  </si>
+  <si>
+    <t>Grampians National Park</t>
+  </si>
+  <si>
+    <t>Rocklands Reservoir</t>
+  </si>
+  <si>
+    <t>Barwon</t>
+  </si>
+  <si>
+    <t>Lake Corangamite</t>
+  </si>
+  <si>
+    <t>Beech Forest</t>
+  </si>
+  <si>
+    <t>Yarwun</t>
+  </si>
+  <si>
+    <t>Port Botany</t>
   </si>
 </sst>
 </file>
@@ -763,17 +1142,18 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +1166,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F7FF"/>
+        <bgColor rgb="FFE6F7FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -793,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -822,10 +1208,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1048,14 +1437,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="13.29"/>
+    <col customWidth="1" min="2" max="2" width="21.14"/>
+    <col customWidth="1" min="3" max="3" width="19.86"/>
     <col customWidth="1" min="4" max="4" width="40.0"/>
     <col customWidth="1" min="5" max="5" width="26.43"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
     <col customWidth="1" min="7" max="7" width="52.14"/>
     <col customWidth="1" min="8" max="8" width="66.29"/>
     <col customWidth="1" min="9" max="9" width="88.71"/>
-    <col customWidth="1" min="11" max="11" width="36.29"/>
+    <col customWidth="1" min="11" max="11" width="47.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1117,745 +1507,946 @@
       <c r="C2" s="5">
         <v>40.0</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>161</v>
+      <c r="E21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C26" s="5">
         <v>1800.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C27" s="5">
         <v>300.0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C28" s="5">
         <v>2000.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C29" s="5">
         <v>200.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="37">
@@ -1863,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1895,10 +2486,10 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C38" s="9">
         <v>138.6007456</v>
@@ -1909,10 +2500,10 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C39" s="9">
         <v>144.7851531</v>
@@ -1923,10 +2514,10 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C40" s="9">
         <v>149.1300092</v>
@@ -1937,10 +2528,10 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C41" s="9">
         <v>146.921099</v>
@@ -1951,10 +2542,10 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C42" s="9">
         <v>144.7851531</v>
@@ -1965,10 +2556,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C43" s="9">
         <v>151.2092955</v>
@@ -1979,24 +2570,24 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C44" s="9">
-        <v>-75.5668166</v>
+        <v>151.7816802</v>
       </c>
       <c r="D44" s="9">
-        <v>39.6620397</v>
+        <v>-32.9282712</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C45" s="9">
         <v>153.0251235</v>
@@ -2007,10 +2598,10 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C46" s="9">
         <v>145.9706647</v>
@@ -2021,10 +2612,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C47" s="9">
         <v>132.5509603</v>
@@ -2035,10 +2626,10 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C48" s="9">
         <v>133.8807471</v>
@@ -2049,10 +2640,10 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C49" s="9">
         <v>138.6007456</v>
@@ -2063,10 +2654,10 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C50" s="9">
         <v>141.4539396</v>
@@ -2077,38 +2668,38 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C51" s="9">
-        <v>-2.297577</v>
+        <v>151.341667</v>
       </c>
       <c r="D51" s="9">
-        <v>52.6463589</v>
+        <v>-33.426667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C52" s="9">
-        <v>-4.734014</v>
+        <v>151.0</v>
       </c>
       <c r="D52" s="9">
-        <v>56.002318</v>
+        <v>-34.183333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C53" s="9">
         <v>151.2092955</v>
@@ -2119,10 +2710,10 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C54" s="9">
         <v>151.557</v>
@@ -2133,10 +2724,10 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C55" s="9">
         <v>153.4</v>
@@ -2147,10 +2738,10 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C56" s="9">
         <v>153.1093922</v>
@@ -2161,10 +2752,10 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C57" s="9">
         <v>151.2092955</v>
@@ -2175,24 +2766,24 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C58" s="9">
-        <v>-75.5668166</v>
+        <v>151.7816802</v>
       </c>
       <c r="D58" s="9">
-        <v>39.6620397</v>
+        <v>-32.9282712</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C59" s="9">
         <v>152.4444453</v>
@@ -2203,10 +2794,10 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C60" s="9">
         <v>153.1093922</v>
@@ -2217,10 +2808,10 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C61" s="9">
         <v>153.2882876</v>
@@ -2231,10 +2822,10 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C62" s="9">
         <v>153.4</v>
@@ -2245,10 +2836,10 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C63" s="9">
         <v>153.0251235</v>
@@ -2259,10 +2850,10 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C64" s="9">
         <v>152.6657456</v>
@@ -2273,100 +2864,1949 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="11">
+        <v>220</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" s="9">
         <v>115.8604572</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="9">
         <v>-31.9505269</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="11">
-        <v>-82.0105148</v>
-      </c>
-      <c r="D66" s="11">
-        <v>33.4734978</v>
+        <v>220</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="9">
+        <v>151.341667</v>
+      </c>
+      <c r="D66" s="9">
+        <v>-33.426667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="11">
+        <v>220</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="9">
         <v>138.6007456</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <v>-34.9284989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="11">
+        <v>220</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="9">
         <v>144.9630576</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="9">
         <v>-37.8136276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" s="11">
+        <v>220</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="9">
         <v>149.1300092</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="9">
         <v>-35.2809368</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="11">
+        <v>220</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="9">
         <v>151.2092955</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="9">
         <v>-33.8688197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C71" s="11">
+        <v>220</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="9">
         <v>151.9498509</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <v>-28.8996313</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="9">
+        <v>145.6044448</v>
+      </c>
+      <c r="D72" s="9">
+        <v>-17.5144717</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="9">
+        <v>153.0251235</v>
+      </c>
+      <c r="D73" s="9">
+        <v>-27.4697707</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="9">
+        <v>153.533333</v>
+      </c>
+      <c r="D74" s="9">
+        <v>-28.166667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="9">
+        <v>145.7780548</v>
+      </c>
+      <c r="D75" s="9">
+        <v>-16.9185514</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D78" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D79" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="5">
+        <v>145.9706647</v>
+      </c>
+      <c r="D81" s="10">
+        <v>-41.4545196</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D82" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-20.9175738</v>
+      </c>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D87" s="9">
+        <v>-19.4914108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="5">
+        <v>149.0123679</v>
+      </c>
+      <c r="D88" s="5">
+        <v>-35.4734679</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="5">
+        <v>144.2793906</v>
+      </c>
+      <c r="D89" s="5">
+        <v>-36.7570157</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="5">
+        <v>150.3037323</v>
+      </c>
+      <c r="D90" s="5">
+        <v>-33.409983</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="9">
+        <v>153.0251235</v>
+      </c>
+      <c r="D91" s="9">
+        <v>-27.4697707</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="5">
+        <v>115.726997</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-32.280998</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="9">
+        <v>149.1300092</v>
+      </c>
+      <c r="D93" s="9">
+        <v>-35.2809368</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="5">
+        <v>138.7448796</v>
+      </c>
+      <c r="D94" s="5">
+        <v>-34.5973516</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="5">
+        <v>147.3271949</v>
+      </c>
+      <c r="D95" s="5">
+        <v>-42.8821377</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="5">
+        <v>130.8456</v>
+      </c>
+      <c r="D96" s="5">
+        <v>-12.4634</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="5">
+        <v>144.3617186</v>
+      </c>
+      <c r="D97" s="5">
+        <v>-38.1499181</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="5">
+        <v>150.8930607</v>
+      </c>
+      <c r="D98" s="5">
+        <v>-34.4278121</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" s="5">
+        <v>145.9706647</v>
+      </c>
+      <c r="D99" s="10">
+        <v>-41.4545196</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D100" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="9">
+        <v>138.6007456</v>
+      </c>
+      <c r="D101" s="9">
+        <v>-34.9284989</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="5">
+        <v>149.0123679</v>
+      </c>
+      <c r="D102" s="5">
+        <v>-35.4734679</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D103" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="5">
+        <v>130.8456</v>
+      </c>
+      <c r="D104" s="5">
+        <v>-12.4634</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="5">
+        <v>151.2311911</v>
+      </c>
+      <c r="D105" s="5">
+        <v>-33.9921164</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="5">
+        <v>151.3173758</v>
+      </c>
+      <c r="D106" s="5">
+        <v>-33.5572106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="5">
+        <v>146.6394621</v>
+      </c>
+      <c r="D107" s="5">
+        <v>-18.9625479</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="5">
+        <v>132.5313457</v>
+      </c>
+      <c r="D108" s="5">
+        <v>-11.1764219</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="5">
+        <v>137.6639744</v>
+      </c>
+      <c r="D109" s="5">
+        <v>-35.6264954</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D110" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D111" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D112" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D113" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D114" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D115" s="9">
+        <v>-19.4914108</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="5">
+        <v>149.0123679</v>
+      </c>
+      <c r="D116" s="5">
+        <v>-35.4734679</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="5">
+        <v>143.7443331</v>
+      </c>
+      <c r="D117" s="5">
+        <v>-35.3860672</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="5">
+        <v>138.2393528</v>
+      </c>
+      <c r="D118" s="5">
+        <v>-35.1324002</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="9">
+        <v>130.8456418</v>
+      </c>
+      <c r="D119" s="9">
+        <v>-12.4634403</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="9">
+        <v>130.131029</v>
+      </c>
+      <c r="D120" s="9">
+        <v>-13.0868863</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="9">
+        <v>131.102222</v>
+      </c>
+      <c r="D121" s="9">
+        <v>-12.575278</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="9">
+        <v>128.7654685</v>
+      </c>
+      <c r="D122" s="9">
+        <v>-15.6049485</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="9">
+        <v>147.1327778</v>
+      </c>
+      <c r="D123" s="9">
+        <v>-36.9752778</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C124" s="9">
+        <v>132.3937658</v>
+      </c>
+      <c r="D124" s="9">
+        <v>-13.0922931</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="9">
+        <v>133.6565478</v>
+      </c>
+      <c r="D125" s="9">
+        <v>-12.2562233</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D126" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D127" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D128" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D129" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D130" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="5">
+        <v>147.3271949</v>
+      </c>
+      <c r="D131" s="5">
+        <v>-42.8821377</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" s="5">
+        <v>149.0123679</v>
+      </c>
+      <c r="D132" s="5">
+        <v>-35.4734679</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="5">
+        <v>152.9993386</v>
+      </c>
+      <c r="D133" s="5">
+        <v>-28.6809564</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" s="5">
+        <v>152.7296388</v>
+      </c>
+      <c r="D134" s="5">
+        <v>-30.4332051</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C135" s="5">
+        <v>151.3326862</v>
+      </c>
+      <c r="D135" s="5">
+        <v>-33.5565739</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="5">
+        <v>150.7446771</v>
+      </c>
+      <c r="D136" s="5">
+        <v>-35.0480805</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" s="5">
+        <v>147.65</v>
+      </c>
+      <c r="D137" s="5">
+        <v>-38.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="9">
+        <v>151.9506696</v>
+      </c>
+      <c r="D138" s="9">
+        <v>-27.5598212</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" s="9">
+        <v>153.0251235</v>
+      </c>
+      <c r="D139" s="9">
+        <v>-27.4697707</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C140" s="9">
+        <v>144.9630576</v>
+      </c>
+      <c r="D140" s="9">
+        <v>-37.8136276</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" s="9">
+        <v>149.1300092</v>
+      </c>
+      <c r="D141" s="9">
+        <v>-35.2809368</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="9">
+        <v>138.6007456</v>
+      </c>
+      <c r="D142" s="9">
+        <v>-34.9284989</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="9">
+        <v>137.7894394</v>
+      </c>
+      <c r="D143" s="9">
+        <v>-32.4952339</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" s="9">
+        <v>141.4539396</v>
+      </c>
+      <c r="D144" s="9">
+        <v>-31.9539135</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" s="9">
+        <v>148.6329645</v>
+      </c>
+      <c r="D145" s="9">
+        <v>-32.2315018</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C146" s="9">
+        <v>150.9320334</v>
+      </c>
+      <c r="D146" s="9">
+        <v>-31.092748</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" s="5">
+        <v>147.7123335</v>
+      </c>
+      <c r="D147" s="5">
+        <v>-37.9112576</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" s="5">
+        <v>143.7443331</v>
+      </c>
+      <c r="D148" s="5">
+        <v>-35.3860672</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" s="5">
+        <v>152.45621</v>
+      </c>
+      <c r="D149" s="5">
+        <v>-30.82738429</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="5">
+        <v>149.9358867</v>
+      </c>
+      <c r="D150" s="5">
+        <v>-35.2306369</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="5">
+        <v>140.7442855</v>
+      </c>
+      <c r="D151" s="5">
+        <v>-34.1742746</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C152" s="5">
+        <v>147.995821</v>
+      </c>
+      <c r="D152" s="5">
+        <v>-37.8511185</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C153" s="5">
+        <v>153.1463819</v>
+      </c>
+      <c r="D153" s="5">
+        <v>-29.4612304</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="5">
+        <v>152.4736434</v>
+      </c>
+      <c r="D154" s="5">
+        <v>-31.4101475</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C155" s="5">
+        <v>115.788155</v>
+      </c>
+      <c r="D155" s="5">
+        <v>-33.3057308</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="5">
+        <v>145.3843373</v>
+      </c>
+      <c r="D156" s="5">
+        <v>-42.3197515</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C157" s="5">
+        <v>143.7443331</v>
+      </c>
+      <c r="D157" s="5">
+        <v>-35.3860672</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C158" s="5">
+        <v>143.7443331</v>
+      </c>
+      <c r="D158" s="5">
+        <v>-35.3860672</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" s="5">
+        <v>115.6483509</v>
+      </c>
+      <c r="D159" s="5">
+        <v>-32.6135821</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" s="9">
+        <v>115.8604572</v>
+      </c>
+      <c r="D162" s="9">
+        <v>-31.9505269</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="9">
+        <v>130.8456418</v>
+      </c>
+      <c r="D163" s="9">
+        <v>-12.4634403</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C164" s="9">
+        <v>132.6097596</v>
+      </c>
+      <c r="D164" s="9">
+        <v>-11.6970626</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" s="9">
+        <v>145.7780548</v>
+      </c>
+      <c r="D165" s="9">
+        <v>-16.9185514</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" s="9">
+        <v>146.8169483</v>
+      </c>
+      <c r="D166" s="9">
+        <v>-19.2589635</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" s="9">
+        <v>151.2092955</v>
+      </c>
+      <c r="D167" s="9">
+        <v>-33.8688197</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="9">
+        <v>153.0251235</v>
+      </c>
+      <c r="D168" s="9">
+        <v>-27.4697707</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C169" s="9">
+        <v>144.9630576</v>
+      </c>
+      <c r="D169" s="9">
+        <v>-37.8136276</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="9">
+        <v>151.7816802</v>
+      </c>
+      <c r="D170" s="9">
+        <v>-32.9282712</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C171" s="5">
+        <v>145.9706647</v>
+      </c>
+      <c r="D171" s="10">
+        <v>-41.4545196</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C172" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D172" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C173" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D173" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" s="5">
+        <v>121.6283098</v>
+      </c>
+      <c r="D174" s="5">
+        <v>-27.6728168</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C175" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D175" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D176" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D177" s="9">
+        <v>-19.4914108</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" s="5">
+        <v>149.0123679</v>
+      </c>
+      <c r="D178" s="5">
+        <v>-35.4734679</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C179" s="5">
+        <v>151.1562047</v>
+      </c>
+      <c r="D179" s="5">
+        <v>-33.92713579</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" s="5">
+        <v>151.225709</v>
+      </c>
+      <c r="D180" s="5">
+        <v>-33.854755</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" s="5">
+        <v>145.9738016</v>
+      </c>
+      <c r="D181" s="5">
+        <v>-16.7597228</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D182" s="9">
+        <v>-19.4914108</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="5">
+        <v>125.5695285</v>
+      </c>
+      <c r="D183" s="5">
+        <v>-18.1961904</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C184" s="5">
+        <v>151.2092955</v>
+      </c>
+      <c r="D184" s="5">
+        <v>-33.8688197</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C185" s="7">
+        <v>151.2092955</v>
+      </c>
+      <c r="D185" s="7">
+        <v>-33.8688197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C186" s="5">
+        <v>145.9706647</v>
+      </c>
+      <c r="D186" s="10">
+        <v>-41.4545196</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C187" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D187" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D188" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D189" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C190" s="5">
+        <v>141.9368545</v>
+      </c>
+      <c r="D190" s="5">
+        <v>-10.2199025</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D191" s="9">
+        <v>-19.4914108</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C192" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D192" s="5">
+        <v>-31.2532183</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C193" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D193" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C194" s="5">
+        <v>136.2091547</v>
+      </c>
+      <c r="D194" s="5">
+        <v>-30.0002315</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C195" s="5">
+        <v>142.3979571</v>
+      </c>
+      <c r="D195" s="5">
+        <v>-37.2108819</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" s="5">
+        <v>142.0798249</v>
+      </c>
+      <c r="D196" s="5">
+        <v>-37.2596492</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C197" s="5">
+        <v>144.4938982</v>
+      </c>
+      <c r="D197" s="5">
+        <v>-38.2836875</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" s="5">
+        <v>143.4014055</v>
+      </c>
+      <c r="D198" s="5">
+        <v>-38.1826107</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C199" s="5">
+        <v>143.566667</v>
+      </c>
+      <c r="D199" s="5">
+        <v>-38.633333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C200" s="5">
+        <v>142.7027956</v>
+      </c>
+      <c r="D200" s="5">
+        <v>-20.9175738</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" s="9">
+        <v>138.6007456</v>
+      </c>
+      <c r="D201" s="9">
+        <v>-34.9284989</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C202" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D202" s="5">
+        <v>-37.4713077</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" s="9">
+        <v>153.0251235</v>
+      </c>
+      <c r="D203" s="9">
+        <v>-27.4697707</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" s="5">
+        <v>151.1104655</v>
+      </c>
+      <c r="D204" s="5">
+        <v>-23.830536</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C205" s="5">
+        <v>151.218</v>
+      </c>
+      <c r="D205" s="5">
+        <v>-33.976</v>
       </c>
     </row>
   </sheetData>
@@ -2389,13 +4829,19 @@
     <hyperlink r:id="rId16" ref="J17"/>
     <hyperlink r:id="rId17" ref="J18"/>
     <hyperlink r:id="rId18" location="/media/File:Cervus_elaphus_Luc_Viatour_6.jpg" ref="J19"/>
-    <hyperlink r:id="rId19" ref="J24"/>
-    <hyperlink r:id="rId20" ref="J25"/>
-    <hyperlink r:id="rId21" ref="J26"/>
-    <hyperlink r:id="rId22" ref="J27"/>
-    <hyperlink r:id="rId23" ref="J28"/>
-    <hyperlink r:id="rId24" ref="J29"/>
+    <hyperlink r:id="rId19" location="/media/File:Fire_ants_01.jpg" ref="J20"/>
+    <hyperlink r:id="rId20" location="/media/File:A_chital_stag_1.JPG" ref="J21"/>
+    <hyperlink r:id="rId21" ref="J24"/>
+    <hyperlink r:id="rId22" ref="J25"/>
+    <hyperlink r:id="rId23" ref="J26"/>
+    <hyperlink r:id="rId24" ref="J27"/>
+    <hyperlink r:id="rId25" ref="J28"/>
+    <hyperlink r:id="rId26" ref="J29"/>
+    <hyperlink r:id="rId27" ref="J30"/>
+    <hyperlink r:id="rId28" ref="J31"/>
+    <hyperlink r:id="rId29" ref="J32"/>
+    <hyperlink r:id="rId30" ref="J33"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/PestdataSet.xlsx
+++ b/PestdataSet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="361">
   <si>
     <t>PestName</t>
   </si>
@@ -950,25 +950,22 @@
     <t>Gulf of St Vincent</t>
   </si>
   <si>
-    <t>Darwin Australia</t>
-  </si>
-  <si>
-    <t>Bulgul Australia</t>
-  </si>
-  <si>
-    <t>Humpty Doo Australia</t>
-  </si>
-  <si>
-    <t>Kununurra Australia</t>
-  </si>
-  <si>
-    <t>Hotham Australia</t>
-  </si>
-  <si>
-    <t>Kakadu Australia</t>
-  </si>
-  <si>
-    <t>West Arnhern Australia</t>
+    <t xml:space="preserve">Bulgul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humpty Doo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kununurra </t>
+  </si>
+  <si>
+    <t>Hotham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakadu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Arnhern </t>
   </si>
   <si>
     <t>Gold Fish</t>
@@ -989,31 +986,31 @@
     <t>Gippsland Lakes</t>
   </si>
   <si>
-    <t>Toowoomba Australia</t>
-  </si>
-  <si>
-    <t>Brisbane Australia</t>
-  </si>
-  <si>
-    <t>Melbourne Australia</t>
-  </si>
-  <si>
-    <t>Canberra Australia</t>
-  </si>
-  <si>
-    <t>Adelaide Australia</t>
-  </si>
-  <si>
-    <t>Port Augusta Australia</t>
-  </si>
-  <si>
-    <t>Broken Hill Australia</t>
-  </si>
-  <si>
-    <t>Dubbo Australia</t>
-  </si>
-  <si>
-    <t>Tamworth Australia</t>
+    <t xml:space="preserve">Toowoomba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Augusta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broken Hill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubbo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamworth </t>
   </si>
   <si>
     <t>Bairnsdale and Paynesville</t>
@@ -1049,22 +1046,25 @@
     <t>Harvey Estuary &amp; Peel Inlet</t>
   </si>
   <si>
-    <t>Perth Australia</t>
-  </si>
-  <si>
-    <t>Endyalgout Island Australia</t>
-  </si>
-  <si>
-    <t>Carins Australia</t>
-  </si>
-  <si>
-    <t>Townsville Australia</t>
-  </si>
-  <si>
-    <t>Sydney Australia</t>
-  </si>
-  <si>
-    <t>Newcastle Australia</t>
+    <t xml:space="preserve">Perth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endyalgout Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Townsville </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle </t>
   </si>
   <si>
     <t>Fatima Island</t>
@@ -1077,9 +1077,6 @@
   </si>
   <si>
     <t>Kimberley country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney </t>
   </si>
   <si>
     <t>Torres strait</t>
@@ -3623,8 +3620,8 @@
       <c r="A119" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>310</v>
+      <c r="B119" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C119" s="9">
         <v>130.8456418</v>
@@ -3637,8 +3634,8 @@
       <c r="A120" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>311</v>
+      <c r="B120" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="C120" s="9">
         <v>130.131029</v>
@@ -3651,8 +3648,8 @@
       <c r="A121" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>312</v>
+      <c r="B121" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C121" s="9">
         <v>131.102222</v>
@@ -3665,8 +3662,8 @@
       <c r="A122" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>313</v>
+      <c r="B122" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="C122" s="9">
         <v>128.7654685</v>
@@ -3679,8 +3676,8 @@
       <c r="A123" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>314</v>
+      <c r="B123" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C123" s="9">
         <v>147.1327778</v>
@@ -3693,8 +3690,8 @@
       <c r="A124" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>315</v>
+      <c r="B124" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="C124" s="9">
         <v>132.3937658</v>
@@ -3707,8 +3704,8 @@
       <c r="A125" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>316</v>
+      <c r="B125" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C125" s="9">
         <v>133.6565478</v>
@@ -3719,7 +3716,7 @@
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>264</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>262</v>
@@ -3747,9 +3744,9 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B128" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C128" s="5">
@@ -3761,7 +3758,7 @@
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>291</v>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>169</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>298</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>292</v>
@@ -3820,7 +3817,7 @@
         <v>67</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C133" s="5">
         <v>152.9993386</v>
@@ -3834,7 +3831,7 @@
         <v>67</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C134" s="5">
         <v>152.7296388</v>
@@ -3848,7 +3845,7 @@
         <v>67</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C135" s="5">
         <v>151.3326862</v>
@@ -3862,7 +3859,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C136" s="5">
         <v>150.7446771</v>
@@ -3876,7 +3873,7 @@
         <v>67</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C137" s="5">
         <v>147.65</v>
@@ -3889,8 +3886,8 @@
       <c r="A138" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>323</v>
+      <c r="B138" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C138" s="9">
         <v>151.9506696</v>
@@ -3903,8 +3900,8 @@
       <c r="A139" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>324</v>
+      <c r="B139" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C139" s="9">
         <v>153.0251235</v>
@@ -3917,8 +3914,8 @@
       <c r="A140" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>325</v>
+      <c r="B140" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="C140" s="9">
         <v>144.9630576</v>
@@ -3931,8 +3928,8 @@
       <c r="A141" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>326</v>
+      <c r="B141" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="C141" s="9">
         <v>149.1300092</v>
@@ -3945,8 +3942,8 @@
       <c r="A142" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>327</v>
+      <c r="B142" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="C142" s="9">
         <v>138.6007456</v>
@@ -3959,8 +3956,8 @@
       <c r="A143" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>328</v>
+      <c r="B143" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C143" s="9">
         <v>137.7894394</v>
@@ -3973,8 +3970,8 @@
       <c r="A144" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>329</v>
+      <c r="B144" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="C144" s="9">
         <v>141.4539396</v>
@@ -3987,8 +3984,8 @@
       <c r="A145" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>330</v>
+      <c r="B145" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="C145" s="9">
         <v>148.6329645</v>
@@ -4001,8 +3998,8 @@
       <c r="A146" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>331</v>
+      <c r="B146" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="C146" s="9">
         <v>150.9320334</v>
@@ -4016,7 +4013,7 @@
         <v>103</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C147" s="5">
         <v>147.7123335</v>
@@ -4030,7 +4027,7 @@
         <v>103</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C148" s="5">
         <v>143.7443331</v>
@@ -4044,7 +4041,7 @@
         <v>103</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C149" s="5">
         <v>152.45621</v>
@@ -4058,7 +4055,7 @@
         <v>103</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C150" s="5">
         <v>149.9358867</v>
@@ -4072,7 +4069,7 @@
         <v>103</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C151" s="5">
         <v>140.7442855</v>
@@ -4086,7 +4083,7 @@
         <v>110</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C152" s="5">
         <v>147.995821</v>
@@ -4100,7 +4097,7 @@
         <v>110</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C153" s="5">
         <v>153.1463819</v>
@@ -4114,7 +4111,7 @@
         <v>110</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C154" s="5">
         <v>152.4736434</v>
@@ -4128,7 +4125,7 @@
         <v>110</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C155" s="5">
         <v>115.788155</v>
@@ -4142,7 +4139,7 @@
         <v>110</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C156" s="5">
         <v>145.3843373</v>
@@ -4156,7 +4153,7 @@
         <v>110</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C157" s="5">
         <v>143.7443331</v>
@@ -4184,97 +4181,125 @@
         <v>94</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C159" s="5">
         <v>115.6483509</v>
       </c>
       <c r="D159" s="5">
         <v>-32.6135821</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" s="9">
+        <v>115.8604572</v>
+      </c>
+      <c r="D160" s="9">
+        <v>-31.9505269</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="9">
+        <v>130.8456418</v>
+      </c>
+      <c r="D161" s="9">
+        <v>-12.4634403</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>343</v>
+      <c r="B162" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="C162" s="9">
-        <v>115.8604572</v>
+        <v>132.6097596</v>
       </c>
       <c r="D162" s="9">
-        <v>-31.9505269</v>
+        <v>-11.6970626</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>310</v>
+      <c r="B163" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="C163" s="9">
-        <v>130.8456418</v>
+        <v>145.7780548</v>
       </c>
       <c r="D163" s="9">
-        <v>-12.4634403</v>
+        <v>-16.9185514</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>344</v>
+      <c r="B164" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="C164" s="9">
-        <v>132.6097596</v>
+        <v>146.8169483</v>
       </c>
       <c r="D164" s="9">
-        <v>-11.6970626</v>
+        <v>-19.2589635</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>345</v>
+      <c r="B165" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C165" s="9">
-        <v>145.7780548</v>
+        <v>151.2092955</v>
       </c>
       <c r="D165" s="9">
-        <v>-16.9185514</v>
+        <v>-33.8688197</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>346</v>
+      <c r="B166" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C166" s="9">
-        <v>146.8169483</v>
+        <v>153.0251235</v>
       </c>
       <c r="D166" s="9">
-        <v>-19.2589635</v>
+        <v>-27.4697707</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>347</v>
+      <c r="B167" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="C167" s="9">
-        <v>151.2092955</v>
+        <v>144.9630576</v>
       </c>
       <c r="D167" s="9">
-        <v>-33.8688197</v>
+        <v>-37.8136276</v>
       </c>
     </row>
     <row r="168">
@@ -4282,55 +4307,55 @@
         <v>250</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C168" s="9">
-        <v>153.0251235</v>
+        <v>151.7816802</v>
       </c>
       <c r="D168" s="9">
-        <v>-27.4697707</v>
+        <v>-32.9282712</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C169" s="9">
-        <v>144.9630576</v>
-      </c>
-      <c r="D169" s="9">
-        <v>-37.8136276</v>
+      <c r="A169" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" s="5">
+        <v>145.9706647</v>
+      </c>
+      <c r="D169" s="10">
+        <v>-41.4545196</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C170" s="9">
-        <v>151.7816802</v>
-      </c>
-      <c r="D170" s="9">
-        <v>-32.9282712</v>
+      <c r="A170" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D170" s="5">
+        <v>-31.2532183</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>268</v>
+      <c r="B171" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C171" s="5">
-        <v>145.9706647</v>
-      </c>
-      <c r="D171" s="10">
-        <v>-41.4545196</v>
+        <v>144.7851531</v>
+      </c>
+      <c r="D171" s="5">
+        <v>-37.4713077</v>
       </c>
     </row>
     <row r="172">
@@ -4338,13 +4363,13 @@
         <v>118</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C172" s="5">
-        <v>146.921099</v>
+        <v>121.6283098</v>
       </c>
       <c r="D172" s="5">
-        <v>-31.2532183</v>
+        <v>-27.6728168</v>
       </c>
     </row>
     <row r="173">
@@ -4352,13 +4377,13 @@
         <v>118</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="C173" s="5">
-        <v>144.7851531</v>
+        <v>136.2091547</v>
       </c>
       <c r="D173" s="5">
-        <v>-37.4713077</v>
+        <v>-30.0002315</v>
       </c>
     </row>
     <row r="174">
@@ -4366,27 +4391,27 @@
         <v>118</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="C174" s="5">
-        <v>121.6283098</v>
+        <v>142.7027956</v>
       </c>
       <c r="D174" s="5">
-        <v>-27.6728168</v>
+        <v>-20.9175738</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C175" s="5">
-        <v>136.2091547</v>
-      </c>
-      <c r="D175" s="5">
-        <v>-30.0002315</v>
+      <c r="B175" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D175" s="9">
+        <v>-19.4914108</v>
       </c>
     </row>
     <row r="176">
@@ -4394,27 +4419,27 @@
         <v>118</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="C176" s="5">
-        <v>142.7027956</v>
+        <v>149.0123679</v>
       </c>
       <c r="D176" s="5">
-        <v>-20.9175738</v>
+        <v>-35.4734679</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C177" s="9">
-        <v>132.5509603</v>
-      </c>
-      <c r="D177" s="9">
-        <v>-19.4914108</v>
+      <c r="B177" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C177" s="5">
+        <v>151.1562047</v>
+      </c>
+      <c r="D177" s="5">
+        <v>-33.92713579</v>
       </c>
     </row>
     <row r="178">
@@ -4422,13 +4447,13 @@
         <v>118</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="C178" s="5">
-        <v>149.0123679</v>
+        <v>151.225709</v>
       </c>
       <c r="D178" s="5">
-        <v>-35.4734679</v>
+        <v>-33.854755</v>
       </c>
     </row>
     <row r="179">
@@ -4436,111 +4461,111 @@
         <v>118</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C179" s="5">
-        <v>151.1562047</v>
+        <v>145.9738016</v>
       </c>
       <c r="D179" s="5">
-        <v>-33.92713579</v>
+        <v>-16.7597228</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" s="5">
-        <v>151.225709</v>
-      </c>
-      <c r="D180" s="5">
-        <v>-33.854755</v>
+        <v>127</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C180" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D180" s="9">
+        <v>-19.4914108</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C181" s="5">
-        <v>145.9738016</v>
+        <v>125.5695285</v>
       </c>
       <c r="D181" s="5">
-        <v>-16.7597228</v>
+        <v>-18.1961904</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C182" s="9">
-        <v>132.5509603</v>
-      </c>
-      <c r="D182" s="9">
-        <v>-19.4914108</v>
+      <c r="B182" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C182" s="5">
+        <v>151.2092955</v>
+      </c>
+      <c r="D182" s="5">
+        <v>-33.8688197</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C183" s="5">
-        <v>125.5695285</v>
-      </c>
-      <c r="D183" s="5">
-        <v>-18.1961904</v>
+        <v>135</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C183" s="7">
+        <v>151.2092955</v>
+      </c>
+      <c r="D183" s="7">
+        <v>-33.8688197</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>353</v>
+        <v>135</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C184" s="5">
-        <v>151.2092955</v>
-      </c>
-      <c r="D184" s="5">
-        <v>-33.8688197</v>
+        <v>145.9706647</v>
+      </c>
+      <c r="D184" s="10">
+        <v>-41.4545196</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C185" s="7">
-        <v>151.2092955</v>
-      </c>
-      <c r="D185" s="7">
-        <v>-33.8688197</v>
+      <c r="B185" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C185" s="5">
+        <v>146.921099</v>
+      </c>
+      <c r="D185" s="5">
+        <v>-31.2532183</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B186" s="8" t="s">
-        <v>268</v>
+      <c r="B186" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C186" s="5">
-        <v>145.9706647</v>
-      </c>
-      <c r="D186" s="10">
-        <v>-41.4545196</v>
+        <v>144.7851531</v>
+      </c>
+      <c r="D186" s="5">
+        <v>-37.4713077</v>
       </c>
     </row>
     <row r="187">
@@ -4548,69 +4573,69 @@
         <v>135</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C187" s="5">
-        <v>146.921099</v>
+        <v>136.2091547</v>
       </c>
       <c r="D187" s="5">
-        <v>-31.2532183</v>
+        <v>-30.0002315</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="C188" s="5">
-        <v>144.7851531</v>
+        <v>141.9368545</v>
       </c>
       <c r="D188" s="5">
-        <v>-37.4713077</v>
+        <v>-10.2199025</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C189" s="5">
-        <v>136.2091547</v>
-      </c>
-      <c r="D189" s="5">
-        <v>-30.0002315</v>
+        <v>145</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C189" s="9">
+        <v>132.5509603</v>
+      </c>
+      <c r="D189" s="9">
+        <v>-19.4914108</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="C190" s="5">
-        <v>141.9368545</v>
+        <v>146.921099</v>
       </c>
       <c r="D190" s="5">
-        <v>-10.2199025</v>
+        <v>-31.2532183</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C191" s="9">
-        <v>132.5509603</v>
-      </c>
-      <c r="D191" s="9">
-        <v>-19.4914108</v>
+        <v>152</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C191" s="5">
+        <v>144.7851531</v>
+      </c>
+      <c r="D191" s="5">
+        <v>-37.4713077</v>
       </c>
     </row>
     <row r="192">
@@ -4618,41 +4643,41 @@
         <v>152</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C192" s="5">
-        <v>146.921099</v>
+        <v>136.2091547</v>
       </c>
       <c r="D192" s="5">
-        <v>-31.2532183</v>
+        <v>-30.0002315</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C193" s="5">
-        <v>144.7851531</v>
+        <v>142.3979571</v>
       </c>
       <c r="D193" s="5">
-        <v>-37.4713077</v>
+        <v>-37.2108819</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="C194" s="5">
-        <v>136.2091547</v>
+        <v>142.0798249</v>
       </c>
       <c r="D194" s="5">
-        <v>-30.0002315</v>
+        <v>-37.2596492</v>
       </c>
     </row>
     <row r="195">
@@ -4660,13 +4685,13 @@
         <v>159</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C195" s="5">
-        <v>142.3979571</v>
+        <v>144.4938982</v>
       </c>
       <c r="D195" s="5">
-        <v>-37.2108819</v>
+        <v>-38.2836875</v>
       </c>
     </row>
     <row r="196">
@@ -4674,13 +4699,13 @@
         <v>159</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C196" s="5">
-        <v>142.0798249</v>
+        <v>143.4014055</v>
       </c>
       <c r="D196" s="5">
-        <v>-37.2596492</v>
+        <v>-38.1826107</v>
       </c>
     </row>
     <row r="197">
@@ -4688,41 +4713,41 @@
         <v>159</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C197" s="5">
-        <v>144.4938982</v>
+        <v>143.566667</v>
       </c>
       <c r="D197" s="5">
-        <v>-38.2836875</v>
+        <v>-38.633333</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="C198" s="5">
-        <v>143.4014055</v>
+        <v>142.7027956</v>
       </c>
       <c r="D198" s="5">
-        <v>-38.1826107</v>
+        <v>-20.9175738</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C199" s="5">
-        <v>143.566667</v>
-      </c>
-      <c r="D199" s="5">
-        <v>-38.633333</v>
+        <v>174</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" s="9">
+        <v>138.6007456</v>
+      </c>
+      <c r="D199" s="9">
+        <v>-34.9284989</v>
       </c>
     </row>
     <row r="200">
@@ -4730,82 +4755,54 @@
         <v>174</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="C200" s="5">
-        <v>142.7027956</v>
+        <v>144.7851531</v>
       </c>
       <c r="D200" s="5">
-        <v>-20.9175738</v>
+        <v>-37.4713077</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C201" s="9">
-        <v>138.6007456</v>
+        <v>153.0251235</v>
       </c>
       <c r="D201" s="9">
-        <v>-34.9284989</v>
+        <v>-27.4697707</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="C202" s="5">
-        <v>144.7851531</v>
+        <v>151.1104655</v>
       </c>
       <c r="D202" s="5">
-        <v>-37.4713077</v>
+        <v>-23.830536</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C203" s="9">
-        <v>153.0251235</v>
-      </c>
-      <c r="D203" s="9">
-        <v>-27.4697707</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B204" s="5" t="s">
+      <c r="B203" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C204" s="5">
-        <v>151.1104655</v>
-      </c>
-      <c r="D204" s="5">
-        <v>-23.830536</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C205" s="5">
+      <c r="C203" s="5">
         <v>151.218</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D203" s="5">
         <v>-33.976</v>
       </c>
     </row>

--- a/PestdataSet.xlsx
+++ b/PestdataSet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="389">
   <si>
     <t>Pest_id</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Height/Length(CM)</t>
   </si>
   <si>
-    <t>Threats</t>
+    <t>What Threats Does It Brought</t>
   </si>
   <si>
     <t>Region</t>
@@ -37,13 +37,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>diet</t>
+    <t>Their Dietrary Regimen</t>
   </si>
   <si>
     <t>Tips when you encountered:</t>
   </si>
   <si>
-    <t>Interesting facts</t>
+    <t>Some Facts About Them</t>
   </si>
   <si>
     <t>image url</t>
@@ -61,7 +61,7 @@
     <t>1.2-2.0</t>
   </si>
   <si>
-    <t>They directly compete with livestock for pasture and which can seriously affect farming enterprises and can cause irreversible land degradation</t>
+    <t>They directly compete with livestock for pasture and which can seriously affect farming enterprises and cause irreversible land degradation.</t>
   </si>
   <si>
     <t>Great Britain/Ireland/Australia/Chile</t>
@@ -70,16 +70,16 @@
     <t xml:space="preserve">Invasive species </t>
   </si>
   <si>
-    <t xml:space="preserve">grasses/young and succulent leaves/fescues/winter wheat/tree bark/blackberries/root vegetables </t>
-  </si>
-  <si>
-    <t>report to local authorities/chemical control (use sodium flouroacetate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabbits are highly social/rabbits have an unusual desigtive system/rabbits have countinously growing teeth </t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/European_rabbit#/media/File:Oryctolagus_cuniculus_Tasmania_2.jpg</t>
+    <t>Prey on grasses, young and succulent leaves, fescues, winter wheat, tree bark, blackberries and root vegetables.</t>
+  </si>
+  <si>
+    <t>Please report to local authorities or use chemical control approach (use sodium flouroacetate).</t>
+  </si>
+  <si>
+    <t>Rabbits are highly social animal. They have an unusual desigtive system and they able to countinously growing teeth.</t>
+  </si>
+  <si>
+    <t>Image URL</t>
   </si>
   <si>
     <t>European Fox</t>
@@ -94,22 +94,19 @@
     <t>35-50</t>
   </si>
   <si>
-    <t>They prey on native wildlifes and are implicated with the decline and extinction of many small to medium-sized mamals</t>
+    <t>They prey on native wildlifes and are implicated with the decline and extinction of many small to medium-sized mamals.</t>
   </si>
   <si>
     <t>Australia/Sardinia/Italy</t>
   </si>
   <si>
-    <t>over 300 animal species/primarily voles/mice/ground squirrels/hamsters/gerbils/woodchucks/pocket gophers</t>
-  </si>
-  <si>
-    <t>Uses creosote, disel oil or ammonia to block access/trapping/shooting/den fumingation</t>
-  </si>
-  <si>
-    <t>Foxes have soft whiskers on their wirsts that help with their pouncing aim</t>
-  </si>
-  <si>
-    <t>https://www.wildlifetrusts.org/sites/default/files/styles/node_hero_desk_wide/public/2017-12/Fox0025aJonHawkins.jpg?h=79feec94&amp;itok=WD4Zu83V</t>
+    <t>Prey on over 300 animal species. Primarily voles, mice, ground squirrels, hamsters, gerbils, woodchucks and pocket gophers.</t>
+  </si>
+  <si>
+    <t>Uses creosote, disel oil or ammonia to block access. Other effective control methods, including trapping, shooting and den fumingation.</t>
+  </si>
+  <si>
+    <t>Did you know that foxes have soft whiskers on their wirsts that help with their pouncing aim.</t>
   </si>
   <si>
     <t>Wild dog/Dingo</t>
@@ -124,7 +121,7 @@
     <t>56-59</t>
   </si>
   <si>
-    <t>They cause significant damage to farming enterprises, and have been implicated in the decline of several native species</t>
+    <t>They cause significant damage to farming enterprises, and have been implicated in the decline of several native species.</t>
   </si>
   <si>
     <t xml:space="preserve">Australia </t>
@@ -133,16 +130,13 @@
     <t>Pest</t>
   </si>
   <si>
-    <t>prey on 177 species, 72.3% mamals/18.8% birds/3.8% are insects, fish,crabs and frogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stay calm and walk away, DO NOT RUN/ Avoid direct eye contact/ aviod change of facial expression/ protect your face and neck </t>
-  </si>
-  <si>
-    <t>Carry a sturdy hiking stick. A good, thick wooden staff is better than trekking poles, but poles are better than nothing</t>
-  </si>
-  <si>
-    <t>https://www.abc.net.au/cm/rimage/10173236-3x2-xlarge.jpg?v=4</t>
+    <t>Prey on 177 species, about 72.3% mamals, 18.8% birds and 3.8% are insects, fish,crabs and frogs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DO NOT RUN!!! Stay calm and walk away, avoid direct eye contact, aviod change of facial expression and please protect your face and neck.</t>
+  </si>
+  <si>
+    <t>Wild dogs can communicate over many kilometres by howling!</t>
   </si>
   <si>
     <t>Feral cat</t>
@@ -157,7 +151,7 @@
     <t>15-24</t>
   </si>
   <si>
-    <t>They pose a health risk to humans, livestock and native animals as carriers of diseases such as toxoplasmosis and sarcosporidiosis</t>
+    <t>They pose a health risk to humans, livestock and native animals as carriers of diseases such as toxoplasmosis and sarcosporidiosis.</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom/Australia/Italy/United States </t>
@@ -166,16 +160,13 @@
     <t>Invasive species/pest</t>
   </si>
   <si>
-    <t>prey on vertebrates and invertebrates, prefer small animals (e.g., mammals, birds, and lizards), most commonly are house mouse, European rabbit, and ringtail possum</t>
-  </si>
-  <si>
-    <t>Don'y feed and forget feral cats/Help feral cats with health care/join volunteer program to help cats/leave the cat alone</t>
-  </si>
-  <si>
-    <t>Feral cats are normally prey on animals with body weights under 100g and a femal cat may produce up to 150 kittens in her life time.</t>
-  </si>
-  <si>
-    <t>https://static.ffx.io/images/$width_800%2C$height_450/t_crop_fill/q_86%2Cf_auto/95383e31af99c89bfa260ce0ad4dca17aabefb31</t>
+    <t>Prey on vertebrates and invertebrates, prefer small animals such as mammals, birds, house mouse, European rabbit, and ringtail possum.</t>
+  </si>
+  <si>
+    <t>Don't feed and forget feral cats. You can help feral cats with health care/join volunteer program to help cats/leave the cat alone</t>
+  </si>
+  <si>
+    <t>Feral cats are normally prey on animals with body weights under 100g and a feral cat may produce up to 150 kittens in her life time.</t>
   </si>
   <si>
     <t>European carp</t>
@@ -190,22 +181,19 @@
     <t>120 max</t>
   </si>
   <si>
-    <t>Negative impacts on freshwater ecosystem: increase turbidty/bank slumping/nutrients/algae blooms and decrease aquatic plants/native fish/water quality</t>
+    <t>Negative impacts on freshwater ecosystem, it can increase turbidty, alage blooms. But decrease aquatic nutrients and water quality, which kills plants and native fish.</t>
   </si>
   <si>
     <t>Eastern Asia/ Eastern Europe/Australia(VIC/NSW/ACT/QLD/WA/SA/TAS)</t>
   </si>
   <si>
-    <t>eat a herbivorous diet of aquatic plants, insects, crustaceans, crawfish and benthic worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't release aquarium fish into waterways, everyone suppose to help the pest fish control in the local rivers and streams </t>
-  </si>
-  <si>
-    <t>European carp prefers slow-flowing rivers or lakes but can occupy a broad range of aquatic environments from upper estuaries up to at least 850 m in temperatures, dissolved oxygen and salinity levels</t>
-  </si>
-  <si>
-    <t>https://www.lsuagcenter.com/~/media/system/8/6/9/8/8698f11c8f5b1e978cf0b5264468df9d/figure%2019jpg.jpg</t>
+    <t>They eat a herbivorous diet of aquatic plants, insects, crustaceans, crawfish and benthic worms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't release aquarium fish into waterways, everyone suppose to help the pest fish control in the local rivers and streams. </t>
+  </si>
+  <si>
+    <t>European carp prefers slow-flowing rivers or lakes but can occupy a broad range of aquatic environments from upper estuaries up to at least 850 m in temperatures, dissolved oxygen and salinity levels.</t>
   </si>
   <si>
     <t>Gold fish</t>
@@ -217,24 +205,21 @@
     <t>50 max</t>
   </si>
   <si>
-    <t>threatning the resourece competition of local waterways, and disease and parasite transmission</t>
+    <t>Threatning the resourece competition of local waterways by disease and parasite transmission.</t>
   </si>
   <si>
     <t>Eastern Asia/Australia</t>
   </si>
   <si>
-    <t>eat crustaceans, insects and various plant matter</t>
-  </si>
-  <si>
-    <t>Never release aquarium fish in to waterways/report to local fisheries organizations/never use pest fiush as fishing bait/participating pest fishing competitions</t>
+    <t>They eat crustaceans, insects and various plant matter.</t>
+  </si>
+  <si>
+    <t>Never release aquarium fish in to waterways. Please report to local fisheries organizations and don't use pest fiush as fishing bait.</t>
   </si>
   <si>
     <t>Gold fish was first selectively bred in ancient China more than 1,000 years ago, and several distinct breeds have since been developed</t>
   </si>
   <si>
-    <t>https://www.liveaquaria.com/images/categories/large/lg_39507_Fantail_Goldfish_Red.jpg</t>
-  </si>
-  <si>
     <t>Eastern Gambusia</t>
   </si>
   <si>
@@ -244,19 +229,16 @@
     <t>3.5-8</t>
   </si>
   <si>
-    <t xml:space="preserve">Brings competition with native species for food, habitat or spawning area, parasitye transmission </t>
+    <t>Brings competition with native species for food, habitat or spawning area.</t>
   </si>
   <si>
     <t>United States/Australia</t>
   </si>
   <si>
-    <t>eat native fish, eggs, frog eggs, tadpoles and aquatic macro invertebrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern gambusia is considered an invasive species on every continent except Antartica </t>
-  </si>
-  <si>
-    <t>https://animalreader.ru/wp-content/uploads/2015/01/gambuzija-animal-reader.ru-001.jpg</t>
+    <t>They eat native fish, eggs, frog eggs, tadpoles and aquatic macro invertebrates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern gambusia is considered as an invasive species on every continent except Antartica. </t>
   </si>
   <si>
     <t>House mice</t>
@@ -271,22 +253,19 @@
     <t>7.5-10</t>
   </si>
   <si>
-    <t>Carry diseases and contaminated stored food. Humans can become ill by consuming salmonella contaminated food. Symptoms of salmonellosis include diarrhea, fever and abdominal pain. House mice may also spread rat bite fever. Humans can catch this bacteria-borne infectious disease through contact with a dead mouse or by consuming food contaminated by mouse feces. Symptoms of rat bite fever may appear between 3 and 10 days after contact with a contaminated mouse and include fever, vomiting, headache, rash and muscle pain</t>
+    <t>Carry diseases to contaminated stored food. Humans will have symptoms of diarrhea, fever and adbdominal pain by consuming salmonella contaminated food.</t>
   </si>
   <si>
     <t>Southeastern Australia</t>
   </si>
   <si>
-    <t>plant matters/own faeces/omnivorous (foods and vegetables)</t>
-  </si>
-  <si>
-    <t>Chemical and non-chemical method (Exclusion/Sanitation/Traps/Baits)</t>
-  </si>
-  <si>
-    <t>House mice's  droppings and urine contaminate food and if the population is not controlled house mice can cause contamination problems in places where they nest. Transmitted diseases including lymphocytic choriomeningitis and food poisoning.</t>
-  </si>
-  <si>
-    <t>http://holperspest.com/wp-content/uploads/2017/09/House-Mouse.jpg</t>
+    <t>Prey on plant matters, own faeces and omnivorous (foods and vegetables).</t>
+  </si>
+  <si>
+    <t>Use chemical and non-chemical methods, such as exclusion, sanitation, traps and baits.</t>
+  </si>
+  <si>
+    <t>House mice's droppings and urine contaminate food. It can cause contamination problems by transmitted diseases including lymphocytic choriomeningitis and food poisoning.</t>
   </si>
   <si>
     <t>Sturnus vulgaris</t>
@@ -301,7 +280,7 @@
     <t>20-24</t>
   </si>
   <si>
-    <t>Starlings can cause significant damage to horticultural industries, particularly cherries, grapes, blueberries, olives, stone fruits, apples, pears and a range of vegetable crops. They will also damage drying fruit and, occasionally, birds will remove fruit from drying racks. They can also carry many parasites and diseases which raise concern in food factories and industrial areas and are a potential risk to livestock industries. Starlings are also considered to be a major nuisance in urban areas.</t>
+    <t>Starlings are also considered a major nuisance in urban areas. Serious damage to the horticulture industry, especially various vegetable crops, damage to dry fruits. It may also carry parasites and diseases, and pose a potential risk to the livestock industry.</t>
   </si>
   <si>
     <t>Southeastern Australia, widespread throughout eastern Australia from western Victoria in the south to Cairns in the north. Native to Eurasia and northern Africa, introduced into Australia in the mid 1880's.</t>
@@ -310,16 +289,13 @@
     <t>Invasive species/Pest</t>
   </si>
   <si>
-    <t>One of the most common species in lowland suburban and cleared agricultural areas, also in open woodlands, irrigated pasture, feedlots, mulga, mallee, reed-beds around wetlands, coastal plains, and occasionally alpine areas. They avoid dense woodlands, forests, rainforest and arid regions. In other words, they intend to living in rainfall regions,irrigated, temporary surface area. Starlings require protein to live and breed with invertebrates comprising over half their daily food intake. They also consume fruit, berries, vegetables, meat and food scraps, and seeds of cultivated grains.</t>
-  </si>
-  <si>
-    <t>Exclusion by netting fruit and other crops and habitat modification by reducing access to nesting, roosting and food and water resources seem to be the most effective approaches. Also can use bird distress calls.</t>
-  </si>
-  <si>
-    <t>In eastern Australia, weeds like bridal creeper, blackberry and boneseed are thought to have been spread by common starlings. They also competited for nesting with the crimson and eastern rosellas, they declined the local native species and damage to agriculture, which has been included in the IUCN list of the  world's 100 worst invasive species.</t>
-  </si>
-  <si>
-    <t>http://media.featherbase.info/images/images/voegel/star2.jpg</t>
+    <t>In lowland suburbs and open agricultural areas, coastal plains, and high mountain areas, it is one of the most common species. Protein is needed to make it live and multiply, eat fruits, vegetables, meat, etc.</t>
+  </si>
+  <si>
+    <t>Using fruits and other crops for repulsion is best to reduce access to nests, habitat, food, and water. You can also use the distressed phone.</t>
+  </si>
+  <si>
+    <t>They compete with crimson and eastern roses to build nests, destroy native species and agriculture, and have been included in the World Conservation Union (IUCN) list of the world's 100 most invasive species.</t>
   </si>
   <si>
     <t>Tilapia</t>
@@ -331,22 +307,16 @@
     <t>30-60</t>
   </si>
   <si>
-    <t>In Australia, they have identifield potential impacts including: large areas of disturbed substrate (pond/river bottom) due to nest building. Also damage to aquatic plants from nest-building activities and disruption of spawning in native fishes. Too many tilapia can also damage the water quality.</t>
+    <t xml:space="preserve">Threats including large areas of disturbed substrate due to nest building. Also damage to aquatic plants from nest-building activities and disruption of spawning in native fishes. </t>
   </si>
   <si>
     <t>Northeast Queesland (Wet Tropics)/Gulf of Carpentaria drainage/Victoria</t>
   </si>
   <si>
-    <t>Omnivores and will eat algae, plant matter, organic particles, small invertebrates and fishes.Since they don't rely on any particular food resource. they can living in different enviroments.</t>
-  </si>
-  <si>
-    <t>Attempts to stop the spread of black mangrove cichlid, could expand the distribution of this project in the future.</t>
-  </si>
-  <si>
-    <t>Tilapia are on the IUCN's 100 of the World Worst Alien Invasive Species list. Many state fish and wildlife (United States, Australia, South Africa, etc.) consider them to be invasive species because they damage the water system and native species.</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/5/5d/Tilapia_cabrae.jpg</t>
+    <t>Prey on Omnivores and will eat algae, plant matter, organic particles, small invertebrates and fishes.</t>
+  </si>
+  <si>
+    <t>Did you know that Tilapia are on the IUCN's 100 of the World Worst Alien Invasive Species list.</t>
   </si>
   <si>
     <t>Oriental Weatherloach</t>
@@ -355,19 +325,16 @@
     <t>25 max</t>
   </si>
   <si>
-    <t>Pest fish are often difficult to control, which is a critical threat to the ecosystem of local waterways</t>
+    <t>Pest fish are often difficult to control, which is a critical threat to the ecosystem of local waterways.</t>
   </si>
   <si>
     <t>Southeast Asia/Australia(VIC/NSW/ACT/QLD/SA)</t>
   </si>
   <si>
-    <t>mainly feeded by organic material such as algae</t>
-  </si>
-  <si>
-    <t>Females can produce 4,000 to 12,000 eggs per spawn. The eggs are laid onto submerged plants or substrate. there is no parental care to fertilised eggs. They can live for up to 13 years</t>
-  </si>
-  <si>
-    <t>https://media.australian.museum/media/dd/images/Oriental_Weatherloach_Misgurnus_anguillicauda.width-1200.503a441.jpg</t>
+    <t>They mainly feeded by organic material such as algae.</t>
+  </si>
+  <si>
+    <t>Females can produce 4,000 to 12,000 eggs per spawn. The eggs are laid onto submerged plants or substrate and they can live for up to 13 years!</t>
   </si>
   <si>
     <t>Redfin Perch</t>
@@ -385,13 +352,10 @@
     <t>Europe/Australia(VIC/NSW/ACT/WA/SA/TAS)</t>
   </si>
   <si>
-    <t>prey on small nayive fish and invertebrates</t>
-  </si>
-  <si>
-    <t>Redfin eggs are 2-3 mm in diameter and take 1-2 weeks to hatch. Juvenile fish usually form large schools</t>
-  </si>
-  <si>
-    <t>https://www.pir.sa.gov.au/__data/assets/image/0009/290088/varieties/preview.jpg</t>
+    <t>Prey on small nayive fish and invertebrates.</t>
+  </si>
+  <si>
+    <t>Redfin eggs are 2-3 mm in diameter and take 1-2 weeks to hatch. Juvenile fish usually form large schools.</t>
   </si>
   <si>
     <t>Feral Pig</t>
@@ -406,22 +370,19 @@
     <t>55-120</t>
   </si>
   <si>
-    <t>Feral pig brings substantial damage to Australia's agricultural industries, environment and social values. They carry diseases such as leptospirosis. Which caused more than $106 million economic losses.</t>
+    <t>Feral pig brings substantial damage to Australian environment. They carry disease of leptospirosis, which caused more than $106 million economic losses.</t>
   </si>
   <si>
     <t>United Kingdom/United States/South America/Australia</t>
   </si>
   <si>
-    <t>prey on crops, newborn lambs, native wildlife</t>
-  </si>
-  <si>
-    <t>Be calm and move slowly away from the animal/Do not approach or attempt to feed the animal/Keep a safe distance and do not corner or provoke the animal (e.g., using a flash while taking photos)</t>
-  </si>
-  <si>
-    <t>Pigs are highly intelligent and have been shown to communicate as many as 20 different vocalisations to express their thoughts</t>
-  </si>
-  <si>
-    <t>https://zjf683hopnivfq5d12xaooxr-wpengine.netdna-ssl.com/wp-content/uploads/2016/06/boarcrop-1480x833.jpg</t>
+    <t>Prey on crops, newborn lambs and native wildlife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DO NOT approach or attempt to feed the animal. Keep a safe distance and DO NOT corner or provoke the animal. Be calm and move slowly away from the animal. </t>
+  </si>
+  <si>
+    <t>Pigs are highly intelligent and have been shown to communicate as many as 20 different vocalisations to express their thoughts!</t>
   </si>
   <si>
     <t>Cane Toad</t>
@@ -433,24 +394,21 @@
     <t>19-22</t>
   </si>
   <si>
-    <t>Cane toad is one of the World's Invasive Species. Glands on their body secrete posions that when ingested can kill frog-eating birds, mammals, snakes, lizards, crocodiles, quolls and other domestic animals.</t>
+    <t>Glands on their body secrete poisons that when ingested can kill frog-eating birds, mammals, snakes, lizards, crocodiles, quolls and other domestic animals.</t>
   </si>
   <si>
     <t>Australia/Caribbean/The Philippines/Fiji/New Guinea/United States</t>
   </si>
   <si>
-    <t>prey on a wide range of materials, such as small rodents, reptiles, other amphibians, birds and bats as well as invertebrates. They also eat plants, dog food, and household refuse</t>
-  </si>
-  <si>
-    <t>Cover and seal foods/Remove standing water, because toads need access to water every two days to rehydrate/Clean and remove rubbish and other debris/Keep your outside lights off when not needed</t>
+    <t xml:space="preserve">Prey on a wide range of materials, such as small rodents, reptiles, other amphibians, birds and bats as well as invertebrates. </t>
+  </si>
+  <si>
+    <t>Please cover and seal foods, remove standing water. Clean and remove rubbish and other debris. Keep your outside lights off when not needed.</t>
   </si>
   <si>
     <t>Cane toad eggs look very different to native Australian frogs, they are small, black and laid in jelly like strands.</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Cane_toad_-_ABC_News.jpg/800px-Cane_toad_-_ABC_News.jpg</t>
-  </si>
-  <si>
     <t>Fallow Deer</t>
   </si>
   <si>
@@ -463,7 +421,7 @@
     <t>75-95</t>
   </si>
   <si>
-    <t>Deer carrying diseases that will infect domestic species, and they can damage native vegtables and forestry plantations through their browsing</t>
+    <t>Deer carrying diseases that will infect domestic species, and they can damage native vegtables and forestry plantations through their browsing.</t>
   </si>
   <si>
     <t>Agentina/United Kingdom/United States/Greece/South Africa/New Zealand/Australia</t>
@@ -472,18 +430,15 @@
     <t>Invasive species</t>
   </si>
   <si>
-    <t>eat a variety of vegetation, mostly grasses, browse and mast. Other items includes herbs, dwarf shrubs, bud and leaves</t>
-  </si>
-  <si>
-    <t>Trapping and exclusion fencing/sprey repellent/use sonic repellent</t>
+    <t>They eat a variety of vegetation, mostly grasses. Other items includes herbs, dwarf shrubs, bud and leaves.</t>
+  </si>
+  <si>
+    <t>Control methods inclduing trapping and exclusion fencing,sprey repellent or use sonic repellent.</t>
   </si>
   <si>
     <t>Adult males are usually solitary but may join bachelor group, usually of less than 6 anmials.</t>
   </si>
   <si>
-    <t>https://simple.wikipedia.org/wiki/Fallow_deer#/media/File:Fallow_deer_in_field.jpg</t>
-  </si>
-  <si>
     <t>Rusa Deer</t>
   </si>
   <si>
@@ -496,13 +451,10 @@
     <t>Indonesia/East Timor/Australia</t>
   </si>
   <si>
-    <t>Rusa deer are herbivorous animals. They mainly feed on grass, leaves, and fallen fruit. These deer do not drink water, receiving all reqired fluid from their food</t>
-  </si>
-  <si>
-    <t>Rusa deer were initially introduced to Victoria in the late 1800s. They are gregarious but females and young form separate groups to males except at the time of mating, which has now definite breeding season</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Javan_rusa#/media/File:Javan_Deer_couple_-_Baluran_NP_-_East_Java_(29505339513).jpg</t>
+    <t>Rusa deer are herbivorous animals. They mainly feed on grass, leaves, and fallen fruit. These deer do not drink water, receiving all reqired fluid from their food.</t>
+  </si>
+  <si>
+    <t>Rusa deer were initially introduced to Victoria in the late 1800s. They are gregarious but females and young form separate groups to males except at the time of mating.</t>
   </si>
   <si>
     <t>Samber Deer</t>
@@ -517,13 +469,10 @@
     <t>Australia/New Zealand/United States</t>
   </si>
   <si>
-    <t>Samber feed on a wide variety of vegetation, including grasses/foliage/browse/fruit and water plants, depending on the local habitat. They also consume a great variety of shrubs and trees.</t>
-  </si>
-  <si>
-    <t>Samber deer were introduced into Australia several times between 1861-1912. They are semi-nocturnal preferring to remain under cover during the day. They can breed throughout the year, with a peel in September and October</t>
-  </si>
-  <si>
-    <t>https://vignette.wikia.nocookie.net/wildkratts/images/2/21/Sambar_deer_LA.PNG/revision/latest?cb=20190308171949https://vignette.wikia.nocookie.net/wildkratts/images/2/21/Sambar_deer_LA.PNG/revision/latest?cb=20190308171949</t>
+    <t xml:space="preserve">Samber feed on a wide variety of vegetation, including grasses, foliage, browse, fruit and water plants, depending on the local habitat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samber deer were introduced into Australia several times between 1861-1912. They are semi-nocturnal preferring to remain under cover during the day. </t>
   </si>
   <si>
     <t>Red Deer</t>
@@ -538,13 +487,10 @@
     <t>Europe/North Africa/New Zealand/Australia/Argentina/Chile/Migration</t>
   </si>
   <si>
-    <t>Red Deer mainly eat grasses, sedges, rushes and dwarf shrubs like Heather</t>
-  </si>
-  <si>
-    <t>The Red Deer was introduced into Australian between 1860-1874 by European acclimatisation societies to enhance the aesthetics of Australian field</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Red_deer#/media/File:Cervus_elaphus_Luc_Viatour_6.jpg</t>
+    <t>Red Deer mainly eat grasses, sedges, rushes and dwarf shrubs like Heather.</t>
+  </si>
+  <si>
+    <t>The Red Deer was introduced into Australian between 1860-1874 by European acclimatisation societies to enhance the aesthetics of Australian field.</t>
   </si>
   <si>
     <t>Red Imported Fire Ant</t>
@@ -556,22 +502,19 @@
     <t>0.065-6.0</t>
   </si>
   <si>
-    <t>They will attacking grasshoppers, and these ants inflict a painful sting and they are very likely to damage the local environment and threatning ecosystem</t>
+    <t>They will attacking grasshoppers, and these ants inflict a painful sting and they are very likely to damage the local environment and threatning ecosystem.</t>
   </si>
   <si>
     <t>Queensland</t>
   </si>
   <si>
-    <t>consists of dead mammals, arthropods, insects, earthworms, vertebrates and solid food matter</t>
-  </si>
-  <si>
-    <t>use peppermint essential oil/cayenne pepper/body powder to kill fire ants</t>
-  </si>
-  <si>
-    <t>Fire ants bite to get a grip and sting by injecting a toxic alkaloid venom named solenopsin. This could be very painful for most of people and might cause severe swelling, chest pain, or shortness of breath. If you experience some of these symptoms, you should immediately call emergency medical attention</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Red_imported_fire_ant#/media/File:Fire_ants_01.jpg</t>
+    <t>Prey on consists of dead mammals, arthropods, insects, earthworms, vertebrates and solid food matter.</t>
+  </si>
+  <si>
+    <t>Please use peppermint essential oil, cayenne pepper, body powder to kill fire ants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire ants bite to get a grip and sting by injecting a toxic alkaloid venom named solenopsin. This could be very painful for most of people and might cause severe swelling, chest pain, or shortness of breath. </t>
   </si>
   <si>
     <t>Chital Deer</t>
@@ -586,13 +529,10 @@
     <t>Queensland/New South Wales/South Australia</t>
   </si>
   <si>
-    <t>browse on a variety of grasses, fruit and leaves</t>
-  </si>
-  <si>
-    <t>Chital deer is initially introduced to Australia in 1802, but did not survive. They are gregarious and can be seen in groups of more than 100 individuals</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chital#/media/File:A_chital_stag_1.JPG</t>
+    <t>They browse on a variety of grasses, fruit and leaves.</t>
+  </si>
+  <si>
+    <t>Chital deer is initially introduced to Australia in 1802, but did not survive. They are gregarious and can be seen in groups of more than 100 individuals.</t>
   </si>
   <si>
     <t>Lycium ferocissimum Miers</t>
@@ -607,7 +547,7 @@
     <t>400-500</t>
   </si>
   <si>
-    <t>Its regarded as one of the worst weeds in Australia for its invasiveness, potential for spreas and environmental impacts. It can rapidly form after having established, which spiny thickets reducing stock movement and also the land available for pasture. Also the fruit of this weed can provide a breeding ground for insects pests such as fruit fly.</t>
+    <t>Its invasiveness is considered to be one of the most serious weeds in Australia. The rapid formation of spiny bushes reduces livestock activities and the land; its fruits can also provide a breeding ground for pests such as Drosophila.</t>
   </si>
   <si>
     <t>Adelaide/Victoria/Canberra/New South Wales</t>
@@ -616,16 +556,13 @@
     <t>Weeds</t>
   </si>
   <si>
-    <t>Generally grow on waste-land, creek-beds, fense-lines and readsides in arid sub-humid subtropical regions, can germinate at any time of the year, but most occurs in summer.</t>
-  </si>
-  <si>
-    <t>Implement mechanical control, but preferably requires planting and/or herbicides. Use the herbicide as a foliar spray, or cut off each stem on the ground, and then immediately apply the herbicide to the cut surface.</t>
-  </si>
-  <si>
-    <t>It was introduced as a hedge plant for boundary demarcation or garden plant in the 1880s. But wide use for rural areas that leads its extensive occurrence and naturalization.</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/4068/4316625769_428cbde5de_b.jpg</t>
+    <t>Generally grow on waste-land, creek-beds, fence-lines, and roadsides in arid sub-humid subtropical regions can germinate at any time of the year, but most occurs in summer.</t>
+  </si>
+  <si>
+    <t>To implement mechanical control, it is best to use herbicides. Or cut off each stem on the ground, and then immediately apply the herbicide to the cut surface.</t>
+  </si>
+  <si>
+    <t>In the 1880s, it was used as a hedge plant for borders or garden plants. But its widespread use has led to its widespread.</t>
   </si>
   <si>
     <t>Alternanthera philoxeroides (Alligator Weed)</t>
@@ -634,133 +571,109 @@
     <t>1000-1500(sprout)</t>
   </si>
   <si>
-    <t>As one of Australia's most invasive plants, it has affected vegetation, animals and society.
-Impact on vegetation: The presence of invasive species disrupts the natural flow of water. These dense mats compete with local vegetation for space and solar energy because they are distributed in clusters and limit the amount of light received by submerged vegetation. These compact stem clusters also interfere with the exchange of underground gases that directly affect aerobic processes such as photosynthesis. It also affected the growth and yield of crops in pastures and fields. These dense mats affect the natural flow of water used in the irrigation system and affect water quality by increasing sediment in the water.
-Effects on animals: The dense mat formed by this species can depress the amount of native vegetation in its invading environment, which is a major problem for native herbivores, as their food sources are declining. In addition, dense mats act as a barrier between the mats and natural water sources. However, even if they can reach the water surface, they are still in danger because the water quality will be polluted due to increased sediments and affect wildlife.
-Impact on society: The dense mat formed by this species affects the natural flow of water and hinders various recreational activities such as boating and fishing. When it comes to energy, traffic interruptions can also have a negative impact on infrastructure.</t>
+    <t>One of Australia's most invasive plants, affecting vegetation, animals, and society. Destroy water quality, limit photosynthesis of other vegetation, and then affect the food of herbivores and people's recreational activities.</t>
   </si>
   <si>
     <t>Victoria/Sydney/New Castle/Brisbane/Tasmania/Northern Territory</t>
   </si>
   <si>
-    <t>It can live in both aquatic and terrestrial habitats, grows in creeks, rivers, ponds and drainage channels, also can live in tolerate 10% to 30% sea-strength salinity, can survive in tropical and sub-tropical regions.</t>
-  </si>
-  <si>
-    <t>Precaution: Early detection is the best choice. Otherwise, the best way is to limit and control the presence of Aspergillus sphaeroides in an area to limit the appropriate space for the plant, but this method only works before the invasive plant claims to be effective in a certain area effective.
-Biological measures: Release insects. The most successful and widely used is Agasicles hygrophila, commonly known as the alligator weed flea beetle. However, because they cannot survive temperatures below 11°C (52°F), their effectiveness is limited. Various chemicals have been proven to be effective in controlling plants, the most useful of which include glyphosate, triclopyr, fluroxypyr, imazamox and imazamox.</t>
-  </si>
-  <si>
-    <t>Alligator weeds are weeds of great significance. Because of its invasiveness, transmission potential, and economic and environmental impact, it is considered one of Australia's worst weeds. This is a particularly troublesome weed because it damages the land and water and is difficult to control.</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/b/b7/Alternanthera_philoxeroides_habit4c_(11680147013).jpg</t>
+    <t>It can live in both aquatic and terrestrial habitats, grows in creeks, rivers, ponds, and drainage channels also can live in tolerate 10% to 30% sea-strength salinity, can survive in tropical and subtropical regions.</t>
+  </si>
+  <si>
+    <t>Find out early. Otherwise, restrict the area of ​​Aspergillus sphaeroides. Or release insects. Chemicals that can also be used include glyphosate, grass powder, fluroxypyr, imidazole, and imidazole.</t>
+  </si>
+  <si>
+    <t>Chinese alligator weed is considered one of the most serious weeds in Australia due to its invasiveness, transmission potential, and economic and environmental impact. It can destroy land and water and is difficult to control.</t>
   </si>
   <si>
     <t>Tamarix aphylla</t>
   </si>
   <si>
-    <t>It consumes more water than most native Australian plants, so it is more usable than competitors. It replaced the indigenous eucalyptus trees along the river inland. And reduced the number of birds and reptiles. The dense Athel pine disease increases the sedimentation rate by intercepting and stabilizing the sediments during the flow of the river, which may lead to land floods and increased soil erosion.</t>
+    <t>It consumes more water than most native Australian plants, replaces the indigenous eucalyptus trees along the inland rivers, reduces the number of birds and reptiles, and causes land flooding and increased soil erosion.</t>
   </si>
   <si>
     <t>Alice Spring/Adelaide/Broken Hill</t>
   </si>
   <si>
-    <t>As long as there is moisture, the seeds will germinate most of the year, but the main germination period is autumn. The first-year seedlings can reach a height of 60 to 100 cm. It can then grow to a height of 2 to 5 m. The first flower appears about the third year, every summer thereafter.</t>
-  </si>
-  <si>
-    <t>Since Athel Pine does not displace the herbicide laterally, it can be chemically controlled at a point where the stem distance does not exceed 100 mm. The felling of stumps is suitable for large trees, but care must be taken to ensure that the wound is treated immediately and that the fallen tree does not remain in the moist soil to avoid rooting again.
-It can be physically controlled by removing trees or large populations by bulldozing. Care should be taken to remove all root systems and make sure that the sand does not cover uprooted and chopped stems, as they may slap again.</t>
-  </si>
-  <si>
-    <t>Athel Pine reproduces through seeds spread by wind, floods and animals. The viability of the seed is very short, usually only a few weeks, but it can also be spread by rooting long-distance buried or submerged stems.</t>
-  </si>
-  <si>
-    <t>http://www.worldbotanical.com/images/Tamarix-18.jpg</t>
+    <t>As long as there is moisture, the seeds will germinate most of the year, but the main germination period is autumn. The first-year seedlings can reach a height of 60 to 100 cm. It can then grow to a height of 2 to 5 m.</t>
+  </si>
+  <si>
+    <t>Chemical control can be performed at the position where the stem distance does not exceed 100 mm. The felling of stumps is suitable for large trees, but the fallen trees must not remain in the moist soil, and all roots should be carefully removed to avoid re-rooting.</t>
+  </si>
+  <si>
+    <t>Athel Pine can reproduce through seeds spread by wind, floods, and animals. The viability of the seed is very short, although only a few weeks, it can be spread by burying or submerging the stem for a long distance.</t>
   </si>
   <si>
     <t>Chrysanthemoides monilifera</t>
   </si>
   <si>
-    <t>The most important impact is the reduction of coastal biodiversity in the affected areas. It affects many threatened species and plant communities, especially in the Sydney area. In New South Wales alone, the Bitou Bush invasion threatened more than 150 native plant species, 3 endangered plant populations and 24 ecological communities. It can also create a favorable environment for other highly invasive weeds (such as asparagus fern).</t>
+    <t>Reduced coastal biodiversity in the area. It affects many threatened species and plant communities, especially in the Sydney area. It can also create a favorable environment for other highly invasive weeds (such as asparagus fern).</t>
   </si>
   <si>
     <t>Cosford/Helensburgh/ Sydney/Budgewoi/Gold Coast/Coffs Harbor</t>
   </si>
   <si>
-    <t>It generally live in coast area, and the seeds germinate at any time of the year, but most of them germinate in autumn. Most seeds can survive for at least two years.</t>
-  </si>
-  <si>
-    <t>Prevent seeds from spreading to surrounding areas. This means destroying mature plants before they bloom and bear fruit. Any bitter bush plants in the garden should be destroyed because they are the source of seeds. The isolated plants can be treated with herbicides by point spraying. In New South Wales, low-dose herbicides have been used from helicopters in winter, allowing rapid treatment of large areas with minimal impact on native species.</t>
-  </si>
-  <si>
-    <t>It grows in a variety of environments-from bare sand dunes to dark forests. It can tolerate shade, salt, strong wind, sand and water, drought, low nutrients, and to a certain extent can resist fire and other disturbances. It grows poorly in moist or damp soil and has low tolerance to frost</t>
-  </si>
-  <si>
-    <t>https://blog.diamondmowers.com/hs-fs/hubfs/bitou%20bush.jpg?width=1200&amp;height=900&amp;name=bitou%20bush.jpg</t>
+    <t>It generally lives in the coast area, and the seeds germinate at any time of the year, but most of them germinate in autumn. Most seeds can survive for at least two years.</t>
+  </si>
+  <si>
+    <t>Prevent the seeds from spreading to the surrounding area: destroy mature plants, destroy any bitter shrubs in the garden, and separate plants can be treated with herbicides by spot spraying.</t>
+  </si>
+  <si>
+    <t>It can grow in various environments from bare sand dunes to forests and can resist fire and other disturbances to a certain extent. In and not suitable for a humid environment, poor frost resistance</t>
   </si>
   <si>
     <t>Dolichandra unguis-cati</t>
   </si>
   <si>
-    <t>Cat's Claw Creeper has the ability to completely suffocate native vegetation, and can even grow on tall trees, and many bush areas in eastern Australia are heavily infested by this species. It can be used to stifle existing small plants and prevent germination of all other species. Large climbing stems can also reach the top of the rainforest canopy, where, due to the combination of weight and shadow, they may cause the largest canopy tree to eventually die.
-Cat's Claw Creeper is particularly aggressive in riparian vegetation in southeastern Queensland and northeastern New South Wales, but it also poses a potential threat to riparian and rainforest plant communities in the subtropical and tropical regions of eastern and northern Australia, and is classified as Queensland The fourth most invasive alien plant species in the southeast.</t>
+    <t>"Cat's Claw Creeper has the ability to completely suffocate native plants, and can even grow on tall trees. Due to the combination of weight and shadow, they may cause the largest canopy tree to eventually die.</t>
   </si>
   <si>
     <t>Sydney/NewCastle/Taree/Coff Harbour/Lismore/Gold coast/Brisbane/Gympie</t>
   </si>
   <si>
-    <t>Cat's Claw Creeper is most commonly attributed to vegetation in waterways and disturbed rainforests. The cat's claw crawler has a high tolerance for low light environments, although it is more active in sunny gaps and forest edges.</t>
-  </si>
-  <si>
-    <t>The control of cat's claw crawlers usually relies on the use of herbicides, because unless there is minimal infection, hand control is impractical. The floor covering of the cat's claw crawler is covered with carpets and any regrowing plants can also be sprayed on the foliage, which is very effective.</t>
-  </si>
-  <si>
-    <t>It is very intrusive and is widespread worldwide. It can affect all plant layers of forest ecosystems by spreading quickly in vertical and horizontal directions.</t>
-  </si>
-  <si>
-    <t>http://www.loyno.edu/lucec/sites/loyno.edu.lucec/files/Catclaw_Palmetto_Overpass_NOLA_4-16-13_1.jpg</t>
+    <t>The Cat's Claw Creeper commonly originates from vegetation in waterways and disturbed rainforests. It has a high tolerance to low light environments, although it is more active in clear gaps and forest edges.</t>
+  </si>
+  <si>
+    <t>The control of the Cat's claw depends on the use of herbicides.</t>
+  </si>
+  <si>
+    <t>It is highly invasive and widely exists in all areas of the world. It can spread rapidly in the vertical and horizontal directions, thereby affecting all plant layers in the forest ecosystem.</t>
   </si>
   <si>
     <t>Genista linifolia</t>
   </si>
   <si>
-    <t>G. linifolia is considered to pose a high threat to many native vegetation communities, invading lowland grasslands and grassy woodlands, wet hard-leaf forests and riparian vegetation. It is considered toxic and it affects dense grass and reduces the grazing area</t>
+    <t>G. linifolia invades lowland grasslands and grassy forests, posing a high threat to wet hard-leaf forests and riparian vegetation. It is poisonous and will affect dense grass and reduce grazing area</t>
   </si>
   <si>
     <t>Perth/Augusta/Adelaide/Melbourne/Canberra/Sydney/Wallangarra</t>
   </si>
   <si>
-    <t>Most of the growth period of the Genista species is in the warmer months. Seeds fall off in spring and summer, and germinate in autumn and spring</t>
-  </si>
-  <si>
-    <t>It is important to control the young plants that died before they set up seeds to prevent the establishment of soil seed banks. Foliar herbicide sprays can be used to control G. linifolia, but the re-growth of mature plants must be followed up. In smaller cases, cutting and painting can be used.</t>
-  </si>
-  <si>
-    <t>It has invaded areas with temperate climates, moderate rainfall, and weakly acidic soils, which usually breed various native ecosystems, such as roadsides. It can tolerate relatively dry and humid places</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Teline_linifolia_2.JPG/1200px-Teline_linifolia_2.JPG</t>
+    <t>Most of the growth period of the Genista species is in the warmer months. Seeds fall off in spring and summer and germinate in autumn and spring.</t>
+  </si>
+  <si>
+    <t>Control the death of seedlings before they establish seeds and prevent the establishment of soil seed banks. Foliar herbicide sprays can be used to control flax (G. linifolia), but the regeneration of mature plants must be prevented.</t>
+  </si>
+  <si>
+    <t>It will invade areas with the mild climate, moderate rainfall, and weakly acidic soils. These soils usually breed various native ecosystems, such as roadsides. It can also withstand relatively dry and humid places</t>
   </si>
   <si>
     <t>Pereskia aculeata</t>
   </si>
   <si>
-    <t>Pereskia aculeata can have a major impact on native trees due to overgrowth and suffocation. It may climb up vegetation and destroy biomass, thereby affecting biomass. It forms large bushes that are difficult to penetrate, and the large thorny stems and branches make it very difficult to control large numbers of infestations. Juicy fruits are attractive to birds as a food source for birds, and they are easily dispersed, allowing new populations to be established. If not restricted, they may cause rapid spread. It can severely harm people and restrict people's access to river banks, and have a major impact on entertainment and tourism.</t>
+    <t>Excessive Pereskia aculeata has a major impact on native trees. It will climb up vegetation and destroy biomass, forming large bushes that are impenetrable. Large and thorny stems and branches can seriously harm people and affect people's entertainment and tourism.</t>
   </si>
   <si>
     <t>Millaa Millaa/Brisbane/Coolangatta/Cairns</t>
   </si>
   <si>
-    <t>It thrives in tropical and subtropical environments and is drought-tolerant. It can tolerate many soil types and tends to drain well and nutrient-rich soils.</t>
+    <t>It thrives in tropical and subtropical environments and is drought tolerant. It can tolerate many soil types, especially well-drained and nutrient-rich soils.</t>
   </si>
   <si>
     <t>It can be controlled by Triclopyr or biological control with the leaf-feeding flea-beetle, Phenrica guérini, which has caused significant damage to Pereskia plants at Port Alfred, Eastern Cape, South Africa。</t>
   </si>
   <si>
-    <t>Dumping plants in roadside vegetation is another possible cause of spread. Where the leaf cactus is close to small rivers and other water bodies, plant debris can be washed a certain distance downstream to establish new populations</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ed/Pereskia_aculeata_%287204602300%29.jpg/1200px-Pereskia_aculeata_%287204602300%29.jpg</t>
+    <t>Dumping plants on roadside vegetation may cause transmission. Near small rivers and other water bodies, plant debris can be washed to a certain distance downstream to establish new populations.</t>
   </si>
   <si>
     <t>Mimosa pigra</t>
@@ -769,7 +682,7 @@
     <t>500-600</t>
   </si>
   <si>
-    <t>The invasion of mimosa threatens the production, culture and conservation value of wetlands, and reduces the scope of land users to develop resources. The herders are affected because the inedible and tricky mimosa suffocates and replaces the grasslands, preventing people from entering livestock drinking points. Mimosa threatens important wetlands nationally and internationally, and this reduces the risk by competing with natural plants. The available habitat for native animals reduces the biodiversity of the flora and fauna in the floodplain.</t>
+    <t>The invasion of mimosa reduced land use. Tricky mimosa replaces grassland, preventing people from entering livestock drinking spots. Reduce the biodiversity of native animals and plants.</t>
   </si>
   <si>
     <t>Darwin/Bulgul/Humpty Doo/Kununurra/Hotham/Kakadu/West Arnhern</t>
@@ -778,13 +691,10 @@
     <t>If the soil is moist but not submerged, the mimosa will sprout throughout the year. Mimosa grows very fast. Under ideal conditions, the infestation will double every 18 months.</t>
   </si>
   <si>
-    <t>Larger areas can be sprayed with herbicides, and strategic use of fire may also be effective. However, long-term biological control is the only cost-effective large-scale infection control. Since 1983, at least 12 species of insects and 2 species of fungi have been released on Australian mimosa, such as Nesaecrepida infuscata, which attack the roots and leaves of plants.</t>
-  </si>
-  <si>
-    <t>Mimosa produces a lot of seeds. If eaten by animals, the seeds will pass through the digestive tract unharmed. Seeds in the soil can also be spread through media. However, in floodplains, the most important method of diffusion is simply to use water, which brings the downstream part into the water.</t>
-  </si>
-  <si>
-    <t>http://www.westafricanplants.senckenberg.de/images/pictures/Mimosa_pigra_KHH_4834_1096_a1fb7d.JPG</t>
+    <t>Spraying herbicides on larger areas and strategic use of fire may also be effective</t>
+  </si>
+  <si>
+    <t>Mimosa produces many seeds. The seeds in the soil can also be spread through the culture medium.</t>
   </si>
   <si>
     <t>Prickly Pears</t>
@@ -793,22 +703,19 @@
     <t>500-700</t>
   </si>
   <si>
-    <t>Prickly pear may form dense patches that can barely penetrate livestock and other animals, and may harbor harmful insect species, such as rabbits. These species are difficult to graze due to their stout spines, and because they easily pierce the skin, cause irritation and may be difficult to remove, they can cause harm to animals and humans. If they are densely distributed on cultivated land, it will reduce land productivity.</t>
+    <t>Prickly pears may form dense patches and harbor harmful insect species. It pierces the skin easily, causes irritation, and is difficult to remove, causing harm to animals and humans. It will also reduce land productivity.</t>
   </si>
   <si>
     <t>Toowoomba/Brisbane/Melbourne/Canberra/Adelaide/Port Augusta/Broken Hill/Dubbo/Tamworth</t>
   </si>
   <si>
-    <t xml:space="preserve">Prickly Pears reproduce from broken-off stem segments which develop roots from lower areoles (spots on the stem segments) that are in contact with the soil surface. Detached plant parts from some species have been known to last up to 3 years indoors. </t>
-  </si>
-  <si>
-    <t>Physical removal seems to be one of the most effective control methods for Zanthoxylum bungeanum. Care must also be taken to remove and properly dispose (usually by burning) all plant and fruit materials. The root system must also be dug out to prevent regeneration.</t>
-  </si>
-  <si>
-    <t>Many prickly pears reproduce asexually from stem fragments, flowers or immature fruits. They produce roots when they come into contact with the soil. Local dispersal may occur through stem fragments and fruits falling to the ground and producing new plants.</t>
-  </si>
-  <si>
-    <t>http://bongodogblog.files.wordpress.com/2012/09/prickly-pear-fruit.jpg</t>
+    <t>Prickly pear reproduces from broken stem nodes and can form roots with inferior pores (spots on stem nodes) in contact with the soil surface. Plant parts isolated from certain species can be used indoors for up to 3 years.</t>
+  </si>
+  <si>
+    <t>Physical removal seems to be one of the most effective control methods for Prickly Pears. The root system must also be dug out to prevent regeneration.</t>
+  </si>
+  <si>
+    <t>Many prickly pears reproduce asexually from stem fragments, flowers, or immature fruits. When they come into contact with the soil, they produce roots, produce new plants, and spread locally.</t>
   </si>
   <si>
     <t>Salvinia molesta</t>
@@ -817,7 +724,7 @@
     <t>0.5-4</t>
   </si>
   <si>
-    <t>It forms a dense cushion on the water surface, severely changing the aquatic habitats of animals including birds, fish and invertebrates. Eliminates light, reduces oxygen content, and causes water stagnation and pollution. The dense cushions hinder the flow of water, restrict the contact of livestock, and provide favorable conditions for the reproduction of disease-carrying mosquitoes.</t>
+    <t>A dense cushion is formed on the water surface, which seriously changes the aquatic environment of related animals. It can also cause water stagnation and pollution, and provide favorable conditions for disease-carrying mosquitoes to multiply.</t>
   </si>
   <si>
     <t>Perth/Darwin/Endyalgout Island/Carins/Townsville/Sydney/Briabane/Melbourne/Newcastle</t>
@@ -826,14 +733,10 @@
     <t>Salvinia grows best when the water temperature is between 20 and 30°C. Growth is restricted or no growth at 10°C. When it is rich in nutrients, it grows faster.</t>
   </si>
   <si>
-    <t>Biological control: A tiny weevil, Cyrtobagous salviniae, was found in the native place of S. heartworm and is currently being studied as a biological control.
-Mechanical control: Use a machine or harvesting equipment to remove the plants by hand. This is only suitable for small infestations.</t>
-  </si>
-  <si>
-    <t>Salvinia molesta is probably of hybrid origin and is usually sterile. The dumping of the unwanted contents of ponds and aquaria is a major reason for the spread of Salvinia.</t>
-  </si>
-  <si>
-    <t>http://www.victoria-adventure.org/aquatic_plants/larry/salvinia_molesta_closeup.jpg</t>
+    <t>A tiny weevil, Cyrtobagous Salvinia, is currently being studied as a biological control method. It is also possible to use machines or harvesting equipment to remove plants, but only for small infections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvinia molesta is probably of hybrid origin and is usually sterile. </t>
   </si>
   <si>
     <t>CategoryName</t>
@@ -1272,13 +1175,16 @@
   </si>
   <si>
     <t>Port Botany</t>
+  </si>
+  <si>
+    <t>Pest/Invasive species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1307,14 +1213,25 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1342,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1362,34 +1279,37 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,13 +1532,13 @@
   <cols>
     <col customWidth="1" min="1" max="4" width="17.0"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
+    <col customWidth="1" min="6" max="6" width="35.43"/>
     <col customWidth="1" min="7" max="7" width="11.86"/>
     <col customWidth="1" min="8" max="8" width="26.43"/>
-    <col customWidth="1" min="9" max="9" width="18.71"/>
-    <col customWidth="1" min="10" max="10" width="52.14"/>
+    <col customWidth="1" min="9" max="9" width="47.71"/>
+    <col customWidth="1" min="10" max="10" width="52.57"/>
     <col customWidth="1" min="11" max="11" width="66.29"/>
-    <col customWidth="1" min="12" max="12" width="88.71"/>
+    <col customWidth="1" min="12" max="12" width="21.14"/>
     <col customWidth="1" min="14" max="14" width="47.71"/>
   </cols>
   <sheetData>
@@ -1693,25 +1613,25 @@
       <c r="E2" s="5">
         <v>40.0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1731,7 +1651,7 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1740,17 +1660,17 @@
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>32</v>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1758,37 +1678,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>43</v>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1796,37 +1716,37 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>54</v>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -1835,37 +1755,37 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>64</v>
+      <c r="L6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1873,37 +1793,37 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>73</v>
+      <c r="I7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1911,151 +1831,151 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>81</v>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
         <v>8.0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>82</v>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>91</v>
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
         <v>9.0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="J10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="K10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>102</v>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>103</v>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>111</v>
+      <c r="I11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2063,34 +1983,34 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2098,37 +2018,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2136,37 +2056,37 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>136</v>
+        <v>48</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2174,34 +2094,34 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>143</v>
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2209,37 +2129,37 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2247,37 +2167,37 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>163</v>
+      <c r="L17" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -2285,37 +2205,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>170</v>
+      <c r="J18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2323,37 +2243,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>177</v>
+        <v>138</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -2361,34 +2281,34 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>186</v>
+        <v>38</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2396,75 +2316,75 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>193</v>
+        <v>138</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>194</v>
+      <c r="B22" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>198</v>
+        <v>177</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -2472,363 +2392,363 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>207</v>
+        <v>185</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>212</v>
+        <v>180</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>213</v>
+      <c r="B24" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E24" s="5">
         <v>1800.0</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>214</v>
+      <c r="F24" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>219</v>
+        <v>180</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>220</v>
+      <c r="B25" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E25" s="5">
         <v>300.0</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>221</v>
+      <c r="F25" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>226</v>
+      <c r="J25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>25.0</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>227</v>
+      <c r="B26" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E26" s="5">
         <v>2000.0</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>228</v>
+      <c r="F26" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>233</v>
+        <v>180</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>234</v>
+      <c r="B27" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E27" s="5">
         <v>200.0</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>235</v>
+      <c r="F27" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>240</v>
+        <v>180</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>241</v>
+      <c r="B28" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E28" s="5">
         <v>1000.0</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>242</v>
+      <c r="F28" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>247</v>
+        <v>180</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>248</v>
+      <c r="B29" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>250</v>
+        <v>222</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>255</v>
+        <v>180</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>29.0</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>256</v>
+      <c r="B30" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>258</v>
+        <v>229</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>263</v>
+        <v>180</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>30.0</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>264</v>
+      <c r="B31" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>266</v>
+        <v>236</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>271</v>
+        <v>180</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>0</v>
@@ -2854,102 +2774,102 @@
       <c r="AB35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="9">
+        <v>175</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="5">
         <v>138.609054</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="5">
         <v>-34.927525</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I36" s="10">
+        <v>248</v>
+      </c>
+      <c r="I36" s="13">
         <v>21.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="9">
+        <v>175</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="5">
         <v>144.62</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="5">
         <v>-36.52</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I37" s="10">
+        <v>250</v>
+      </c>
+      <c r="I37" s="13">
         <v>21.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="9">
+        <v>175</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="5">
         <v>149.132309</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="5">
         <v>-35.28466</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I38" s="10">
+        <v>252</v>
+      </c>
+      <c r="I38" s="13">
         <v>21.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="F39" s="9">
+        <v>175</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="5">
         <v>147.39</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="5">
         <v>-31.7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I39" s="10">
+        <v>254</v>
+      </c>
+      <c r="I39" s="13">
         <v>21.0</v>
       </c>
     </row>
@@ -2957,24 +2877,24 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" s="11">
+        <v>184</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="9">
         <v>144.7851531</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="9">
         <v>-37.4713077</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I40" s="10">
+        <v>250</v>
+      </c>
+      <c r="I40" s="13">
         <v>22.0</v>
       </c>
     </row>
@@ -2982,24 +2902,24 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F41" s="9">
+        <v>184</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="5">
         <v>151.2091876</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="5">
         <v>-33.8687256</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I41" s="10">
+      <c r="H41" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="13">
         <v>22.0</v>
       </c>
     </row>
@@ -3007,24 +2927,24 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="9">
+        <v>184</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="5">
         <v>151.78156</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="5">
         <v>-32.9282688</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I42" s="10">
+      <c r="H42" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="13">
         <v>22.0</v>
       </c>
     </row>
@@ -3032,24 +2952,24 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F43" s="9">
+        <v>184</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="5">
         <v>153.01888</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="5">
         <v>-27.461803</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" s="10">
+        <v>259</v>
+      </c>
+      <c r="I43" s="13">
         <v>22.0</v>
       </c>
     </row>
@@ -3057,24 +2977,24 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F44" s="11">
+        <v>184</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="9">
         <v>145.9706647</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="5">
         <v>-41.439316</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I44" s="10">
+        <v>261</v>
+      </c>
+      <c r="I44" s="13">
         <v>22.0</v>
       </c>
     </row>
@@ -3082,724 +3002,724 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F45" s="9">
+        <v>184</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="5">
         <v>134.965686</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="5">
         <v>-19.523553</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I45" s="10">
+        <v>263</v>
+      </c>
+      <c r="I45" s="13">
         <v>22.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F46" s="9">
+        <v>175</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" s="5">
         <v>133.884543</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="5">
         <v>-23.705798</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I46" s="10">
+        <v>263</v>
+      </c>
+      <c r="I46" s="13">
         <v>23.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="5">
+        <v>138.600546</v>
+      </c>
+      <c r="G47" s="5">
+        <v>-34.9284989</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="13">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="5">
+        <v>141.450605</v>
+      </c>
+      <c r="G48" s="5">
+        <v>-31.955184</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I48" s="13">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="5">
+        <v>151.338043</v>
+      </c>
+      <c r="G49" s="5">
+        <v>-33.425057</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="5">
+        <v>150.998969</v>
+      </c>
+      <c r="G50" s="5">
+        <v>-34.182678</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="5">
+        <v>151.210467</v>
+      </c>
+      <c r="G51" s="5">
+        <v>-33.870387</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="5">
+        <v>151.553703</v>
+      </c>
+      <c r="G52" s="5">
+        <v>-33.233196</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I52" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="5">
+        <v>153.407893</v>
+      </c>
+      <c r="G53" s="5">
+        <v>-28.020886</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="5">
+        <v>153.108843</v>
+      </c>
+      <c r="G54" s="5">
+        <v>-30.297662</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" s="13">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="5">
+        <v>151.211137</v>
+      </c>
+      <c r="G55" s="5">
+        <v>-33.870122</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I55" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" s="5">
+        <v>151.780227</v>
+      </c>
+      <c r="G56" s="5">
+        <v>-32.928508</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="5">
+        <v>152.446526</v>
+      </c>
+      <c r="G57" s="5">
+        <v>-31.893172</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I57" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="5">
+        <v>153.104782</v>
+      </c>
+      <c r="G58" s="5">
+        <v>-30.298908</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F59" s="5">
+        <v>153.284361</v>
+      </c>
+      <c r="G59" s="5">
+        <v>-28.809802</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" s="5">
+        <v>153.390103</v>
+      </c>
+      <c r="G60" s="5">
+        <v>-28.018007</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I60" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" s="5">
+        <v>153.027181</v>
+      </c>
+      <c r="G61" s="5">
+        <v>-27.467203</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="5">
+        <v>152.674214</v>
+      </c>
+      <c r="G62" s="5">
+        <v>-26.187175</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I62" s="13">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="9">
+        <v>115.8604572</v>
+      </c>
+      <c r="G63" s="9">
+        <v>-31.9505269</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="9">
-        <v>138.600546</v>
-      </c>
-      <c r="G47" s="9">
-        <v>-34.9284989</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="I63" s="13">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="5">
+        <v>151.343805</v>
+      </c>
+      <c r="G64" s="5">
+        <v>-33.426996</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I64" s="13">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="5">
+        <v>138.600034</v>
+      </c>
+      <c r="G65" s="5">
+        <v>-34.929435</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="13">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I47" s="10">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F48" s="9">
-        <v>141.450605</v>
-      </c>
-      <c r="G48" s="9">
-        <v>-31.955184</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I48" s="10">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="9">
-        <v>151.338043</v>
-      </c>
-      <c r="G49" s="9">
-        <v>-33.425057</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I49" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" s="9">
-        <v>150.998969</v>
-      </c>
-      <c r="G50" s="9">
-        <v>-34.182678</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I50" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F51" s="9">
-        <v>151.210467</v>
-      </c>
-      <c r="G51" s="9">
-        <v>-33.870387</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I51" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F52" s="9">
-        <v>151.553703</v>
-      </c>
-      <c r="G52" s="9">
-        <v>-33.233196</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I52" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" s="9">
-        <v>153.407893</v>
-      </c>
-      <c r="G53" s="9">
-        <v>-28.020886</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I53" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" s="9">
-        <v>153.108843</v>
-      </c>
-      <c r="G54" s="9">
-        <v>-30.297662</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I54" s="10">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F55" s="9">
-        <v>151.211137</v>
-      </c>
-      <c r="G55" s="9">
-        <v>-33.870122</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I55" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" s="9">
-        <v>151.780227</v>
-      </c>
-      <c r="G56" s="9">
-        <v>-32.928508</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I56" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" s="9">
-        <v>152.446526</v>
-      </c>
-      <c r="G57" s="9">
-        <v>-31.893172</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I57" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F58" s="9">
-        <v>153.104782</v>
-      </c>
-      <c r="G58" s="9">
-        <v>-30.298908</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I58" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F59" s="9">
-        <v>153.284361</v>
-      </c>
-      <c r="G59" s="9">
-        <v>-28.809802</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I59" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="9">
-        <v>153.390103</v>
-      </c>
-      <c r="G60" s="9">
-        <v>-28.018007</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F61" s="9">
-        <v>153.027181</v>
-      </c>
-      <c r="G61" s="9">
-        <v>-27.467203</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" s="9">
-        <v>152.674214</v>
-      </c>
-      <c r="G62" s="9">
-        <v>-26.187175</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I62" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F63" s="11">
-        <v>115.8604572</v>
-      </c>
-      <c r="G63" s="11">
-        <v>-31.9505269</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I63" s="10">
+      <c r="F66" s="5">
+        <v>144.962</v>
+      </c>
+      <c r="G66" s="5">
+        <v>-37.814935</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="13">
         <v>26.0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F64" s="9">
-        <v>151.343805</v>
-      </c>
-      <c r="G64" s="9">
-        <v>-33.426996</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I64" s="10">
+    <row r="67">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="5">
+        <v>149.128461</v>
+      </c>
+      <c r="G67" s="5">
+        <v>-35.281671</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67" s="13">
         <v>26.0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F65" s="9">
-        <v>138.600034</v>
-      </c>
-      <c r="G65" s="9">
-        <v>-34.929435</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I65" s="10">
+    <row r="68">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" s="5">
+        <v>151.211036</v>
+      </c>
+      <c r="G68" s="5">
+        <v>-33.872553</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I68" s="13">
         <v>26.0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F66" s="9">
-        <v>144.962</v>
-      </c>
-      <c r="G66" s="9">
-        <v>-37.814935</v>
-      </c>
-      <c r="H66" s="5" t="s">
+    <row r="69">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="5">
+        <v>151.943171</v>
+      </c>
+      <c r="G69" s="5">
+        <v>-28.896292</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I69" s="13">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="I66" s="10">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="F70" s="9">
+        <v>145.6044448</v>
+      </c>
+      <c r="G70" s="9">
+        <v>-17.5144717</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I70" s="13">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" s="5">
+        <v>153.024155</v>
+      </c>
+      <c r="G71" s="5">
+        <v>-27.472243</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I71" s="13">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F67" s="9">
-        <v>149.128461</v>
-      </c>
-      <c r="G67" s="9">
-        <v>-35.281671</v>
-      </c>
-      <c r="H67" s="5" t="s">
+      <c r="F72" s="5">
+        <v>153.534998</v>
+      </c>
+      <c r="G72" s="5">
+        <v>-28.166629</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" s="13">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="10">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="9">
-        <v>151.211036</v>
-      </c>
-      <c r="G68" s="9">
-        <v>-33.872553</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I68" s="10">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69" s="9">
-        <v>151.943171</v>
-      </c>
-      <c r="G69" s="9">
-        <v>-28.896292</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I69" s="10">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F70" s="11">
-        <v>145.6044448</v>
-      </c>
-      <c r="G70" s="11">
-        <v>-17.5144717</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I70" s="10">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="9">
-        <v>153.024155</v>
-      </c>
-      <c r="G71" s="9">
-        <v>-27.472243</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I71" s="10">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="F72" s="9">
-        <v>153.534998</v>
-      </c>
-      <c r="G72" s="9">
-        <v>-28.166629</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I72" s="10">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F73" s="11">
+      <c r="F73" s="9">
         <v>145.7780548</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="9">
         <v>-16.9185514</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I73" s="10">
+        <v>259</v>
+      </c>
+      <c r="I73" s="13">
         <v>27.0</v>
       </c>
     </row>
@@ -3810,19 +3730,19 @@
         <v>14</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" s="9">
+        <v>283</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="5">
         <v>146.906895</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="5">
         <v>-31.247911</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="I74" s="5">
         <v>1.0</v>
@@ -3835,19 +3755,19 @@
         <v>14</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F75" s="9">
+        <v>283</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="5">
         <v>144.748368</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="5">
         <v>-37.483313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="I75" s="5">
         <v>1.0</v>
@@ -3860,19 +3780,19 @@
         <v>14</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F76" s="9">
+        <v>283</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F76" s="5">
         <v>119.6898</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="5">
         <v>-25.1731</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="I76" s="5">
         <v>1.0</v>
@@ -3885,10 +3805,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="F77" s="5">
         <v>138.557169</v>
@@ -3897,7 +3817,7 @@
         <v>-35.17465</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="I77" s="5">
         <v>1.0</v>
@@ -3910,10 +3830,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F78" s="5">
         <v>145.097822</v>
@@ -3922,7 +3842,7 @@
         <v>-20.537649</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I78" s="5">
         <v>1.0</v>
@@ -3935,19 +3855,19 @@
         <v>14</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="F79" s="5">
         <v>145.735025</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="16">
         <v>-41.781553</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="I79" s="5">
         <v>1.0</v>
@@ -3963,7 +3883,7 @@
         <v>23</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F80" s="5">
         <v>150.141916</v>
@@ -3972,7 +3892,7 @@
         <v>-33.921711</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="I80" s="5">
         <v>2.0</v>
@@ -3988,7 +3908,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F81" s="5">
         <v>145.597652</v>
@@ -3997,7 +3917,7 @@
         <v>-37.628372</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="I81" s="5">
         <v>2.0</v>
@@ -4013,7 +3933,7 @@
         <v>23</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F82" s="5">
         <v>116.086355</v>
@@ -4022,7 +3942,7 @@
         <v>-31.858897</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="I82" s="5">
         <v>2.0</v>
@@ -4038,7 +3958,7 @@
         <v>23</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F83" s="5">
         <v>138.773767</v>
@@ -4047,7 +3967,7 @@
         <v>-34.720169</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="I83" s="5">
         <v>2.0</v>
@@ -4063,7 +3983,7 @@
         <v>23</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="F84" s="5">
         <v>152.039114</v>
@@ -4072,7 +3992,7 @@
         <v>-28.269311</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I84" s="5">
         <v>2.0</v>
@@ -4088,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F85" s="5">
         <v>130.924408</v>
@@ -4097,7 +4017,7 @@
         <v>-12.393994</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="I85" s="5">
         <v>2.0</v>
@@ -4113,7 +4033,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F86" s="5">
         <v>149.802857</v>
@@ -4122,7 +4042,7 @@
         <v>-35.416354</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="I86" s="5">
         <v>2.0</v>
@@ -4132,13 +4052,13 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F87" s="5">
         <v>144.2793906</v>
@@ -4147,7 +4067,7 @@
         <v>-36.7570157</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="I87" s="5">
         <v>3.0</v>
@@ -4157,13 +4077,13 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F88" s="5">
         <v>150.3037323</v>
@@ -4172,7 +4092,7 @@
         <v>-33.409983</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="I88" s="5">
         <v>3.0</v>
@@ -4182,13 +4102,13 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F89" s="5">
         <v>152.948087</v>
@@ -4197,7 +4117,7 @@
         <v>-27.46943</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I89" s="5">
         <v>3.0</v>
@@ -4207,13 +4127,13 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F90" s="5">
         <v>115.726997</v>
@@ -4222,7 +4142,7 @@
         <v>-32.280998</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="I90" s="5">
         <v>3.0</v>
@@ -4232,13 +4152,13 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="F91" s="5">
         <v>149.37808</v>
@@ -4247,7 +4167,7 @@
         <v>-35.505416</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="I91" s="5">
         <v>3.0</v>
@@ -4257,13 +4177,13 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F92" s="5">
         <v>138.766254</v>
@@ -4272,7 +4192,7 @@
         <v>-34.581295</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="I92" s="5">
         <v>3.0</v>
@@ -4282,13 +4202,13 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F93" s="5">
         <v>147.281095</v>
@@ -4297,7 +4217,7 @@
         <v>-42.880999</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="I93" s="5">
         <v>3.0</v>
@@ -4307,13 +4227,13 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F94" s="5">
         <v>130.90245</v>
@@ -4322,7 +4242,7 @@
         <v>-12.531358</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="I94" s="5">
         <v>3.0</v>
@@ -4332,13 +4252,13 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="F95" s="5">
         <v>144.532165</v>
@@ -4347,9 +4267,9 @@
         <v>-38.193369</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I95" s="10">
+        <v>250</v>
+      </c>
+      <c r="I95" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4357,13 +4277,13 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F96" s="5">
         <v>150.801906</v>
@@ -4372,9 +4292,9 @@
         <v>-34.415209</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I96" s="10">
+        <v>254</v>
+      </c>
+      <c r="I96" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4382,24 +4302,24 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>335</v>
+        <v>76</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="F97" s="5">
         <v>145.587212</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="16">
         <v>-41.241886</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I97" s="10">
+        <v>261</v>
+      </c>
+      <c r="I97" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4407,13 +4327,13 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F98" s="5">
         <v>152.130014</v>
@@ -4422,9 +4342,9 @@
         <v>-27.327207</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I98" s="10">
+        <v>259</v>
+      </c>
+      <c r="I98" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4432,13 +4352,13 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>277</v>
+        <v>76</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="F99" s="5">
         <v>138.856535</v>
@@ -4447,9 +4367,9 @@
         <v>-35.078863</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I99" s="10">
+        <v>248</v>
+      </c>
+      <c r="I99" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4457,13 +4377,13 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F100" s="5">
         <v>149.240445</v>
@@ -4472,9 +4392,9 @@
         <v>-35.42173</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I100" s="10">
+        <v>252</v>
+      </c>
+      <c r="I100" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4482,13 +4402,13 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F101" s="5">
         <v>115.835208</v>
@@ -4497,9 +4417,9 @@
         <v>-33.555353</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I101" s="10">
+        <v>277</v>
+      </c>
+      <c r="I101" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4507,13 +4427,13 @@
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F102" s="5">
         <v>131.867797</v>
@@ -4522,9 +4442,9 @@
         <v>-13.806598</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I102" s="10">
+        <v>263</v>
+      </c>
+      <c r="I102" s="13">
         <v>8.0</v>
       </c>
     </row>
@@ -4532,13 +4452,13 @@
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="F103" s="5">
         <v>151.2311911</v>
@@ -4547,9 +4467,9 @@
         <v>-33.9921164</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I103" s="10">
+        <v>254</v>
+      </c>
+      <c r="I103" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4557,13 +4477,13 @@
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F104" s="5">
         <v>151.3173758</v>
@@ -4572,9 +4492,9 @@
         <v>-33.5572106</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I104" s="10">
+        <v>254</v>
+      </c>
+      <c r="I104" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4582,13 +4502,13 @@
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F105" s="5">
         <v>146.6394621</v>
@@ -4597,9 +4517,9 @@
         <v>-18.9625479</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I105" s="10">
+        <v>259</v>
+      </c>
+      <c r="I105" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4607,13 +4527,13 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F106" s="5">
         <v>132.5313457</v>
@@ -4622,9 +4542,9 @@
         <v>-11.1764219</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I106" s="10">
+        <v>263</v>
+      </c>
+      <c r="I106" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4632,13 +4552,13 @@
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F107" s="5">
         <v>137.6639744</v>
@@ -4647,9 +4567,9 @@
         <v>-35.6264954</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I107" s="10">
+        <v>248</v>
+      </c>
+      <c r="I107" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4657,13 +4577,13 @@
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="F108" s="5">
         <v>151.102087</v>
@@ -4672,9 +4592,9 @@
         <v>-32.743845</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I108" s="10">
+        <v>254</v>
+      </c>
+      <c r="I108" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4682,13 +4602,13 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F109" s="5">
         <v>145.709756</v>
@@ -4697,9 +4617,9 @@
         <v>-37.848256</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I109" s="10">
+        <v>250</v>
+      </c>
+      <c r="I109" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4707,13 +4627,13 @@
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F110" s="5">
         <v>115.545059</v>
@@ -4722,9 +4642,9 @@
         <v>-26.757462</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I110" s="10">
+        <v>277</v>
+      </c>
+      <c r="I110" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4732,13 +4652,13 @@
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="F111" s="5">
         <v>139.024697</v>
@@ -4747,9 +4667,9 @@
         <v>-34.469116</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I111" s="10">
+        <v>248</v>
+      </c>
+      <c r="I111" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4757,13 +4677,13 @@
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F112" s="5">
         <v>152.270238</v>
@@ -4772,9 +4692,9 @@
         <v>-24.978485</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I112" s="10">
+        <v>259</v>
+      </c>
+      <c r="I112" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4782,13 +4702,13 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F113" s="5">
         <v>132.267641</v>
@@ -4797,9 +4717,9 @@
         <v>-14.531178</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I113" s="10">
+        <v>263</v>
+      </c>
+      <c r="I113" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4807,13 +4727,13 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F114" s="5">
         <v>149.288531</v>
@@ -4822,9 +4742,9 @@
         <v>-35.31616</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I114" s="10">
+        <v>252</v>
+      </c>
+      <c r="I114" s="13">
         <v>4.0</v>
       </c>
     </row>
@@ -4832,13 +4752,13 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F115" s="5">
         <v>143.7443331</v>
@@ -4847,9 +4767,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I115" s="10">
+        <v>259</v>
+      </c>
+      <c r="I115" s="13">
         <v>5.0</v>
       </c>
     </row>
@@ -4857,13 +4777,13 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="F116" s="5">
         <v>138.2393528</v>
@@ -4872,23 +4792,23 @@
         <v>-35.1324002</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I116" s="10">
+        <v>248</v>
+      </c>
+      <c r="I116" s="13">
         <v>5.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F117" s="5">
         <v>131.097498</v>
@@ -4897,159 +4817,159 @@
         <v>-12.34867</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I117" s="10">
+        <v>263</v>
+      </c>
+      <c r="I117" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F118" s="8">
+        <v>324</v>
+      </c>
+      <c r="F118" s="9">
         <v>130.131029</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="9">
         <v>-13.0868863</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I118" s="10">
+        <v>263</v>
+      </c>
+      <c r="I118" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F119" s="8">
+        <v>325</v>
+      </c>
+      <c r="F119" s="9">
         <v>131.102222</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="9">
         <v>-12.575278</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I119" s="10">
+        <v>263</v>
+      </c>
+      <c r="I119" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F120" s="8">
+        <v>326</v>
+      </c>
+      <c r="F120" s="9">
         <v>128.7654685</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="9">
         <v>-15.6049485</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I120" s="10">
+        <v>277</v>
+      </c>
+      <c r="I120" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F121" s="8">
+        <v>327</v>
+      </c>
+      <c r="F121" s="9">
         <v>147.1327778</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="9">
         <v>-36.9752778</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I121" s="10">
+        <v>250</v>
+      </c>
+      <c r="I121" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F122" s="8">
+        <v>328</v>
+      </c>
+      <c r="F122" s="9">
         <v>132.3937658</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="9">
         <v>-13.0922931</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I122" s="10">
+        <v>263</v>
+      </c>
+      <c r="I122" s="13">
         <v>28.0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>248</v>
+        <v>175</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F123" s="8">
+        <v>329</v>
+      </c>
+      <c r="F123" s="9">
         <v>133.6565478</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="9">
         <v>-12.2562233</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I123" s="10">
+        <v>263</v>
+      </c>
+      <c r="I123" s="13">
         <v>28.0</v>
       </c>
     </row>
@@ -5057,13 +4977,13 @@
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F124" s="5">
         <v>148.228665</v>
@@ -5072,9 +4992,9 @@
         <v>-32.727341</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I124" s="10">
+        <v>254</v>
+      </c>
+      <c r="I124" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5082,13 +5002,13 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="F125" s="5">
         <v>146.50835</v>
@@ -5097,9 +5017,9 @@
         <v>-38.110305</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I125" s="10">
+        <v>250</v>
+      </c>
+      <c r="I125" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5107,13 +5027,13 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="F126" s="5">
         <v>115.229051</v>
@@ -5122,9 +5042,9 @@
         <v>-34.042031</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I126" s="10">
+        <v>277</v>
+      </c>
+      <c r="I126" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5132,13 +5052,13 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F127" s="5">
         <v>135.833862</v>
@@ -5147,9 +5067,9 @@
         <v>-34.728307</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I127" s="10">
+        <v>248</v>
+      </c>
+      <c r="I127" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5157,13 +5077,13 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="F128" s="5">
         <v>152.578498</v>
@@ -5172,9 +5092,9 @@
         <v>-27.321098</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I128" s="10">
+        <v>259</v>
+      </c>
+      <c r="I128" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5182,24 +5102,24 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F129" s="14">
+        <v>336</v>
+      </c>
+      <c r="F129" s="5">
         <v>146.239833</v>
       </c>
-      <c r="G129" s="14">
+      <c r="G129" s="5">
         <v>-42.224372</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I129" s="10">
+        <v>261</v>
+      </c>
+      <c r="I129" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5207,24 +5127,24 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="F130" s="14">
+        <v>330</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F130" s="5">
         <v>149.112463</v>
       </c>
-      <c r="G130" s="14">
+      <c r="G130" s="5">
         <v>-35.293744</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I130" s="10">
+        <v>252</v>
+      </c>
+      <c r="I130" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -5232,13 +5152,13 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="F131" s="5">
         <v>152.9993386</v>
@@ -5247,9 +5167,9 @@
         <v>-28.6809564</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I131" s="15">
+        <v>259</v>
+      </c>
+      <c r="I131" s="17">
         <v>7.0</v>
       </c>
     </row>
@@ -5257,13 +5177,13 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="F132" s="5">
         <v>152.7296388</v>
@@ -5272,9 +5192,9 @@
         <v>-30.4332051</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I132" s="15">
+        <v>254</v>
+      </c>
+      <c r="I132" s="17">
         <v>7.0</v>
       </c>
     </row>
@@ -5282,13 +5202,13 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="F133" s="5">
         <v>151.3326862</v>
@@ -5297,9 +5217,9 @@
         <v>-33.5565739</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I133" s="15">
+        <v>259</v>
+      </c>
+      <c r="I133" s="17">
         <v>7.0</v>
       </c>
     </row>
@@ -5307,13 +5227,13 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>371</v>
+        <v>69</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="F134" s="5">
         <v>150.7446771</v>
@@ -5322,9 +5242,9 @@
         <v>-35.0480805</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I134" s="15">
+        <v>254</v>
+      </c>
+      <c r="I134" s="17">
         <v>7.0</v>
       </c>
     </row>
@@ -5332,13 +5252,13 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="F135" s="5">
         <v>147.65</v>
@@ -5347,234 +5267,234 @@
         <v>-38.0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I135" s="15">
+        <v>250</v>
+      </c>
+      <c r="I135" s="17">
         <v>7.0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F136" s="8">
+        <v>343</v>
+      </c>
+      <c r="F136" s="9">
         <v>151.9506696</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="9">
         <v>-27.5598212</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I136" s="15">
+        <v>259</v>
+      </c>
+      <c r="I136" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F137" s="14">
+        <v>344</v>
+      </c>
+      <c r="F137" s="5">
         <v>152.805484</v>
       </c>
-      <c r="G137" s="14">
+      <c r="G137" s="5">
         <v>-27.426872</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I137" s="15">
+        <v>259</v>
+      </c>
+      <c r="I137" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F138" s="14">
+        <v>345</v>
+      </c>
+      <c r="F138" s="5">
         <v>144.271284</v>
       </c>
-      <c r="G138" s="14">
+      <c r="G138" s="5">
         <v>-37.436833</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I138" s="15">
+        <v>250</v>
+      </c>
+      <c r="I138" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F139" s="14">
+        <v>346</v>
+      </c>
+      <c r="F139" s="5">
         <v>148.824403</v>
       </c>
-      <c r="G139" s="14">
+      <c r="G139" s="5">
         <v>-35.512022</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I139" s="15">
+        <v>252</v>
+      </c>
+      <c r="I139" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F140" s="14">
+        <v>347</v>
+      </c>
+      <c r="F140" s="5">
         <v>140.451746</v>
       </c>
-      <c r="G140" s="14">
+      <c r="G140" s="5">
         <v>-35.653708</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I140" s="15">
+        <v>248</v>
+      </c>
+      <c r="I140" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F141" s="8">
+        <v>348</v>
+      </c>
+      <c r="F141" s="9">
         <v>137.7894394</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="9">
         <v>-32.4952339</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I141" s="15">
+        <v>248</v>
+      </c>
+      <c r="I141" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F142" s="8">
+        <v>349</v>
+      </c>
+      <c r="F142" s="9">
         <v>141.4539396</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="9">
         <v>-31.9539135</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I142" s="15">
+        <v>254</v>
+      </c>
+      <c r="I142" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F143" s="8">
+        <v>350</v>
+      </c>
+      <c r="F143" s="9">
         <v>148.6329645</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="9">
         <v>-32.2315018</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I143" s="15">
+        <v>254</v>
+      </c>
+      <c r="I143" s="17">
         <v>29.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F144" s="8">
+        <v>351</v>
+      </c>
+      <c r="F144" s="9">
         <v>150.9320334</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="9">
         <v>-31.092748</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I144" s="15">
+        <v>254</v>
+      </c>
+      <c r="I144" s="17">
         <v>29.0</v>
       </c>
     </row>
@@ -5582,13 +5502,13 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="F145" s="5">
         <v>147.7123335</v>
@@ -5597,9 +5517,9 @@
         <v>-37.9112576</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I145" s="15">
+        <v>250</v>
+      </c>
+      <c r="I145" s="17">
         <v>11.0</v>
       </c>
     </row>
@@ -5607,13 +5527,13 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="F146" s="5">
         <v>143.7443331</v>
@@ -5622,9 +5542,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I146" s="15">
+        <v>248</v>
+      </c>
+      <c r="I146" s="17">
         <v>11.0</v>
       </c>
     </row>
@@ -5632,13 +5552,13 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="F147" s="5">
         <v>152.45621</v>
@@ -5647,9 +5567,9 @@
         <v>-30.82738429</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I147" s="15">
+        <v>254</v>
+      </c>
+      <c r="I147" s="17">
         <v>11.0</v>
       </c>
     </row>
@@ -5657,13 +5577,13 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="F148" s="5">
         <v>149.9358867</v>
@@ -5672,9 +5592,9 @@
         <v>-35.2306369</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I148" s="15">
+        <v>254</v>
+      </c>
+      <c r="I148" s="17">
         <v>11.0</v>
       </c>
     </row>
@@ -5682,13 +5602,13 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="F149" s="5">
         <v>140.7442855</v>
@@ -5697,9 +5617,9 @@
         <v>-34.1742746</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I149" s="15">
+        <v>248</v>
+      </c>
+      <c r="I149" s="17">
         <v>11.0</v>
       </c>
     </row>
@@ -5707,13 +5627,13 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="F150" s="5">
         <v>147.995821</v>
@@ -5722,9 +5642,9 @@
         <v>-37.8511185</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I150" s="15">
+        <v>250</v>
+      </c>
+      <c r="I150" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5732,13 +5652,13 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="F151" s="5">
         <v>153.1463819</v>
@@ -5747,9 +5667,9 @@
         <v>-29.4612304</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I151" s="15">
+        <v>254</v>
+      </c>
+      <c r="I151" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5757,13 +5677,13 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="F152" s="5">
         <v>152.4736434</v>
@@ -5772,9 +5692,9 @@
         <v>-31.4101475</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I152" s="15">
+        <v>254</v>
+      </c>
+      <c r="I152" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5782,13 +5702,13 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="F153" s="5">
         <v>115.788155</v>
@@ -5797,9 +5717,9 @@
         <v>-33.3057308</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I153" s="15">
+        <v>277</v>
+      </c>
+      <c r="I153" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5807,13 +5727,13 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="F154" s="5">
         <v>145.3843373</v>
@@ -5822,9 +5742,9 @@
         <v>-42.3197515</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I154" s="15">
+        <v>261</v>
+      </c>
+      <c r="I154" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5832,13 +5752,13 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="F155" s="5">
         <v>143.7443331</v>
@@ -5847,9 +5767,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I155" s="15">
+        <v>248</v>
+      </c>
+      <c r="I155" s="17">
         <v>12.0</v>
       </c>
     </row>
@@ -5857,13 +5777,13 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F156" s="5">
         <v>143.7443331</v>
@@ -5872,9 +5792,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I156" s="15">
+        <v>259</v>
+      </c>
+      <c r="I156" s="17">
         <v>10.0</v>
       </c>
     </row>
@@ -5882,13 +5802,13 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="F157" s="5">
         <v>115.6483509</v>
@@ -5897,234 +5817,234 @@
         <v>-32.6135821</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I157" s="15">
+        <v>277</v>
+      </c>
+      <c r="I157" s="17">
         <v>10.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F158" s="9">
+        <v>175</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F158" s="5">
         <v>115.834347</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G158" s="5">
         <v>-31.960828</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I158" s="15">
+        <v>277</v>
+      </c>
+      <c r="I158" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="F159" s="9">
+        <v>175</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F159" s="5">
         <v>130.84513</v>
       </c>
-      <c r="G159" s="9">
+      <c r="G159" s="5">
         <v>-12.464874</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I159" s="15">
+        <v>263</v>
+      </c>
+      <c r="I159" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F160" s="11">
+        <v>175</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F160" s="9">
         <v>132.6097596</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G160" s="9">
         <v>-11.6970626</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I160" s="15">
+        <v>263</v>
+      </c>
+      <c r="I160" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F161" s="9">
+        <v>175</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F161" s="5">
         <v>145.840773</v>
       </c>
-      <c r="G161" s="9">
+      <c r="G161" s="5">
         <v>-16.988502</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I161" s="15">
+        <v>259</v>
+      </c>
+      <c r="I161" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F162" s="9">
+        <v>175</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F162" s="5">
         <v>146.81571</v>
       </c>
-      <c r="G162" s="9">
+      <c r="G162" s="5">
         <v>-19.25819</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I162" s="15">
+        <v>259</v>
+      </c>
+      <c r="I162" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F163" s="9">
+        <v>175</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F163" s="5">
         <v>151.213965</v>
       </c>
-      <c r="G163" s="9">
+      <c r="G163" s="5">
         <v>-33.868661</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I163" s="15">
+        <v>254</v>
+      </c>
+      <c r="I163" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F164" s="9">
+        <v>175</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F164" s="5">
         <v>153.021821</v>
       </c>
-      <c r="G164" s="9">
+      <c r="G164" s="5">
         <v>-27.467117</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I164" s="15">
+        <v>259</v>
+      </c>
+      <c r="I164" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F165" s="9">
+        <v>175</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F165" s="5">
         <v>144.962663</v>
       </c>
-      <c r="G165" s="9">
+      <c r="G165" s="5">
         <v>-37.812176</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I165" s="15">
+        <v>250</v>
+      </c>
+      <c r="I165" s="17">
         <v>30.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F166" s="9">
+        <v>175</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F166" s="5">
         <v>151.780527</v>
       </c>
-      <c r="G166" s="9">
+      <c r="G166" s="5">
         <v>-32.928306</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I166" s="15">
+        <v>254</v>
+      </c>
+      <c r="I166" s="17">
         <v>30.0</v>
       </c>
     </row>
@@ -6132,24 +6052,24 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="F167" s="9">
+        <v>115</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F167" s="5">
         <v>145.9706647</v>
       </c>
-      <c r="G167" s="17">
+      <c r="G167" s="16">
         <v>-41.4545196</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I167" s="15">
+        <v>261</v>
+      </c>
+      <c r="I167" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6157,24 +6077,24 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F168" s="9">
+        <v>115</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F168" s="5">
         <v>146.906857</v>
       </c>
-      <c r="G168" s="9">
+      <c r="G168" s="5">
         <v>-31.247792</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I168" s="15">
+        <v>254</v>
+      </c>
+      <c r="I168" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6182,24 +6102,24 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F169" s="9">
+        <v>115</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F169" s="5">
         <v>144.746954</v>
       </c>
-      <c r="G169" s="9">
+      <c r="G169" s="5">
         <v>-37.483683</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I169" s="15">
+        <v>250</v>
+      </c>
+      <c r="I169" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6207,24 +6127,24 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F170" s="9">
+        <v>115</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F170" s="5">
         <v>120.69857</v>
       </c>
-      <c r="G170" s="9">
+      <c r="G170" s="5">
         <v>-27.919194</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I170" s="15">
+        <v>277</v>
+      </c>
+      <c r="I170" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6232,24 +6152,24 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F171" s="9">
+        <v>115</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F171" s="5">
         <v>136.07394</v>
       </c>
-      <c r="G171" s="9">
+      <c r="G171" s="5">
         <v>-29.931135</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I171" s="15">
+        <v>248</v>
+      </c>
+      <c r="I171" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6257,24 +6177,24 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F172" s="9">
+        <v>115</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F172" s="5">
         <v>144.556746</v>
       </c>
-      <c r="G172" s="9">
+      <c r="G172" s="5">
         <v>-22.362776</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I172" s="15">
+        <v>259</v>
+      </c>
+      <c r="I172" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6282,24 +6202,24 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F173" s="11">
+        <v>115</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F173" s="9">
         <v>132.5509603</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="9">
         <v>-19.4914108</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I173" s="15">
+        <v>263</v>
+      </c>
+      <c r="I173" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6307,24 +6227,24 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F174" s="9">
+        <v>115</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F174" s="5">
         <v>149.056322</v>
       </c>
-      <c r="G174" s="9">
+      <c r="G174" s="5">
         <v>-35.511968</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I174" s="15">
+        <v>252</v>
+      </c>
+      <c r="I174" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6332,24 +6252,24 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="F175" s="9">
+        <v>115</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" s="5">
         <v>151.1562047</v>
       </c>
-      <c r="G175" s="9">
+      <c r="G175" s="5">
         <v>-33.92713579</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I175" s="15">
+        <v>254</v>
+      </c>
+      <c r="I175" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6357,24 +6277,24 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F176" s="9">
+        <v>115</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F176" s="5">
         <v>151.225581</v>
       </c>
-      <c r="G176" s="9">
+      <c r="G176" s="5">
         <v>-33.854974</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I176" s="15">
+        <v>254</v>
+      </c>
+      <c r="I176" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6382,24 +6302,24 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F177" s="9">
+        <v>115</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F177" s="5">
         <v>145.973054</v>
       </c>
-      <c r="G177" s="9">
+      <c r="G177" s="5">
         <v>-16.759447</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I177" s="15">
+        <v>259</v>
+      </c>
+      <c r="I177" s="17">
         <v>13.0</v>
       </c>
     </row>
@@ -6407,24 +6327,24 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F178" s="9">
+        <v>124</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F178" s="5">
         <v>135.009291</v>
       </c>
-      <c r="G178" s="9">
+      <c r="G178" s="5">
         <v>-19.532391</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I178" s="15">
+        <v>263</v>
+      </c>
+      <c r="I178" s="17">
         <v>14.0</v>
       </c>
     </row>
@@ -6432,24 +6352,24 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F179" s="9">
+        <v>124</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F179" s="5">
         <v>125.570619</v>
       </c>
-      <c r="G179" s="9">
+      <c r="G179" s="5">
         <v>-18.196831</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I179" s="15">
+        <v>277</v>
+      </c>
+      <c r="I179" s="17">
         <v>14.0</v>
       </c>
     </row>
@@ -6457,24 +6377,24 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F180" s="9">
+        <v>124</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F180" s="5">
         <v>151.206143</v>
       </c>
-      <c r="G180" s="9">
+      <c r="G180" s="5">
         <v>-33.866612</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I180" s="15">
+        <v>254</v>
+      </c>
+      <c r="I180" s="17">
         <v>14.0</v>
       </c>
     </row>
@@ -6482,24 +6402,24 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F181" s="9">
+        <v>132</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F181" s="5">
         <v>151.206143</v>
       </c>
-      <c r="G181" s="9">
+      <c r="G181" s="5">
         <v>-33.865498</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I181" s="15">
+        <v>254</v>
+      </c>
+      <c r="I181" s="17">
         <v>15.0</v>
       </c>
     </row>
@@ -6507,24 +6427,24 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F182" s="9">
+        <v>132</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F182" s="5">
         <v>145.969714</v>
       </c>
-      <c r="G182" s="17">
+      <c r="G182" s="16">
         <v>-41.454861</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I182" s="15">
+        <v>261</v>
+      </c>
+      <c r="I182" s="17">
         <v>15.0</v>
       </c>
     </row>
@@ -6532,24 +6452,24 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F183" s="9">
+        <v>132</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F183" s="5">
         <v>146.906863</v>
       </c>
-      <c r="G183" s="9">
+      <c r="G183" s="5">
         <v>-31.247737</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I183" s="15">
+        <v>254</v>
+      </c>
+      <c r="I183" s="17">
         <v>15.0</v>
       </c>
     </row>
@@ -6557,24 +6477,24 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F184" s="9">
+        <v>132</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F184" s="5">
         <v>144.749981</v>
       </c>
-      <c r="G184" s="9">
+      <c r="G184" s="5">
         <v>-37.486131</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I184" s="15">
+        <v>250</v>
+      </c>
+      <c r="I184" s="17">
         <v>15.0</v>
       </c>
     </row>
@@ -6582,24 +6502,24 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F185" s="9">
+        <v>132</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F185" s="5">
         <v>136.144635</v>
       </c>
-      <c r="G185" s="9">
+      <c r="G185" s="5">
         <v>-29.93887</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I185" s="15">
+        <v>248</v>
+      </c>
+      <c r="I185" s="17">
         <v>15.0</v>
       </c>
     </row>
@@ -6607,24 +6527,24 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F186" s="9">
+        <v>142</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F186" s="5">
         <v>141.9368545</v>
       </c>
-      <c r="G186" s="9">
+      <c r="G186" s="5">
         <v>-10.2199025</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I186" s="15">
+        <v>259</v>
+      </c>
+      <c r="I186" s="17">
         <v>16.0</v>
       </c>
     </row>
@@ -6632,24 +6552,24 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F187" s="9">
+        <v>142</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F187" s="5">
         <v>134.865436</v>
       </c>
-      <c r="G187" s="9">
+      <c r="G187" s="5">
         <v>-19.526142</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I187" s="15">
+        <v>263</v>
+      </c>
+      <c r="I187" s="17">
         <v>16.0</v>
       </c>
     </row>
@@ -6657,24 +6577,24 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F188" s="9">
+        <v>148</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" s="5">
         <v>147.129055</v>
       </c>
-      <c r="G188" s="9">
+      <c r="G188" s="5">
         <v>-31.503629</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I188" s="15">
+        <v>254</v>
+      </c>
+      <c r="I188" s="17">
         <v>17.0</v>
       </c>
     </row>
@@ -6682,24 +6602,24 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F189" s="9">
+        <v>148</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F189" s="5">
         <v>144.777859</v>
       </c>
-      <c r="G189" s="9">
+      <c r="G189" s="5">
         <v>-37.490115</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I189" s="15">
+        <v>250</v>
+      </c>
+      <c r="I189" s="17">
         <v>17.0</v>
       </c>
     </row>
@@ -6707,24 +6627,24 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F190" s="9">
+        <v>148</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" s="5">
         <v>136.648049</v>
       </c>
-      <c r="G190" s="9">
+      <c r="G190" s="5">
         <v>-29.571068</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I190" s="15">
+        <v>248</v>
+      </c>
+      <c r="I190" s="17">
         <v>17.0</v>
       </c>
     </row>
@@ -6732,24 +6652,24 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F191" s="9">
+        <v>154</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" s="5">
         <v>142.370469</v>
       </c>
-      <c r="G191" s="9">
+      <c r="G191" s="5">
         <v>-37.20955</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I191" s="15">
+        <v>250</v>
+      </c>
+      <c r="I191" s="17">
         <v>18.0</v>
       </c>
     </row>
@@ -6757,24 +6677,24 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="F192" s="9">
+        <v>154</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F192" s="5">
         <v>142.0798249</v>
       </c>
-      <c r="G192" s="9">
+      <c r="G192" s="5">
         <v>-37.2596492</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I192" s="15">
+        <v>250</v>
+      </c>
+      <c r="I192" s="17">
         <v>18.0</v>
       </c>
     </row>
@@ -6782,24 +6702,24 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="F193" s="9">
+        <v>154</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" s="5">
         <v>144.4938982</v>
       </c>
-      <c r="G193" s="9">
+      <c r="G193" s="5">
         <v>-38.2836875</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I193" s="15">
+        <v>254</v>
+      </c>
+      <c r="I193" s="17">
         <v>18.0</v>
       </c>
     </row>
@@ -6807,24 +6727,24 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="F194" s="9">
+        <v>154</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F194" s="5">
         <v>143.4014055</v>
       </c>
-      <c r="G194" s="9">
+      <c r="G194" s="5">
         <v>-38.1826107</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I194" s="15">
+        <v>250</v>
+      </c>
+      <c r="I194" s="17">
         <v>18.0</v>
       </c>
     </row>
@@ -6832,24 +6752,24 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="F195" s="9">
+        <v>154</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" s="5">
         <v>143.566667</v>
       </c>
-      <c r="G195" s="9">
+      <c r="G195" s="5">
         <v>-38.633333</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I195" s="15">
+        <v>250</v>
+      </c>
+      <c r="I195" s="17">
         <v>18.0</v>
       </c>
     </row>
@@ -6857,24 +6777,24 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="F196" s="9">
+        <v>168</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F196" s="5">
         <v>142.660864</v>
       </c>
-      <c r="G196" s="9">
+      <c r="G196" s="5">
         <v>-18.319981</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I196" s="15">
+        <v>259</v>
+      </c>
+      <c r="I196" s="17">
         <v>20.0</v>
       </c>
     </row>
@@ -6882,24 +6802,24 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F197" s="9">
+        <v>168</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F197" s="5">
         <v>138.610444</v>
       </c>
-      <c r="G197" s="9">
+      <c r="G197" s="5">
         <v>-34.938472</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I197" s="15">
+        <v>248</v>
+      </c>
+      <c r="I197" s="17">
         <v>20.0</v>
       </c>
     </row>
@@ -6907,24 +6827,24 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F198" s="9">
+        <v>168</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F198" s="5">
         <v>144.748564</v>
       </c>
-      <c r="G198" s="9">
+      <c r="G198" s="5">
         <v>-37.483245</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I198" s="15">
+        <v>250</v>
+      </c>
+      <c r="I198" s="17">
         <v>20.0</v>
       </c>
     </row>
@@ -6932,24 +6852,24 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F199" s="9">
+        <v>160</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F199" s="5">
         <v>153.025338</v>
       </c>
-      <c r="G199" s="9">
+      <c r="G199" s="5">
         <v>-27.469859</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I199" s="15">
+        <v>259</v>
+      </c>
+      <c r="I199" s="17">
         <v>19.0</v>
       </c>
     </row>
@@ -6957,24 +6877,24 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F200" s="9">
+        <v>160</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" s="5">
         <v>151.110702</v>
       </c>
-      <c r="G200" s="9">
+      <c r="G200" s="5">
         <v>-23.8296</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I200" s="15">
+        <v>259</v>
+      </c>
+      <c r="I200" s="17">
         <v>19.0</v>
       </c>
     </row>
@@ -6982,25 +6902,124 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F201" s="9">
+        <v>160</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F201" s="5">
         <v>151.227043</v>
       </c>
-      <c r="G201" s="9">
+      <c r="G201" s="5">
         <v>-33.976606</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I201" s="15">
+        <v>254</v>
+      </c>
+      <c r="I201" s="17">
         <v>19.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="E204" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="E205" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F205" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="G205" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="E206" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F206" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="G206" s="5">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="E207" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F207" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G207" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="E208" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F208" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="G208" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="E209" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F209" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G209" s="5">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="E210" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F210" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="G210" s="5">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="E211" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F211" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G211" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="E212" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F212" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G212" s="5">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -7019,12 +7038,12 @@
     <hyperlink r:id="rId12" ref="L13"/>
     <hyperlink r:id="rId13" ref="L14"/>
     <hyperlink r:id="rId14" ref="L15"/>
-    <hyperlink r:id="rId15" location="/media/File:Fallow_deer_in_field.jpg" ref="L16"/>
+    <hyperlink r:id="rId15" ref="L16"/>
     <hyperlink r:id="rId16" ref="L17"/>
     <hyperlink r:id="rId17" ref="L18"/>
-    <hyperlink r:id="rId18" location="/media/File:Cervus_elaphus_Luc_Viatour_6.jpg" ref="L19"/>
-    <hyperlink r:id="rId19" location="/media/File:Fire_ants_01.jpg" ref="L20"/>
-    <hyperlink r:id="rId20" location="/media/File:A_chital_stag_1.JPG" ref="L21"/>
+    <hyperlink r:id="rId18" ref="L19"/>
+    <hyperlink r:id="rId19" ref="L20"/>
+    <hyperlink r:id="rId20" ref="L21"/>
     <hyperlink r:id="rId21" ref="L22"/>
     <hyperlink r:id="rId22" ref="L23"/>
     <hyperlink r:id="rId23" ref="L24"/>

--- a/PestdataSet.xlsx
+++ b/PestdataSet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="388">
   <si>
     <t>Pest_id</t>
   </si>
@@ -157,13 +157,10 @@
     <t xml:space="preserve">United Kingdom/Australia/Italy/United States </t>
   </si>
   <si>
-    <t>Invasive species/pest</t>
-  </si>
-  <si>
     <t>Prey on vertebrates and invertebrates, prefer small animals such as mammals, birds, house mouse, European rabbit, and ringtail possum.</t>
   </si>
   <si>
-    <t>Don't feed and forget feral cats. You can help feral cats with health care/join volunteer program to help cats/leave the cat alone</t>
+    <t>Don't feed and forget feral cats. You can help feral cats with health care/join volunteer program to help cats/leave the cat alone.</t>
   </si>
   <si>
     <t>Feral cats are normally prey on animals with body weights under 100g and a feral cat may produce up to 150 kittens in her life time.</t>
@@ -286,9 +283,6 @@
     <t>Southeastern Australia, widespread throughout eastern Australia from western Victoria in the south to Cairns in the north. Native to Eurasia and northern Africa, introduced into Australia in the mid 1880's.</t>
   </si>
   <si>
-    <t>Invasive species/Pest</t>
-  </si>
-  <si>
     <t>In lowland suburbs and open agricultural areas, coastal plains, and high mountain areas, it is one of the most common species. Protein is needed to make it live and multiply, eat fruits, vegetables, meat, etc.</t>
   </si>
   <si>
@@ -379,7 +373,7 @@
     <t>Prey on crops, newborn lambs and native wildlife.</t>
   </si>
   <si>
-    <t xml:space="preserve"> DO NOT approach or attempt to feed the animal. Keep a safe distance and DO NOT corner or provoke the animal. Be calm and move slowly away from the animal. </t>
+    <t xml:space="preserve">DO NOT approach or attempt to feed the animal. Keep a safe distance and DO NOT corner or provoke the animal. Be calm and move slowly away from the animal. </t>
   </si>
   <si>
     <t>Pigs are highly intelligent and have been shown to communicate as many as 20 different vocalisations to express their thoughts!</t>
@@ -625,7 +619,7 @@
     <t>Dolichandra unguis-cati</t>
   </si>
   <si>
-    <t>"Cat's Claw Creeper has the ability to completely suffocate native plants, and can even grow on tall trees. Due to the combination of weight and shadow, they may cause the largest canopy tree to eventually die.</t>
+    <t>Cat's Claw Creeper has the ability to completely suffocate native plants, and can even grow on tall trees. Due to the combination of weight and shadow, they may cause the largest canopy tree to eventually die.</t>
   </si>
   <si>
     <t>Sydney/NewCastle/Taree/Coff Harbour/Lismore/Gold coast/Brisbane/Gympie</t>
@@ -661,6 +655,9 @@
     <t>Pereskia aculeata</t>
   </si>
   <si>
+    <t>yi</t>
+  </si>
+  <si>
     <t>Excessive Pereskia aculeata has a major impact on native trees. It will climb up vegetation and destroy biomass, forming large bushes that are impenetrable. Large and thorny stems and branches can seriously harm people and affect people's entertainment and tourism.</t>
   </si>
   <si>
@@ -670,7 +667,7 @@
     <t>It thrives in tropical and subtropical environments and is drought tolerant. It can tolerate many soil types, especially well-drained and nutrient-rich soils.</t>
   </si>
   <si>
-    <t>It can be controlled by Triclopyr or biological control with the leaf-feeding flea-beetle, Phenrica guérini, which has caused significant damage to Pereskia plants at Port Alfred, Eastern Cape, South Africa。</t>
+    <t>It can be controlled by Triclopyr or biological control with the leaf-feeding flea-beetle, Phenrica guérini, which has caused significant damage to Pereskia plants at Port Alfred, Eastern Cape, South Africa.</t>
   </si>
   <si>
     <t>Dumping plants on roadside vegetation may cause transmission. Near small rivers and other water bodies, plant debris can be washed to a certain distance downstream to establish new populations.</t>
@@ -1184,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1217,16 +1214,22 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -1259,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1280,35 +1283,41 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1542,7 @@
     <col customWidth="1" min="1" max="4" width="17.0"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
     <col customWidth="1" min="6" max="6" width="35.43"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
+    <col customWidth="1" min="7" max="7" width="38.14"/>
     <col customWidth="1" min="8" max="8" width="26.43"/>
     <col customWidth="1" min="9" max="9" width="47.71"/>
     <col customWidth="1" min="10" max="10" width="52.57"/>
@@ -1616,10 +1625,10 @@
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1631,8 +1640,11 @@
       <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1669,8 +1681,11 @@
       <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M3" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1707,8 +1722,11 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -1734,58 +1752,63 @@
         <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1793,37 +1816,40 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1831,151 +1857,163 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="11" t="s">
         <v>22</v>
+      </c>
+      <c r="M8" s="9">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
         <v>8.0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
         <v>9.0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="K10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1983,34 +2021,37 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -2018,37 +2059,40 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="J13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -2056,37 +2100,40 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M14" s="9">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -2094,34 +2141,37 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -2129,37 +2179,40 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2167,37 +2220,40 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="F17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="J17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -2205,37 +2261,40 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="H18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="J18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -2243,37 +2302,40 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="H19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="J19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -2281,34 +2343,37 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M20" s="9">
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
@@ -2316,75 +2381,81 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="J21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="H22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="K22" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4.5</v>
       </c>
     </row>
     <row r="23">
@@ -2392,363 +2463,390 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="H23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="J23" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="K23" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M23" s="5">
+        <v>4.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>191</v>
+      <c r="B24" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="5">
         <v>1800.0</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="J24" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="K24" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M24" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>197</v>
+      <c r="B25" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E25" s="5">
         <v>300.0</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="J25" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="K25" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M25" s="5">
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>25.0</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>203</v>
+      <c r="B26" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E26" s="5">
         <v>2000.0</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="J26" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="K26" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>209</v>
+      <c r="B27" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" s="5">
         <v>200.0</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="J27" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="K27" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>175</v>
+      <c r="B28" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E28" s="5">
         <v>1000.0</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M28" s="5">
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>29.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M30" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>30.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>0</v>
@@ -2774,16 +2872,16 @@
       <c r="AB35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" s="5">
         <v>138.609054</v>
@@ -2792,23 +2890,23 @@
         <v>-34.927525</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="I36" s="13">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="F37" s="5">
         <v>144.62</v>
@@ -2817,23 +2915,23 @@
         <v>-36.52</v>
       </c>
       <c r="H37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="I37" s="13">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="F38" s="5">
         <v>149.132309</v>
@@ -2842,23 +2940,23 @@
         <v>-35.28466</v>
       </c>
       <c r="H38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="I38" s="13">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="F39" s="5">
         <v>147.39</v>
@@ -2867,9 +2965,9 @@
         <v>-31.7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" s="13">
+        <v>253</v>
+      </c>
+      <c r="I39" s="15">
         <v>21.0</v>
       </c>
     </row>
@@ -2877,24 +2975,24 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="9">
+        <v>254</v>
+      </c>
+      <c r="F40" s="12">
         <v>144.7851531</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="12">
         <v>-37.4713077</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I40" s="13">
+        <v>249</v>
+      </c>
+      <c r="I40" s="15">
         <v>22.0</v>
       </c>
     </row>
@@ -2902,13 +3000,13 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F41" s="5">
         <v>151.2091876</v>
@@ -2916,10 +3014,10 @@
       <c r="G41" s="5">
         <v>-33.8687256</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="H41" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I41" s="15">
         <v>22.0</v>
       </c>
     </row>
@@ -2927,13 +3025,13 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F42" s="5">
         <v>151.78156</v>
@@ -2941,10 +3039,10 @@
       <c r="G42" s="5">
         <v>-32.9282688</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I42" s="15">
         <v>22.0</v>
       </c>
     </row>
@@ -2952,13 +3050,13 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F43" s="5">
         <v>153.01888</v>
@@ -2967,9 +3065,9 @@
         <v>-27.461803</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I43" s="13">
+        <v>258</v>
+      </c>
+      <c r="I43" s="15">
         <v>22.0</v>
       </c>
     </row>
@@ -2977,24 +3075,24 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="9">
+        <v>259</v>
+      </c>
+      <c r="F44" s="12">
         <v>145.9706647</v>
       </c>
       <c r="G44" s="5">
         <v>-41.439316</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I44" s="13">
+        <v>260</v>
+      </c>
+      <c r="I44" s="15">
         <v>22.0</v>
       </c>
     </row>
@@ -3002,13 +3100,13 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F45" s="5">
         <v>134.965686</v>
@@ -3017,23 +3115,23 @@
         <v>-19.523553</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I45" s="15">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="I45" s="13">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="F46" s="5">
         <v>133.884543</v>
@@ -3042,23 +3140,23 @@
         <v>-23.705798</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I46" s="13">
+        <v>262</v>
+      </c>
+      <c r="I46" s="15">
         <v>23.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F47" s="5">
         <v>138.600546</v>
@@ -3067,23 +3165,23 @@
         <v>-34.9284989</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I47" s="13">
+        <v>247</v>
+      </c>
+      <c r="I47" s="15">
         <v>23.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" s="5">
         <v>141.450605</v>
@@ -3092,23 +3190,23 @@
         <v>-31.955184</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I48" s="13">
+        <v>253</v>
+      </c>
+      <c r="I48" s="15">
         <v>23.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="5">
         <v>151.338043</v>
@@ -3117,23 +3215,23 @@
         <v>-33.425057</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="13">
+        <v>247</v>
+      </c>
+      <c r="I49" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F50" s="5">
         <v>150.998969</v>
@@ -3142,23 +3240,23 @@
         <v>-34.182678</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I50" s="13">
+        <v>253</v>
+      </c>
+      <c r="I50" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" s="5">
         <v>151.210467</v>
@@ -3167,23 +3265,23 @@
         <v>-33.870387</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="13">
+        <v>253</v>
+      </c>
+      <c r="I51" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F52" s="5">
         <v>151.553703</v>
@@ -3192,23 +3290,23 @@
         <v>-33.233196</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I52" s="13">
+        <v>253</v>
+      </c>
+      <c r="I52" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F53" s="5">
         <v>153.407893</v>
@@ -3217,23 +3315,23 @@
         <v>-28.020886</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I53" s="13">
+        <v>258</v>
+      </c>
+      <c r="I53" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" s="5">
         <v>153.108843</v>
@@ -3242,23 +3340,23 @@
         <v>-30.297662</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I54" s="13">
+        <v>253</v>
+      </c>
+      <c r="I54" s="15">
         <v>24.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>256</v>
+        <v>173</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="F55" s="5">
         <v>151.211137</v>
@@ -3267,23 +3365,23 @@
         <v>-33.870122</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I55" s="13">
+        <v>253</v>
+      </c>
+      <c r="I55" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>257</v>
+        <v>173</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="F56" s="5">
         <v>151.780227</v>
@@ -3292,23 +3390,23 @@
         <v>-32.928508</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I56" s="13">
+        <v>253</v>
+      </c>
+      <c r="I56" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>271</v>
+        <v>173</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="F57" s="5">
         <v>152.446526</v>
@@ -3317,23 +3415,23 @@
         <v>-31.893172</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I57" s="13">
+        <v>253</v>
+      </c>
+      <c r="I57" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>203</v>
+        <v>173</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F58" s="5">
         <v>153.104782</v>
@@ -3342,23 +3440,23 @@
         <v>-30.298908</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" s="13">
+        <v>253</v>
+      </c>
+      <c r="I58" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>273</v>
+        <v>173</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="F59" s="5">
         <v>153.284361</v>
@@ -3367,23 +3465,23 @@
         <v>-28.809802</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I59" s="13">
+        <v>253</v>
+      </c>
+      <c r="I59" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>274</v>
+        <v>173</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="F60" s="5">
         <v>153.390103</v>
@@ -3392,23 +3490,23 @@
         <v>-28.018007</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I60" s="13">
+        <v>258</v>
+      </c>
+      <c r="I60" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="F61" s="5">
         <v>153.027181</v>
@@ -3417,23 +3515,23 @@
         <v>-27.467203</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I61" s="13">
+        <v>258</v>
+      </c>
+      <c r="I61" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>275</v>
+        <v>173</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="F62" s="5">
         <v>152.674214</v>
@@ -3442,48 +3540,48 @@
         <v>-26.187175</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I62" s="13">
+        <v>258</v>
+      </c>
+      <c r="I62" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" s="12">
+        <v>115.8604572</v>
+      </c>
+      <c r="G63" s="12">
+        <v>-31.9505269</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F63" s="9">
-        <v>115.8604572</v>
-      </c>
-      <c r="G63" s="9">
-        <v>-31.9505269</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I63" s="13">
+      <c r="I63" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>266</v>
+        <v>173</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="F64" s="5">
         <v>151.343805</v>
@@ -3492,23 +3590,23 @@
         <v>-33.426996</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I64" s="13">
+        <v>276</v>
+      </c>
+      <c r="I64" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>247</v>
+        <v>173</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="F65" s="5">
         <v>138.600034</v>
@@ -3517,23 +3615,23 @@
         <v>-34.929435</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I65" s="13">
+        <v>247</v>
+      </c>
+      <c r="I65" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>278</v>
+        <v>173</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="F66" s="5">
         <v>144.962</v>
@@ -3542,23 +3640,23 @@
         <v>-37.814935</v>
       </c>
       <c r="H66" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I66" s="15">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="I66" s="13">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="F67" s="5">
         <v>149.128461</v>
@@ -3567,23 +3665,23 @@
         <v>-35.281671</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I67" s="13">
+        <v>251</v>
+      </c>
+      <c r="I67" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>256</v>
+        <v>173</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="F68" s="5">
         <v>151.211036</v>
@@ -3592,23 +3690,23 @@
         <v>-33.872553</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I68" s="13">
+        <v>253</v>
+      </c>
+      <c r="I68" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>279</v>
+        <v>173</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="F69" s="5">
         <v>151.943171</v>
@@ -3617,48 +3715,48 @@
         <v>-28.896292</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I69" s="13">
+        <v>258</v>
+      </c>
+      <c r="I69" s="15">
         <v>26.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="9">
+        <v>173</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" s="12">
         <v>145.6044448</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="12">
         <v>-17.5144717</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I70" s="13">
+        <v>258</v>
+      </c>
+      <c r="I70" s="15">
         <v>27.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="F71" s="5">
         <v>153.024155</v>
@@ -3667,23 +3765,23 @@
         <v>-27.472243</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="13">
+        <v>258</v>
+      </c>
+      <c r="I71" s="15">
         <v>27.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>281</v>
+        <v>173</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F72" s="5">
         <v>153.534998</v>
@@ -3692,34 +3790,34 @@
         <v>-28.166629</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I72" s="13">
+        <v>258</v>
+      </c>
+      <c r="I72" s="15">
         <v>27.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F73" s="9">
+        <v>173</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" s="12">
         <v>145.7780548</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="12">
         <v>-16.9185514</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I73" s="13">
+        <v>258</v>
+      </c>
+      <c r="I73" s="15">
         <v>27.0</v>
       </c>
     </row>
@@ -3730,10 +3828,10 @@
         <v>14</v>
       </c>
       <c r="D74" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="F74" s="5">
         <v>146.906895</v>
@@ -3742,7 +3840,7 @@
         <v>-31.247911</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I74" s="5">
         <v>1.0</v>
@@ -3755,10 +3853,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F75" s="5">
         <v>144.748368</v>
@@ -3767,7 +3865,7 @@
         <v>-37.483313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I75" s="5">
         <v>1.0</v>
@@ -3780,10 +3878,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F76" s="5">
         <v>119.6898</v>
@@ -3792,7 +3890,7 @@
         <v>-25.1731</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I76" s="5">
         <v>1.0</v>
@@ -3805,10 +3903,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F77" s="5">
         <v>138.557169</v>
@@ -3817,7 +3915,7 @@
         <v>-35.17465</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I77" s="5">
         <v>1.0</v>
@@ -3830,10 +3928,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F78" s="5">
         <v>145.097822</v>
@@ -3842,7 +3940,7 @@
         <v>-20.537649</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I78" s="5">
         <v>1.0</v>
@@ -3855,19 +3953,19 @@
         <v>14</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="F79" s="5">
         <v>145.735025</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="18">
         <v>-41.781553</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I79" s="5">
         <v>1.0</v>
@@ -3883,7 +3981,7 @@
         <v>23</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F80" s="5">
         <v>150.141916</v>
@@ -3892,7 +3990,7 @@
         <v>-33.921711</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I80" s="5">
         <v>2.0</v>
@@ -3908,7 +4006,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F81" s="5">
         <v>145.597652</v>
@@ -3917,7 +4015,7 @@
         <v>-37.628372</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I81" s="5">
         <v>2.0</v>
@@ -3933,7 +4031,7 @@
         <v>23</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F82" s="5">
         <v>116.086355</v>
@@ -3942,7 +4040,7 @@
         <v>-31.858897</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I82" s="5">
         <v>2.0</v>
@@ -3958,7 +4056,7 @@
         <v>23</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F83" s="5">
         <v>138.773767</v>
@@ -3967,7 +4065,7 @@
         <v>-34.720169</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I83" s="5">
         <v>2.0</v>
@@ -3983,7 +4081,7 @@
         <v>23</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F84" s="5">
         <v>152.039114</v>
@@ -3992,7 +4090,7 @@
         <v>-28.269311</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I84" s="5">
         <v>2.0</v>
@@ -4008,7 +4106,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F85" s="5">
         <v>130.924408</v>
@@ -4017,7 +4115,7 @@
         <v>-12.393994</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I85" s="5">
         <v>2.0</v>
@@ -4033,7 +4131,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F86" s="5">
         <v>149.802857</v>
@@ -4042,7 +4140,7 @@
         <v>-35.416354</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I86" s="5">
         <v>2.0</v>
@@ -4055,10 +4153,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="F87" s="5">
         <v>144.2793906</v>
@@ -4067,7 +4165,7 @@
         <v>-36.7570157</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I87" s="5">
         <v>3.0</v>
@@ -4080,10 +4178,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F88" s="5">
         <v>150.3037323</v>
@@ -4092,7 +4190,7 @@
         <v>-33.409983</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I88" s="5">
         <v>3.0</v>
@@ -4105,10 +4203,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F89" s="5">
         <v>152.948087</v>
@@ -4117,7 +4215,7 @@
         <v>-27.46943</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I89" s="5">
         <v>3.0</v>
@@ -4130,10 +4228,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F90" s="5">
         <v>115.726997</v>
@@ -4142,7 +4240,7 @@
         <v>-32.280998</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I90" s="5">
         <v>3.0</v>
@@ -4155,10 +4253,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F91" s="5">
         <v>149.37808</v>
@@ -4167,7 +4265,7 @@
         <v>-35.505416</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I91" s="5">
         <v>3.0</v>
@@ -4180,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F92" s="5">
         <v>138.766254</v>
@@ -4192,7 +4290,7 @@
         <v>-34.581295</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I92" s="5">
         <v>3.0</v>
@@ -4205,10 +4303,10 @@
         <v>33</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F93" s="5">
         <v>147.281095</v>
@@ -4217,7 +4315,7 @@
         <v>-42.880999</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="5">
         <v>3.0</v>
@@ -4230,10 +4328,10 @@
         <v>33</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F94" s="5">
         <v>130.90245</v>
@@ -4242,7 +4340,7 @@
         <v>-12.531358</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I94" s="5">
         <v>3.0</v>
@@ -4252,13 +4350,13 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F95" s="5">
         <v>144.532165</v>
@@ -4267,9 +4365,9 @@
         <v>-38.193369</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I95" s="13">
+        <v>249</v>
+      </c>
+      <c r="I95" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4277,13 +4375,13 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F96" s="5">
         <v>150.801906</v>
@@ -4292,9 +4390,9 @@
         <v>-34.415209</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I96" s="13">
+        <v>253</v>
+      </c>
+      <c r="I96" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4302,24 +4400,24 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>305</v>
+        <v>75</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="F97" s="5">
         <v>145.587212</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="18">
         <v>-41.241886</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I97" s="13">
+        <v>260</v>
+      </c>
+      <c r="I97" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4327,13 +4425,13 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F98" s="5">
         <v>152.130014</v>
@@ -4342,9 +4440,9 @@
         <v>-27.327207</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I98" s="13">
+        <v>258</v>
+      </c>
+      <c r="I98" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4352,13 +4450,13 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>247</v>
+        <v>75</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="F99" s="5">
         <v>138.856535</v>
@@ -4367,9 +4465,9 @@
         <v>-35.078863</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I99" s="13">
+        <v>247</v>
+      </c>
+      <c r="I99" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4377,13 +4475,13 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F100" s="5">
         <v>149.240445</v>
@@ -4392,9 +4490,9 @@
         <v>-35.42173</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I100" s="13">
+        <v>251</v>
+      </c>
+      <c r="I100" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4402,13 +4500,13 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F101" s="5">
         <v>115.835208</v>
@@ -4417,9 +4515,9 @@
         <v>-33.555353</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I101" s="13">
+        <v>276</v>
+      </c>
+      <c r="I101" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4427,13 +4525,13 @@
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F102" s="5">
         <v>131.867797</v>
@@ -4442,9 +4540,9 @@
         <v>-13.806598</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I102" s="13">
+        <v>262</v>
+      </c>
+      <c r="I102" s="15">
         <v>8.0</v>
       </c>
     </row>
@@ -4458,7 +4556,7 @@
         <v>42</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F103" s="5">
         <v>151.2311911</v>
@@ -4467,9 +4565,9 @@
         <v>-33.9921164</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I103" s="13">
+        <v>253</v>
+      </c>
+      <c r="I103" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4483,7 +4581,7 @@
         <v>42</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F104" s="5">
         <v>151.3173758</v>
@@ -4492,9 +4590,9 @@
         <v>-33.5572106</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I104" s="13">
+        <v>253</v>
+      </c>
+      <c r="I104" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4508,7 +4606,7 @@
         <v>42</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F105" s="5">
         <v>146.6394621</v>
@@ -4517,9 +4615,9 @@
         <v>-18.9625479</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I105" s="13">
+        <v>258</v>
+      </c>
+      <c r="I105" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4533,7 +4631,7 @@
         <v>42</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F106" s="5">
         <v>132.5313457</v>
@@ -4542,9 +4640,9 @@
         <v>-11.1764219</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I106" s="13">
+        <v>262</v>
+      </c>
+      <c r="I106" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4558,7 +4656,7 @@
         <v>42</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F107" s="5">
         <v>137.6639744</v>
@@ -4567,9 +4665,9 @@
         <v>-35.6264954</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I107" s="13">
+        <v>247</v>
+      </c>
+      <c r="I107" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4583,7 +4681,7 @@
         <v>42</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F108" s="5">
         <v>151.102087</v>
@@ -4592,9 +4690,9 @@
         <v>-32.743845</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I108" s="13">
+        <v>253</v>
+      </c>
+      <c r="I108" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4608,7 +4706,7 @@
         <v>42</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F109" s="5">
         <v>145.709756</v>
@@ -4617,9 +4715,9 @@
         <v>-37.848256</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I109" s="13">
+        <v>249</v>
+      </c>
+      <c r="I109" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4633,7 +4731,7 @@
         <v>42</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F110" s="5">
         <v>115.545059</v>
@@ -4642,9 +4740,9 @@
         <v>-26.757462</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I110" s="13">
+        <v>276</v>
+      </c>
+      <c r="I110" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4658,7 +4756,7 @@
         <v>42</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F111" s="5">
         <v>139.024697</v>
@@ -4667,9 +4765,9 @@
         <v>-34.469116</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I111" s="13">
+        <v>247</v>
+      </c>
+      <c r="I111" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4683,7 +4781,7 @@
         <v>42</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F112" s="5">
         <v>152.270238</v>
@@ -4692,9 +4790,9 @@
         <v>-24.978485</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I112" s="13">
+        <v>258</v>
+      </c>
+      <c r="I112" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4708,7 +4806,7 @@
         <v>42</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F113" s="5">
         <v>132.267641</v>
@@ -4717,9 +4815,9 @@
         <v>-14.531178</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I113" s="13">
+        <v>262</v>
+      </c>
+      <c r="I113" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4733,7 +4831,7 @@
         <v>42</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F114" s="5">
         <v>149.288531</v>
@@ -4742,9 +4840,9 @@
         <v>-35.31616</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I114" s="13">
+        <v>251</v>
+      </c>
+      <c r="I114" s="15">
         <v>4.0</v>
       </c>
     </row>
@@ -4752,13 +4850,13 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F115" s="5">
         <v>143.7443331</v>
@@ -4767,9 +4865,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I115" s="13">
+        <v>258</v>
+      </c>
+      <c r="I115" s="15">
         <v>5.0</v>
       </c>
     </row>
@@ -4777,13 +4875,13 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F116" s="5">
         <v>138.2393528</v>
@@ -4792,23 +4890,23 @@
         <v>-35.1324002</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I116" s="13">
+        <v>247</v>
+      </c>
+      <c r="I116" s="15">
         <v>5.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>221</v>
+        <v>173</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F117" s="5">
         <v>131.097498</v>
@@ -4817,159 +4915,159 @@
         <v>-12.34867</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I117" s="13">
+        <v>262</v>
+      </c>
+      <c r="I117" s="15">
         <v>28.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>221</v>
+        <v>173</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F118" s="12">
+        <v>130.131029</v>
+      </c>
+      <c r="G118" s="12">
+        <v>-13.0868863</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I118" s="15">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F118" s="9">
-        <v>130.131029</v>
-      </c>
-      <c r="G118" s="9">
-        <v>-13.0868863</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I118" s="13">
+      <c r="F119" s="12">
+        <v>131.102222</v>
+      </c>
+      <c r="G119" s="12">
+        <v>-12.575278</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I119" s="15">
         <v>28.0</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E119" s="5" t="s">
+    <row r="120">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F119" s="9">
-        <v>131.102222</v>
-      </c>
-      <c r="G119" s="9">
-        <v>-12.575278</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I119" s="13">
+      <c r="F120" s="12">
+        <v>128.7654685</v>
+      </c>
+      <c r="G120" s="12">
+        <v>-15.6049485</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I120" s="15">
         <v>28.0</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E120" s="5" t="s">
+    <row r="121">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F120" s="9">
-        <v>128.7654685</v>
-      </c>
-      <c r="G120" s="9">
-        <v>-15.6049485</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I120" s="13">
+      <c r="F121" s="12">
+        <v>147.1327778</v>
+      </c>
+      <c r="G121" s="12">
+        <v>-36.9752778</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I121" s="15">
         <v>28.0</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E121" s="5" t="s">
+    <row r="122">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F121" s="9">
-        <v>147.1327778</v>
-      </c>
-      <c r="G121" s="9">
-        <v>-36.9752778</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I121" s="13">
+      <c r="F122" s="12">
+        <v>132.3937658</v>
+      </c>
+      <c r="G122" s="12">
+        <v>-13.0922931</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I122" s="15">
         <v>28.0</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E122" s="5" t="s">
+    <row r="123">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F122" s="9">
-        <v>132.3937658</v>
-      </c>
-      <c r="G122" s="9">
-        <v>-13.0922931</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I122" s="13">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F123" s="9">
+      <c r="F123" s="12">
         <v>133.6565478</v>
       </c>
-      <c r="G123" s="9">
+      <c r="G123" s="12">
         <v>-12.2562233</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I123" s="13">
+        <v>262</v>
+      </c>
+      <c r="I123" s="15">
         <v>28.0</v>
       </c>
     </row>
@@ -4977,13 +5075,13 @@
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D124" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="F124" s="5">
         <v>148.228665</v>
@@ -4992,9 +5090,9 @@
         <v>-32.727341</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I124" s="13">
+        <v>253</v>
+      </c>
+      <c r="I124" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5002,13 +5100,13 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F125" s="5">
         <v>146.50835</v>
@@ -5017,9 +5115,9 @@
         <v>-38.110305</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I125" s="13">
+        <v>249</v>
+      </c>
+      <c r="I125" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5027,13 +5125,13 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F126" s="5">
         <v>115.229051</v>
@@ -5042,9 +5140,9 @@
         <v>-34.042031</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I126" s="13">
+        <v>276</v>
+      </c>
+      <c r="I126" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5052,13 +5150,13 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F127" s="5">
         <v>135.833862</v>
@@ -5067,9 +5165,9 @@
         <v>-34.728307</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I127" s="13">
+        <v>247</v>
+      </c>
+      <c r="I127" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5077,13 +5175,13 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F128" s="5">
         <v>152.578498</v>
@@ -5092,9 +5190,9 @@
         <v>-27.321098</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I128" s="13">
+        <v>258</v>
+      </c>
+      <c r="I128" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5102,13 +5200,13 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F129" s="5">
         <v>146.239833</v>
@@ -5117,9 +5215,9 @@
         <v>-42.224372</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I129" s="13">
+        <v>260</v>
+      </c>
+      <c r="I129" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5127,13 +5225,13 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F130" s="5">
         <v>149.112463</v>
@@ -5142,9 +5240,9 @@
         <v>-35.293744</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I130" s="13">
+        <v>251</v>
+      </c>
+      <c r="I130" s="15">
         <v>6.0</v>
       </c>
     </row>
@@ -5152,13 +5250,13 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F131" s="5">
         <v>152.9993386</v>
@@ -5167,9 +5265,9 @@
         <v>-28.6809564</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I131" s="17">
+        <v>258</v>
+      </c>
+      <c r="I131" s="19">
         <v>7.0</v>
       </c>
     </row>
@@ -5177,13 +5275,13 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F132" s="5">
         <v>152.7296388</v>
@@ -5192,9 +5290,9 @@
         <v>-30.4332051</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I132" s="17">
+        <v>253</v>
+      </c>
+      <c r="I132" s="19">
         <v>7.0</v>
       </c>
     </row>
@@ -5202,13 +5300,13 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F133" s="5">
         <v>151.3326862</v>
@@ -5217,9 +5315,9 @@
         <v>-33.5565739</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I133" s="17">
+        <v>258</v>
+      </c>
+      <c r="I133" s="19">
         <v>7.0</v>
       </c>
     </row>
@@ -5227,13 +5325,13 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>341</v>
+        <v>68</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="F134" s="5">
         <v>150.7446771</v>
@@ -5242,9 +5340,9 @@
         <v>-35.0480805</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I134" s="17">
+        <v>253</v>
+      </c>
+      <c r="I134" s="19">
         <v>7.0</v>
       </c>
     </row>
@@ -5252,13 +5350,13 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F135" s="5">
         <v>147.65</v>
@@ -5267,48 +5365,48 @@
         <v>-38.0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I135" s="17">
+        <v>249</v>
+      </c>
+      <c r="I135" s="19">
         <v>7.0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E136" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F136" s="12">
+        <v>151.9506696</v>
+      </c>
+      <c r="G136" s="12">
+        <v>-27.5598212</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I136" s="19">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="F136" s="9">
-        <v>151.9506696</v>
-      </c>
-      <c r="G136" s="9">
-        <v>-27.5598212</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I136" s="17">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="F137" s="5">
         <v>152.805484</v>
@@ -5317,23 +5415,23 @@
         <v>-27.426872</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I137" s="17">
+        <v>258</v>
+      </c>
+      <c r="I137" s="19">
         <v>29.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F138" s="5">
         <v>144.271284</v>
@@ -5342,23 +5440,23 @@
         <v>-37.436833</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I138" s="17">
+        <v>249</v>
+      </c>
+      <c r="I138" s="19">
         <v>29.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F139" s="5">
         <v>148.824403</v>
@@ -5367,23 +5465,23 @@
         <v>-35.512022</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I139" s="17">
+        <v>251</v>
+      </c>
+      <c r="I139" s="19">
         <v>29.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F140" s="5">
         <v>140.451746</v>
@@ -5392,109 +5490,109 @@
         <v>-35.653708</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I140" s="17">
+        <v>247</v>
+      </c>
+      <c r="I140" s="19">
         <v>29.0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E141" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F141" s="12">
+        <v>137.7894394</v>
+      </c>
+      <c r="G141" s="12">
+        <v>-32.4952339</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I141" s="19">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F141" s="9">
-        <v>137.7894394</v>
-      </c>
-      <c r="G141" s="9">
-        <v>-32.4952339</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I141" s="17">
+      <c r="F142" s="12">
+        <v>141.4539396</v>
+      </c>
+      <c r="G142" s="12">
+        <v>-31.9539135</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I142" s="19">
         <v>29.0</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E142" s="5" t="s">
+    <row r="143">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F142" s="9">
-        <v>141.4539396</v>
-      </c>
-      <c r="G142" s="9">
-        <v>-31.9539135</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I142" s="17">
+      <c r="F143" s="12">
+        <v>148.6329645</v>
+      </c>
+      <c r="G143" s="12">
+        <v>-32.2315018</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I143" s="19">
         <v>29.0</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E143" s="5" t="s">
+    <row r="144">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F143" s="9">
-        <v>148.6329645</v>
-      </c>
-      <c r="G143" s="9">
-        <v>-32.2315018</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I143" s="17">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F144" s="9">
+      <c r="F144" s="12">
         <v>150.9320334</v>
       </c>
-      <c r="G144" s="9">
+      <c r="G144" s="12">
         <v>-31.092748</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I144" s="17">
+        <v>253</v>
+      </c>
+      <c r="I144" s="19">
         <v>29.0</v>
       </c>
     </row>
@@ -5502,13 +5600,13 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F145" s="5">
         <v>147.7123335</v>
@@ -5517,9 +5615,9 @@
         <v>-37.9112576</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I145" s="17">
+        <v>249</v>
+      </c>
+      <c r="I145" s="19">
         <v>11.0</v>
       </c>
     </row>
@@ -5527,13 +5625,13 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F146" s="5">
         <v>143.7443331</v>
@@ -5542,9 +5640,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I146" s="17">
+        <v>247</v>
+      </c>
+      <c r="I146" s="19">
         <v>11.0</v>
       </c>
     </row>
@@ -5552,13 +5650,13 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F147" s="5">
         <v>152.45621</v>
@@ -5567,9 +5665,9 @@
         <v>-30.82738429</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I147" s="17">
+        <v>253</v>
+      </c>
+      <c r="I147" s="19">
         <v>11.0</v>
       </c>
     </row>
@@ -5577,13 +5675,13 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F148" s="5">
         <v>149.9358867</v>
@@ -5592,9 +5690,9 @@
         <v>-35.2306369</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I148" s="17">
+        <v>253</v>
+      </c>
+      <c r="I148" s="19">
         <v>11.0</v>
       </c>
     </row>
@@ -5602,13 +5700,13 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F149" s="5">
         <v>140.7442855</v>
@@ -5617,9 +5715,9 @@
         <v>-34.1742746</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I149" s="17">
+        <v>247</v>
+      </c>
+      <c r="I149" s="19">
         <v>11.0</v>
       </c>
     </row>
@@ -5627,13 +5725,13 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F150" s="5">
         <v>147.995821</v>
@@ -5642,9 +5740,9 @@
         <v>-37.8511185</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I150" s="17">
+        <v>249</v>
+      </c>
+      <c r="I150" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5652,13 +5750,13 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F151" s="5">
         <v>153.1463819</v>
@@ -5667,9 +5765,9 @@
         <v>-29.4612304</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I151" s="17">
+        <v>253</v>
+      </c>
+      <c r="I151" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5677,13 +5775,13 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F152" s="5">
         <v>152.4736434</v>
@@ -5692,9 +5790,9 @@
         <v>-31.4101475</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I152" s="17">
+        <v>253</v>
+      </c>
+      <c r="I152" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5702,13 +5800,13 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F153" s="5">
         <v>115.788155</v>
@@ -5717,9 +5815,9 @@
         <v>-33.3057308</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I153" s="17">
+        <v>276</v>
+      </c>
+      <c r="I153" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5727,13 +5825,13 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F154" s="5">
         <v>145.3843373</v>
@@ -5742,9 +5840,9 @@
         <v>-42.3197515</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I154" s="17">
+        <v>260</v>
+      </c>
+      <c r="I154" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5752,13 +5850,13 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F155" s="5">
         <v>143.7443331</v>
@@ -5767,9 +5865,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I155" s="17">
+        <v>247</v>
+      </c>
+      <c r="I155" s="19">
         <v>12.0</v>
       </c>
     </row>
@@ -5777,13 +5875,13 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F156" s="5">
         <v>143.7443331</v>
@@ -5792,9 +5890,9 @@
         <v>-35.3860672</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I156" s="17">
+        <v>258</v>
+      </c>
+      <c r="I156" s="19">
         <v>10.0</v>
       </c>
     </row>
@@ -5802,13 +5900,13 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F157" s="5">
         <v>115.6483509</v>
@@ -5817,23 +5915,23 @@
         <v>-32.6135821</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I157" s="17">
+        <v>276</v>
+      </c>
+      <c r="I157" s="19">
         <v>10.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F158" s="5">
         <v>115.834347</v>
@@ -5842,23 +5940,23 @@
         <v>-31.960828</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I158" s="17">
+        <v>276</v>
+      </c>
+      <c r="I158" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F159" s="5">
         <v>130.84513</v>
@@ -5867,48 +5965,48 @@
         <v>-12.464874</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I159" s="17">
+        <v>262</v>
+      </c>
+      <c r="I159" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F160" s="12">
+        <v>132.6097596</v>
+      </c>
+      <c r="G160" s="12">
+        <v>-11.6970626</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I160" s="19">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="F160" s="9">
-        <v>132.6097596</v>
-      </c>
-      <c r="G160" s="9">
-        <v>-11.6970626</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I160" s="17">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="F161" s="5">
         <v>145.840773</v>
@@ -5917,23 +6015,23 @@
         <v>-16.988502</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I161" s="17">
+        <v>258</v>
+      </c>
+      <c r="I161" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F162" s="5">
         <v>146.81571</v>
@@ -5942,23 +6040,23 @@
         <v>-19.25819</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I162" s="17">
+        <v>258</v>
+      </c>
+      <c r="I162" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F163" s="5">
         <v>151.213965</v>
@@ -5967,23 +6065,23 @@
         <v>-33.868661</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I163" s="17">
+        <v>253</v>
+      </c>
+      <c r="I163" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F164" s="5">
         <v>153.021821</v>
@@ -5992,23 +6090,23 @@
         <v>-27.467117</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I164" s="17">
+        <v>258</v>
+      </c>
+      <c r="I164" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F165" s="5">
         <v>144.962663</v>
@@ -6017,23 +6115,23 @@
         <v>-37.812176</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I165" s="17">
+        <v>249</v>
+      </c>
+      <c r="I165" s="19">
         <v>30.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F166" s="5">
         <v>151.780527</v>
@@ -6042,9 +6140,9 @@
         <v>-32.928306</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I166" s="17">
+        <v>253</v>
+      </c>
+      <c r="I166" s="19">
         <v>30.0</v>
       </c>
     </row>
@@ -6052,24 +6150,24 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>260</v>
+        <v>113</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="F167" s="5">
         <v>145.9706647</v>
       </c>
-      <c r="G167" s="16">
+      <c r="G167" s="18">
         <v>-41.4545196</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I167" s="17">
+        <v>260</v>
+      </c>
+      <c r="I167" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6077,13 +6175,13 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F168" s="5">
         <v>146.906857</v>
@@ -6092,9 +6190,9 @@
         <v>-31.247792</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I168" s="17">
+        <v>253</v>
+      </c>
+      <c r="I168" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6102,13 +6200,13 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F169" s="5">
         <v>144.746954</v>
@@ -6117,9 +6215,9 @@
         <v>-37.483683</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I169" s="17">
+        <v>249</v>
+      </c>
+      <c r="I169" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6127,13 +6225,13 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F170" s="5">
         <v>120.69857</v>
@@ -6142,9 +6240,9 @@
         <v>-27.919194</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I170" s="17">
+        <v>276</v>
+      </c>
+      <c r="I170" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6152,13 +6250,13 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F171" s="5">
         <v>136.07394</v>
@@ -6167,9 +6265,9 @@
         <v>-29.931135</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I171" s="17">
+        <v>247</v>
+      </c>
+      <c r="I171" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6177,13 +6275,13 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F172" s="5">
         <v>144.556746</v>
@@ -6192,9 +6290,9 @@
         <v>-22.362776</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I172" s="17">
+        <v>258</v>
+      </c>
+      <c r="I172" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6202,24 +6300,24 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E173" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F173" s="12">
+        <v>132.5509603</v>
+      </c>
+      <c r="G173" s="12">
+        <v>-19.4914108</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F173" s="9">
-        <v>132.5509603</v>
-      </c>
-      <c r="G173" s="9">
-        <v>-19.4914108</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I173" s="17">
+      <c r="I173" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6227,13 +6325,13 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F174" s="5">
         <v>149.056322</v>
@@ -6242,9 +6340,9 @@
         <v>-35.511968</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I174" s="17">
+        <v>251</v>
+      </c>
+      <c r="I174" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6252,13 +6350,13 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F175" s="5">
         <v>151.1562047</v>
@@ -6267,9 +6365,9 @@
         <v>-33.92713579</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I175" s="17">
+        <v>253</v>
+      </c>
+      <c r="I175" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6277,13 +6375,13 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F176" s="5">
         <v>151.225581</v>
@@ -6292,9 +6390,9 @@
         <v>-33.854974</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I176" s="17">
+        <v>253</v>
+      </c>
+      <c r="I176" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6302,13 +6400,13 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F177" s="5">
         <v>145.973054</v>
@@ -6317,9 +6415,9 @@
         <v>-16.759447</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I177" s="17">
+        <v>258</v>
+      </c>
+      <c r="I177" s="19">
         <v>13.0</v>
       </c>
     </row>
@@ -6327,13 +6425,13 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>262</v>
+        <v>122</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="F178" s="5">
         <v>135.009291</v>
@@ -6342,9 +6440,9 @@
         <v>-19.532391</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I178" s="17">
+        <v>262</v>
+      </c>
+      <c r="I178" s="19">
         <v>14.0</v>
       </c>
     </row>
@@ -6352,13 +6450,13 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F179" s="5">
         <v>125.570619</v>
@@ -6367,9 +6465,9 @@
         <v>-18.196831</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I179" s="17">
+        <v>276</v>
+      </c>
+      <c r="I179" s="19">
         <v>14.0</v>
       </c>
     </row>
@@ -6377,13 +6475,13 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F180" s="5">
         <v>151.206143</v>
@@ -6392,9 +6490,9 @@
         <v>-33.866612</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I180" s="17">
+        <v>253</v>
+      </c>
+      <c r="I180" s="19">
         <v>14.0</v>
       </c>
     </row>
@@ -6402,13 +6500,13 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F181" s="5">
         <v>151.206143</v>
@@ -6417,9 +6515,9 @@
         <v>-33.865498</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I181" s="17">
+        <v>253</v>
+      </c>
+      <c r="I181" s="19">
         <v>15.0</v>
       </c>
     </row>
@@ -6427,24 +6525,24 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E182" s="15" t="s">
-        <v>378</v>
+        <v>130</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="F182" s="5">
         <v>145.969714</v>
       </c>
-      <c r="G182" s="16">
+      <c r="G182" s="18">
         <v>-41.454861</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I182" s="17">
+        <v>260</v>
+      </c>
+      <c r="I182" s="19">
         <v>15.0</v>
       </c>
     </row>
@@ -6452,13 +6550,13 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F183" s="5">
         <v>146.906863</v>
@@ -6467,9 +6565,9 @@
         <v>-31.247737</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I183" s="17">
+        <v>253</v>
+      </c>
+      <c r="I183" s="19">
         <v>15.0</v>
       </c>
     </row>
@@ -6477,13 +6575,13 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F184" s="5">
         <v>144.749981</v>
@@ -6492,9 +6590,9 @@
         <v>-37.486131</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I184" s="17">
+        <v>249</v>
+      </c>
+      <c r="I184" s="19">
         <v>15.0</v>
       </c>
     </row>
@@ -6502,13 +6600,13 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F185" s="5">
         <v>136.144635</v>
@@ -6517,9 +6615,9 @@
         <v>-29.93887</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I185" s="17">
+        <v>247</v>
+      </c>
+      <c r="I185" s="19">
         <v>15.0</v>
       </c>
     </row>
@@ -6527,13 +6625,13 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F186" s="5">
         <v>141.9368545</v>
@@ -6542,9 +6640,9 @@
         <v>-10.2199025</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I186" s="17">
+        <v>258</v>
+      </c>
+      <c r="I186" s="19">
         <v>16.0</v>
       </c>
     </row>
@@ -6552,13 +6650,13 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>262</v>
+        <v>140</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="F187" s="5">
         <v>134.865436</v>
@@ -6567,9 +6665,9 @@
         <v>-19.526142</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I187" s="17">
+        <v>262</v>
+      </c>
+      <c r="I187" s="19">
         <v>16.0</v>
       </c>
     </row>
@@ -6577,13 +6675,13 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F188" s="5">
         <v>147.129055</v>
@@ -6592,9 +6690,9 @@
         <v>-31.503629</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I188" s="17">
+        <v>253</v>
+      </c>
+      <c r="I188" s="19">
         <v>17.0</v>
       </c>
     </row>
@@ -6602,13 +6700,13 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F189" s="5">
         <v>144.777859</v>
@@ -6617,9 +6715,9 @@
         <v>-37.490115</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I189" s="17">
+        <v>249</v>
+      </c>
+      <c r="I189" s="19">
         <v>17.0</v>
       </c>
     </row>
@@ -6627,13 +6725,13 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F190" s="5">
         <v>136.648049</v>
@@ -6642,9 +6740,9 @@
         <v>-29.571068</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I190" s="17">
+        <v>247</v>
+      </c>
+      <c r="I190" s="19">
         <v>17.0</v>
       </c>
     </row>
@@ -6652,13 +6750,13 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F191" s="5">
         <v>142.370469</v>
@@ -6667,9 +6765,9 @@
         <v>-37.20955</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I191" s="17">
+        <v>249</v>
+      </c>
+      <c r="I191" s="19">
         <v>18.0</v>
       </c>
     </row>
@@ -6677,13 +6775,13 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F192" s="5">
         <v>142.0798249</v>
@@ -6692,9 +6790,9 @@
         <v>-37.2596492</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I192" s="17">
+        <v>249</v>
+      </c>
+      <c r="I192" s="19">
         <v>18.0</v>
       </c>
     </row>
@@ -6702,13 +6800,13 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F193" s="5">
         <v>144.4938982</v>
@@ -6717,9 +6815,9 @@
         <v>-38.2836875</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I193" s="17">
+        <v>253</v>
+      </c>
+      <c r="I193" s="19">
         <v>18.0</v>
       </c>
     </row>
@@ -6727,13 +6825,13 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F194" s="5">
         <v>143.4014055</v>
@@ -6742,9 +6840,9 @@
         <v>-38.1826107</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I194" s="17">
+        <v>249</v>
+      </c>
+      <c r="I194" s="19">
         <v>18.0</v>
       </c>
     </row>
@@ -6752,13 +6850,13 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F195" s="5">
         <v>143.566667</v>
@@ -6767,9 +6865,9 @@
         <v>-38.633333</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I195" s="17">
+        <v>249</v>
+      </c>
+      <c r="I195" s="19">
         <v>18.0</v>
       </c>
     </row>
@@ -6777,13 +6875,13 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F196" s="5">
         <v>142.660864</v>
@@ -6792,9 +6890,9 @@
         <v>-18.319981</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I196" s="17">
+        <v>258</v>
+      </c>
+      <c r="I196" s="19">
         <v>20.0</v>
       </c>
     </row>
@@ -6802,13 +6900,13 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>247</v>
+        <v>166</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="F197" s="5">
         <v>138.610444</v>
@@ -6817,9 +6915,9 @@
         <v>-34.938472</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I197" s="17">
+        <v>247</v>
+      </c>
+      <c r="I197" s="19">
         <v>20.0</v>
       </c>
     </row>
@@ -6827,13 +6925,13 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F198" s="5">
         <v>144.748564</v>
@@ -6842,9 +6940,9 @@
         <v>-37.483245</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I198" s="17">
+        <v>249</v>
+      </c>
+      <c r="I198" s="19">
         <v>20.0</v>
       </c>
     </row>
@@ -6852,13 +6950,13 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>258</v>
+        <v>158</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="F199" s="5">
         <v>153.025338</v>
@@ -6867,9 +6965,9 @@
         <v>-27.469859</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I199" s="17">
+        <v>258</v>
+      </c>
+      <c r="I199" s="19">
         <v>19.0</v>
       </c>
     </row>
@@ -6877,13 +6975,13 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F200" s="5">
         <v>151.110702</v>
@@ -6892,9 +6990,9 @@
         <v>-23.8296</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I200" s="17">
+        <v>258</v>
+      </c>
+      <c r="I200" s="19">
         <v>19.0</v>
       </c>
     </row>
@@ -6902,13 +7000,13 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F201" s="5">
         <v>151.227043</v>
@@ -6917,26 +7015,26 @@
         <v>-33.976606</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I201" s="17">
+        <v>253</v>
+      </c>
+      <c r="I201" s="19">
         <v>19.0</v>
       </c>
     </row>
     <row r="204">
-      <c r="E204" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F204" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G204" s="18" t="s">
-        <v>180</v>
+      <c r="E204" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="G204" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F205" s="5">
         <v>17.0</v>
@@ -6947,7 +7045,7 @@
     </row>
     <row r="206">
       <c r="E206" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F206" s="5">
         <v>23.0</v>
@@ -6958,7 +7056,7 @@
     </row>
     <row r="207">
       <c r="E207" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F207" s="5">
         <v>7.0</v>
@@ -6969,7 +7067,7 @@
     </row>
     <row r="208">
       <c r="E208" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F208" s="5">
         <v>15.0</v>
@@ -6980,7 +7078,7 @@
     </row>
     <row r="209">
       <c r="E209" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F209" s="5">
         <v>8.0</v>
@@ -6991,7 +7089,7 @@
     </row>
     <row r="210">
       <c r="E210" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F210" s="5">
         <v>17.0</v>
@@ -7002,7 +7100,7 @@
     </row>
     <row r="211">
       <c r="E211" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F211" s="5">
         <v>6.0</v>
@@ -7013,7 +7111,7 @@
     </row>
     <row r="212">
       <c r="E212" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F212" s="5">
         <v>10.0</v>
